--- a/data/ICU-Transliterations.xlsx
+++ b/data/ICU-Transliterations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B0C3541-40A8-AD4B-8CFB-9879208E7397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00AEAD6-E3D7-9A4C-970B-76EF1F2E8F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6760" yWindow="-27180" windowWidth="40800" windowHeight="27180"/>
+    <workbookView xWindow="-6760" yWindow="-27320" windowWidth="48460" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icu-downloads" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="832">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Georgian-Latin-BGN_1981.xml</t>
   </si>
   <si>
-    <t>BGN_1981</t>
-  </si>
-  <si>
     <t>ka-Latn-t-ka-m0-bgn-1981</t>
   </si>
   <si>
@@ -736,9 +733,6 @@
     <t>Katakana-Latin-BGN.xml</t>
   </si>
   <si>
-    <t>ja_Latn</t>
-  </si>
-  <si>
     <t>Katakana-Latin/BGN</t>
   </si>
   <si>
@@ -763,9 +757,6 @@
     <t>Korean-Latin-BGN.xml</t>
   </si>
   <si>
-    <t>Korean</t>
-  </si>
-  <si>
     <t>Korean-Latin/BGN</t>
   </si>
   <si>
@@ -1657,9 +1648,6 @@
     <t>es_FONIPA-es_419_FONIPA.xml</t>
   </si>
   <si>
-    <t>es_419_FONIPA</t>
-  </si>
-  <si>
     <t>es-419-fonipa-t-es-fonipa</t>
   </si>
   <si>
@@ -1687,9 +1675,6 @@
     <t>Hausa</t>
   </si>
   <si>
-    <t>ha_NE</t>
-  </si>
-  <si>
     <t>ha-NE-t-ha</t>
   </si>
   <si>
@@ -2374,9 +2359,6 @@
     <t>zh_Latn_PINYIN-ru.xml</t>
   </si>
   <si>
-    <t>zh_Latn_PINYIN</t>
-  </si>
-  <si>
     <t>ru-t-zh-latn-pinyin</t>
   </si>
   <si>
@@ -2440,9 +2422,6 @@
     <t>Backward Alias</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Mkhedruli and Mtavruli)</t>
-  </si>
-  <si>
     <t>Modern (1453-)</t>
   </si>
   <si>
@@ -2501,12 +2480,48 @@
   </si>
   <si>
     <t>Benin</t>
+  </si>
+  <si>
+    <t>Note (Tooltip)</t>
+  </si>
+  <si>
+    <t>Cyrillization of Mandarin Chinese from Pinyin into Russian (Palladius system)</t>
+  </si>
+  <si>
+    <t>This transform converts Unicode Burmese text into Zawgyi font encoded form.</t>
+  </si>
+  <si>
+    <t>Romanji</t>
+  </si>
+  <si>
+    <t>Japanese (Rōmaji) to Russian (Cyrillic) Polivanov transliteration.</t>
+  </si>
+  <si>
+    <t>Japanese (Rōmaji) to Korean (Hangul) transliteration.</t>
+  </si>
+  <si>
+    <t>BGN (1981)</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Transliteration of Russian into Mandarin written in simplified Chinese.</t>
+  </si>
+  <si>
+    <t>Simplified</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Pinyin-Numeric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3020,13 +3035,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3381,12 +3397,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I354"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3395,46 +3411,50 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>791</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3452,7 +3472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3478,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3504,7 +3524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3524,7 +3544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3564,7 +3584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3587,7 +3607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3627,7 +3647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3661,7 +3681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3678,7 +3698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3695,7 +3715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3712,7 +3732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -4086,13 +4106,13 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
         <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
         <v>102</v>
@@ -4138,25 +4158,22 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
+        <v>826</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
         <v>109</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="C40" t="s">
-        <v>806</v>
-      </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
@@ -4164,21 +4181,21 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" t="s">
         <v>112</v>
-      </c>
-      <c r="H40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -4190,15 +4207,15 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -4207,38 +4224,38 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" t="s">
         <v>119</v>
-      </c>
-      <c r="H42" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
         <v>121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>122</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
       <c r="G43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" t="s">
         <v>123</v>
-      </c>
-      <c r="H43" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -4250,12 +4267,12 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -4267,12 +4284,12 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
@@ -4284,12 +4301,12 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
@@ -4301,12 +4318,12 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -4323,7 +4340,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -4335,12 +4352,12 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -4352,12 +4369,12 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -4369,12 +4386,12 @@
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -4386,12 +4403,12 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
@@ -4403,12 +4420,12 @@
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -4420,12 +4437,12 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -4437,12 +4454,12 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
@@ -4454,12 +4471,12 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -4471,12 +4488,12 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -4488,12 +4505,12 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
@@ -4505,12 +4522,12 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
@@ -4527,7 +4544,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -4539,12 +4556,12 @@
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
@@ -4556,12 +4573,12 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
@@ -4573,12 +4590,12 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -4590,12 +4607,12 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
@@ -4607,12 +4624,12 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
@@ -4624,12 +4641,12 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
@@ -4641,55 +4658,55 @@
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" t="s">
         <v>171</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>172</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
         <v>173</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
         <v>175</v>
-      </c>
-      <c r="B69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" t="s">
         <v>177</v>
-      </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" t="s">
-        <v>178</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -4700,27 +4717,27 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" t="s">
         <v>179</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
         <v>180</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
         <v>182</v>
-      </c>
-      <c r="B72" t="s">
-        <v>183</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -4732,15 +4749,15 @@
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -4749,38 +4766,38 @@
         <v>8</v>
       </c>
       <c r="G73" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" t="s">
         <v>186</v>
-      </c>
-      <c r="H73" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" t="s">
         <v>188</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>189</v>
-      </c>
-      <c r="D74" t="s">
-        <v>190</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
       </c>
       <c r="G74" t="s">
+        <v>190</v>
+      </c>
+      <c r="H74" t="s">
         <v>191</v>
-      </c>
-      <c r="H74" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -4789,38 +4806,38 @@
         <v>8</v>
       </c>
       <c r="G75" t="s">
+        <v>193</v>
+      </c>
+      <c r="H75" t="s">
         <v>194</v>
-      </c>
-      <c r="H75" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
       </c>
       <c r="G76" t="s">
+        <v>197</v>
+      </c>
+      <c r="H76" t="s">
         <v>198</v>
-      </c>
-      <c r="H76" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -4837,7 +4854,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -4854,7 +4871,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -4871,7 +4888,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -4888,7 +4905,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -4905,7 +4922,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -4922,7 +4939,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -4939,7 +4956,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -4956,7 +4973,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
@@ -4973,7 +4990,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -4990,7 +5007,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -5007,7 +5024,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -5024,27 +5041,27 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>801</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
         <v>212</v>
-      </c>
-      <c r="B89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>808</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" t="s">
         <v>47</v>
@@ -5056,12 +5073,12 @@
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
         <v>47</v>
@@ -5073,12 +5090,12 @@
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
         <v>47</v>
@@ -5090,12 +5107,12 @@
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
         <v>47</v>
@@ -5107,12 +5124,12 @@
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
         <v>47</v>
@@ -5124,12 +5141,12 @@
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" t="s">
         <v>47</v>
@@ -5146,7 +5163,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B96" t="s">
         <v>47</v>
@@ -5158,12 +5175,12 @@
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B97" t="s">
         <v>47</v>
@@ -5175,12 +5192,12 @@
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B98" t="s">
         <v>47</v>
@@ -5192,12 +5209,12 @@
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
         <v>47</v>
@@ -5209,12 +5226,12 @@
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B100" t="s">
         <v>47</v>
@@ -5226,12 +5243,12 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" t="s">
         <v>47</v>
@@ -5243,15 +5260,15 @@
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" t="s">
@@ -5264,18 +5281,18 @@
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s">
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -5287,18 +5304,18 @@
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
         <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -5310,15 +5327,15 @@
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
@@ -5330,29 +5347,29 @@
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
         <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
         <v>19</v>
@@ -5364,15 +5381,15 @@
         <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B108" t="s">
         <v>19</v>
@@ -5384,41 +5401,41 @@
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
         <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
       </c>
       <c r="G109" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
         <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E110" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F110" t="s">
         <v>8</v>
@@ -5429,7 +5446,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B111" t="s">
         <v>19</v>
@@ -5441,32 +5458,32 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F112" t="s">
         <v>8</v>
       </c>
       <c r="G112" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H112" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
@@ -5478,12 +5495,12 @@
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
         <v>19</v>
@@ -5495,29 +5512,29 @@
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
         <v>19</v>
@@ -5534,27 +5551,27 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
         <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
         <v>19</v>
@@ -5566,32 +5583,32 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B119" t="s">
         <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F119" t="s">
         <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H119" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B120" t="s">
         <v>19</v>
@@ -5603,35 +5620,35 @@
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B121" t="s">
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E121" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F121" t="s">
         <v>8</v>
       </c>
       <c r="G121" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H121" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
         <v>19</v>
@@ -5643,12 +5660,12 @@
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
         <v>19</v>
@@ -5660,12 +5677,12 @@
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
@@ -5677,35 +5694,35 @@
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B125" t="s">
         <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B126" t="s">
         <v>74</v>
       </c>
       <c r="C126" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
@@ -5717,12 +5734,12 @@
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B127" t="s">
         <v>52</v>
@@ -5734,12 +5751,12 @@
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B128" t="s">
         <v>52</v>
@@ -5751,12 +5768,12 @@
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B129" t="s">
         <v>52</v>
@@ -5768,12 +5785,12 @@
         <v>3</v>
       </c>
       <c r="G129" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B130" t="s">
         <v>52</v>
@@ -5785,12 +5802,12 @@
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
         <v>52</v>
@@ -5802,12 +5819,12 @@
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B132" t="s">
         <v>52</v>
@@ -5824,7 +5841,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s">
         <v>52</v>
@@ -5836,12 +5853,12 @@
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B134" t="s">
         <v>52</v>
@@ -5853,12 +5870,12 @@
         <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s">
         <v>52</v>
@@ -5870,12 +5887,12 @@
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
         <v>52</v>
@@ -5887,12 +5904,12 @@
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B137" t="s">
         <v>52</v>
@@ -5904,12 +5921,12 @@
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s">
         <v>52</v>
@@ -5921,15 +5938,15 @@
         <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D139" t="s">
         <v>19</v>
@@ -5941,18 +5958,18 @@
         <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B140" t="s">
         <v>74</v>
       </c>
       <c r="C140" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D140" t="s">
         <v>19</v>
@@ -5964,12 +5981,12 @@
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B141" t="s">
         <v>55</v>
@@ -5981,12 +5998,12 @@
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B142" t="s">
         <v>55</v>
@@ -5998,12 +6015,12 @@
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B143" t="s">
         <v>55</v>
@@ -6015,12 +6032,12 @@
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B144" t="s">
         <v>55</v>
@@ -6032,12 +6049,12 @@
         <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B145" t="s">
         <v>55</v>
@@ -6049,12 +6066,12 @@
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B146" t="s">
         <v>55</v>
@@ -6071,7 +6088,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B147" t="s">
         <v>55</v>
@@ -6083,12 +6100,12 @@
         <v>3</v>
       </c>
       <c r="G147" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B148" t="s">
         <v>55</v>
@@ -6100,12 +6117,12 @@
         <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B149" t="s">
         <v>55</v>
@@ -6117,12 +6134,12 @@
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B150" t="s">
         <v>55</v>
@@ -6134,12 +6151,12 @@
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B151" t="s">
         <v>55</v>
@@ -6151,12 +6168,12 @@
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B152" t="s">
         <v>55</v>
@@ -6168,15 +6185,15 @@
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D153" t="s">
         <v>19</v>
@@ -6188,18 +6205,18 @@
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -6211,21 +6228,24 @@
         <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>357</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>810</v>
+        <v>354</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="F155" t="s">
         <v>8</v>
@@ -6233,13 +6253,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B156" t="s">
         <v>74</v>
       </c>
       <c r="C156" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -6251,18 +6271,18 @@
         <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B157" t="s">
         <v>74</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D157" t="s">
         <v>19</v>
@@ -6274,41 +6294,41 @@
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E158" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F158" t="s">
         <v>8</v>
       </c>
       <c r="G158" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H158" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B159" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D159" t="s">
         <v>19</v>
@@ -6317,15 +6337,15 @@
         <v>8</v>
       </c>
       <c r="G159" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H159" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B160" t="s">
         <v>58</v>
@@ -6337,12 +6357,12 @@
         <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
         <v>58</v>
@@ -6354,12 +6374,12 @@
         <v>3</v>
       </c>
       <c r="G161" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B162" t="s">
         <v>58</v>
@@ -6371,12 +6391,12 @@
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B163" t="s">
         <v>58</v>
@@ -6388,12 +6408,12 @@
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B164" t="s">
         <v>58</v>
@@ -6405,12 +6425,12 @@
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B165" t="s">
         <v>58</v>
@@ -6427,7 +6447,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B166" t="s">
         <v>58</v>
@@ -6439,12 +6459,12 @@
         <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B167" t="s">
         <v>58</v>
@@ -6456,12 +6476,12 @@
         <v>3</v>
       </c>
       <c r="G167" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B168" t="s">
         <v>58</v>
@@ -6473,12 +6493,12 @@
         <v>3</v>
       </c>
       <c r="G168" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B169" t="s">
         <v>58</v>
@@ -6490,12 +6510,12 @@
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B170" t="s">
         <v>58</v>
@@ -6507,12 +6527,12 @@
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B171" t="s">
         <v>58</v>
@@ -6524,12 +6544,12 @@
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B172" t="s">
         <v>61</v>
@@ -6541,12 +6561,12 @@
         <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B173" t="s">
         <v>61</v>
@@ -6558,12 +6578,12 @@
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B174" t="s">
         <v>61</v>
@@ -6575,12 +6595,12 @@
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B175" t="s">
         <v>61</v>
@@ -6592,12 +6612,12 @@
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B176" t="s">
         <v>61</v>
@@ -6609,12 +6629,12 @@
         <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B177" t="s">
         <v>61</v>
@@ -6631,7 +6651,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B178" t="s">
         <v>61</v>
@@ -6643,12 +6663,12 @@
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B179" t="s">
         <v>61</v>
@@ -6660,12 +6680,12 @@
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B180" t="s">
         <v>61</v>
@@ -6677,12 +6697,12 @@
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B181" t="s">
         <v>61</v>
@@ -6694,12 +6714,12 @@
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B182" t="s">
         <v>61</v>
@@ -6711,12 +6731,12 @@
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B183" t="s">
         <v>61</v>
@@ -6728,35 +6748,35 @@
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
       </c>
       <c r="D184" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F184" t="s">
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H184" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B185" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D185" t="s">
         <v>19</v>
@@ -6765,21 +6785,21 @@
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B186" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D186" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E186" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F186" t="s">
         <v>8</v>
@@ -6790,16 +6810,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D187" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E187" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F187" t="s">
         <v>8</v>
@@ -6810,13 +6830,13 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B188" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C188" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -6830,13 +6850,13 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B189" t="s">
         <v>74</v>
       </c>
       <c r="C189" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D189" t="s">
         <v>19</v>
@@ -6848,18 +6868,18 @@
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B190" t="s">
         <v>74</v>
       </c>
       <c r="C190" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
@@ -6871,18 +6891,18 @@
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B191" t="s">
         <v>74</v>
       </c>
       <c r="C191" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D191" t="s">
         <v>19</v>
@@ -6894,38 +6914,38 @@
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F192" t="s">
         <v>8</v>
       </c>
       <c r="G192" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H192" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B193" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
@@ -6937,35 +6957,35 @@
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B194" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B195" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
@@ -6974,18 +6994,18 @@
         <v>16</v>
       </c>
       <c r="E195" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B196" t="s">
         <v>74</v>
@@ -6997,18 +7017,18 @@
         <v>74</v>
       </c>
       <c r="E196" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B197" t="s">
         <v>74</v>
@@ -7020,18 +7040,18 @@
         <v>74</v>
       </c>
       <c r="E197" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B198" t="s">
         <v>74</v>
@@ -7043,47 +7063,47 @@
         <v>74</v>
       </c>
       <c r="E198" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B199" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D199" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B200" t="s">
         <v>19</v>
       </c>
       <c r="C200" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D200" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E200" t="s">
         <v>1</v>
@@ -7092,18 +7112,18 @@
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B201" t="s">
         <v>19</v>
       </c>
       <c r="C201" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -7112,101 +7132,101 @@
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B202" t="s">
         <v>19</v>
       </c>
       <c r="C202" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D202" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B203" t="s">
         <v>19</v>
       </c>
       <c r="C203" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D203" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B204" t="s">
         <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D204" t="s">
         <v>16</v>
       </c>
       <c r="E204" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D205" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C206" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D206" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E206" t="s">
         <v>1</v>
@@ -7215,18 +7235,18 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C207" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D207" t="s">
         <v>16</v>
@@ -7235,287 +7255,287 @@
         <v>3</v>
       </c>
       <c r="G207" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C208" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F208" t="s">
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C209" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D209" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D210" t="s">
         <v>16</v>
       </c>
       <c r="E210" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F210" t="s">
         <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C211" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D211" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F211" t="s">
         <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>471</v>
-      </c>
-      <c r="D212" t="s">
-        <v>247</v>
+        <v>468</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F212" t="s">
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B213" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D213" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F213" t="s">
         <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B214" t="s">
-        <v>814</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>247</v>
+        <v>807</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F214" t="s">
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B215" t="s">
         <v>19</v>
       </c>
       <c r="C215" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D215" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F215" t="s">
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B216" t="s">
         <v>19</v>
       </c>
       <c r="C216" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D216" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F216" t="s">
         <v>3</v>
       </c>
       <c r="G216" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B217" t="s">
         <v>19</v>
       </c>
       <c r="C217" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D217" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F217" t="s">
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C218" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D218" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E218" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F218" t="s">
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B219" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C219" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D219" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E219" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F219" t="s">
         <v>3</v>
       </c>
       <c r="G219" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B220" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D220" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E220" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F220" t="s">
         <v>3</v>
       </c>
       <c r="G220" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B221" t="s">
         <v>19</v>
       </c>
       <c r="C221" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>1</v>
@@ -7524,18 +7544,18 @@
         <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D222" t="s">
         <v>16</v>
@@ -7544,84 +7564,84 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B223" t="s">
         <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F223" t="s">
         <v>3</v>
       </c>
       <c r="G223" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B224" t="s">
         <v>19</v>
       </c>
       <c r="C224" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D224" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F224" t="s">
         <v>3</v>
       </c>
       <c r="G224" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B225" t="s">
         <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D225" t="s">
         <v>16</v>
       </c>
       <c r="E225" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F225" t="s">
         <v>3</v>
       </c>
       <c r="G225" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B226" t="s">
         <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D226" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E226" t="s">
         <v>1</v>
@@ -7630,18 +7650,18 @@
         <v>3</v>
       </c>
       <c r="G226" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B227" t="s">
         <v>19</v>
       </c>
       <c r="C227" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D227" t="s">
         <v>16</v>
@@ -7650,124 +7670,127 @@
         <v>3</v>
       </c>
       <c r="G227" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B228" t="s">
         <v>19</v>
       </c>
       <c r="C228" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F228" t="s">
         <v>3</v>
       </c>
       <c r="G228" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B229" t="s">
         <v>19</v>
       </c>
       <c r="C229" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D229" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F229" t="s">
         <v>3</v>
       </c>
       <c r="G229" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B230" t="s">
         <v>19</v>
       </c>
       <c r="C230" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D230" t="s">
         <v>16</v>
       </c>
       <c r="E230" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F230" t="s">
         <v>3</v>
       </c>
       <c r="G230" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B231" t="s">
         <v>19</v>
       </c>
       <c r="C231" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D231" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F231" t="s">
         <v>3</v>
       </c>
       <c r="G231" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
       </c>
       <c r="C232" t="s">
-        <v>515</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E232" t="s">
+        <v>829</v>
       </c>
       <c r="F232" t="s">
         <v>3</v>
       </c>
       <c r="G232" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B233" t="s">
         <v>19</v>
       </c>
       <c r="C233" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D233" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E233" t="s">
         <v>1</v>
@@ -7776,18 +7799,18 @@
         <v>3</v>
       </c>
       <c r="G233" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
       </c>
       <c r="C234" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D234" t="s">
         <v>16</v>
@@ -7796,101 +7819,107 @@
         <v>3</v>
       </c>
       <c r="G234" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B235" t="s">
         <v>19</v>
       </c>
       <c r="C235" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D235" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F235" t="s">
         <v>3</v>
       </c>
       <c r="G235" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B236" t="s">
         <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D236" t="s">
         <v>16</v>
       </c>
       <c r="E236" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F236" t="s">
         <v>3</v>
       </c>
       <c r="G236" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B237" t="s">
         <v>19</v>
       </c>
       <c r="C237" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D237" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F237" t="s">
         <v>3</v>
       </c>
       <c r="G237" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
       </c>
       <c r="C238" t="s">
-        <v>823</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>528</v>
+        <v>816</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E238" t="s">
+        <v>829</v>
       </c>
       <c r="F238" t="s">
         <v>3</v>
       </c>
       <c r="G238" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B239" t="s">
-        <v>814</v>
+        <v>807</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E239" t="s">
         <v>1</v>
@@ -7899,106 +7928,130 @@
         <v>3</v>
       </c>
       <c r="G239" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B240" t="s">
-        <v>814</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>545</v>
+        <v>807</v>
+      </c>
+      <c r="C240" t="s">
+        <v>512</v>
+      </c>
+      <c r="D240" t="s">
+        <v>807</v>
+      </c>
+      <c r="E240" t="s">
+        <v>816</v>
       </c>
       <c r="F240" t="s">
         <v>3</v>
       </c>
       <c r="G240" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B241" t="s">
-        <v>814</v>
+        <v>807</v>
+      </c>
+      <c r="C241" t="s">
+        <v>830</v>
       </c>
       <c r="D241" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F241" t="s">
         <v>3</v>
       </c>
       <c r="G241" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B242" t="s">
-        <v>814</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>528</v>
+        <v>807</v>
+      </c>
+      <c r="C242" t="s">
+        <v>525</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E242" t="s">
+        <v>829</v>
       </c>
       <c r="F242" t="s">
         <v>3</v>
       </c>
       <c r="G242" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B243" t="s">
         <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D243" t="s">
-        <v>814</v>
+        <v>807</v>
+      </c>
+      <c r="E243" t="s">
+        <v>352</v>
       </c>
       <c r="F243" t="s">
         <v>3</v>
       </c>
       <c r="G243" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B244" t="s">
-        <v>554</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>555</v>
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
+        <v>550</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244" t="s">
+        <v>827</v>
       </c>
       <c r="F244" t="s">
         <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B245" t="s">
         <v>23</v>
       </c>
       <c r="D245" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E245" t="s">
         <v>1</v>
@@ -8007,12 +8060,12 @@
         <v>3</v>
       </c>
       <c r="G245" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B246" t="s">
         <v>23</v>
@@ -8024,29 +8077,29 @@
         <v>3</v>
       </c>
       <c r="G246" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B247" t="s">
         <v>23</v>
       </c>
       <c r="D247" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F247" t="s">
         <v>3</v>
       </c>
       <c r="G247" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
@@ -8055,44 +8108,44 @@
         <v>16</v>
       </c>
       <c r="E248" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F248" t="s">
         <v>3</v>
       </c>
       <c r="G248" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B249" t="s">
         <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F249" t="s">
         <v>3</v>
       </c>
       <c r="G249" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B250" t="s">
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D250" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E250" t="s">
         <v>1</v>
@@ -8101,18 +8154,18 @@
         <v>3</v>
       </c>
       <c r="G250" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B251" t="s">
         <v>23</v>
       </c>
       <c r="C251" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D251" t="s">
         <v>16</v>
@@ -8121,84 +8174,84 @@
         <v>3</v>
       </c>
       <c r="G251" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B252" t="s">
         <v>23</v>
       </c>
       <c r="C252" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D252" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F252" t="s">
         <v>3</v>
       </c>
       <c r="G252" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B253" t="s">
         <v>23</v>
       </c>
       <c r="C253" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D253" t="s">
         <v>16</v>
       </c>
       <c r="E253" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F253" t="s">
         <v>3</v>
       </c>
       <c r="G253" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B254" t="s">
         <v>23</v>
       </c>
       <c r="C254" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D254" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F254" t="s">
         <v>3</v>
       </c>
       <c r="G254" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B255" t="s">
         <v>19</v>
       </c>
       <c r="C255" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D255" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E255" t="s">
         <v>1</v>
@@ -8207,18 +8260,18 @@
         <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B256" t="s">
         <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D256" t="s">
         <v>16</v>
@@ -8227,84 +8280,84 @@
         <v>3</v>
       </c>
       <c r="G256" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B257" t="s">
         <v>19</v>
       </c>
       <c r="C257" t="s">
+        <v>573</v>
+      </c>
+      <c r="D257" t="s">
+        <v>809</v>
+      </c>
+      <c r="F257" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" t="s">
         <v>578</v>
       </c>
-      <c r="D257" t="s">
-        <v>816</v>
-      </c>
-      <c r="F257" t="s">
-        <v>3</v>
-      </c>
-      <c r="G257" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B258" t="s">
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D258" t="s">
         <v>16</v>
       </c>
       <c r="E258" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F258" t="s">
         <v>3</v>
       </c>
       <c r="G258" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B259" t="s">
         <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D259" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F259" t="s">
         <v>3</v>
       </c>
       <c r="G259" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B260" t="s">
         <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D260" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E260" t="s">
         <v>1</v>
@@ -8313,72 +8366,87 @@
         <v>3</v>
       </c>
       <c r="G260" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>586</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" t="s">
+        <v>584</v>
+      </c>
+      <c r="D261" t="s">
+        <v>189</v>
+      </c>
+      <c r="F261" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>588</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" t="s">
+        <v>823</v>
+      </c>
+      <c r="D262" t="s">
+        <v>179</v>
+      </c>
+      <c r="F262" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" t="s">
+        <v>589</v>
+      </c>
+      <c r="J262" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+      <c r="B263" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C263" t="s">
+        <v>823</v>
+      </c>
+      <c r="D263" t="s">
+        <v>74</v>
+      </c>
+      <c r="E263" t="s">
+        <v>357</v>
+      </c>
+      <c r="F263" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" t="s">
         <v>591</v>
       </c>
-      <c r="B261" t="s">
-        <v>19</v>
-      </c>
-      <c r="C261" t="s">
-        <v>589</v>
-      </c>
-      <c r="D261" t="s">
-        <v>190</v>
-      </c>
-      <c r="F261" t="s">
-        <v>3</v>
-      </c>
-      <c r="G261" t="s">
+      <c r="J263" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>593</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D262" t="s">
-        <v>247</v>
-      </c>
-      <c r="F262" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>595</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D263" t="s">
-        <v>360</v>
-      </c>
-      <c r="F263" t="s">
-        <v>3</v>
-      </c>
-      <c r="G263" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>597</v>
-      </c>
       <c r="B264" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D264" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E264" t="s">
         <v>1</v>
@@ -8387,15 +8455,15 @@
         <v>3</v>
       </c>
       <c r="G264" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B265" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D265" t="s">
         <v>16</v>
@@ -8404,72 +8472,72 @@
         <v>3</v>
       </c>
       <c r="G265" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B266" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D266" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F266" t="s">
         <v>3</v>
       </c>
       <c r="G266" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B267" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D267" t="s">
         <v>16</v>
       </c>
       <c r="E267" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F267" t="s">
         <v>3</v>
       </c>
       <c r="G267" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B268" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D268" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F268" t="s">
         <v>3</v>
       </c>
       <c r="G268" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B269" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D269" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E269" t="s">
         <v>1</v>
@@ -8478,15 +8546,15 @@
         <v>3</v>
       </c>
       <c r="G269" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B270" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
@@ -8495,181 +8563,181 @@
         <v>3</v>
       </c>
       <c r="G270" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B271" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D271" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F271" t="s">
         <v>3</v>
       </c>
       <c r="G271" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B272" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D272" t="s">
         <v>16</v>
       </c>
       <c r="E272" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F272" t="s">
         <v>3</v>
       </c>
       <c r="G272" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>610</v>
+      </c>
+      <c r="B273" t="s">
+        <v>242</v>
+      </c>
+      <c r="D273" t="s">
+        <v>807</v>
+      </c>
+      <c r="F273" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>612</v>
+      </c>
+      <c r="B274" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" t="s">
+        <v>807</v>
+      </c>
+      <c r="F274" t="s">
+        <v>3</v>
+      </c>
+      <c r="G274" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="B275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275" t="s">
         <v>615</v>
       </c>
-      <c r="B273" t="s">
-        <v>244</v>
-      </c>
-      <c r="D273" t="s">
-        <v>814</v>
-      </c>
-      <c r="F273" t="s">
-        <v>3</v>
-      </c>
-      <c r="G273" t="s">
+      <c r="D275" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" t="s">
+        <v>444</v>
+      </c>
+      <c r="F275" t="s">
+        <v>3</v>
+      </c>
+      <c r="G275" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>617</v>
       </c>
-      <c r="B274" t="s">
-        <v>19</v>
-      </c>
-      <c r="D274" t="s">
-        <v>814</v>
-      </c>
-      <c r="F274" t="s">
-        <v>3</v>
-      </c>
-      <c r="G274" t="s">
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" t="s">
+        <v>615</v>
+      </c>
+      <c r="D276" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" t="s">
+        <v>447</v>
+      </c>
+      <c r="F276" t="s">
+        <v>3</v>
+      </c>
+      <c r="G276" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>619</v>
       </c>
-      <c r="B275" t="s">
-        <v>19</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="B277" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277" t="s">
+        <v>615</v>
+      </c>
+      <c r="D277" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" t="s">
+        <v>450</v>
+      </c>
+      <c r="F277" t="s">
+        <v>3</v>
+      </c>
+      <c r="G277" t="s">
         <v>620</v>
       </c>
-      <c r="D275" t="s">
-        <v>19</v>
-      </c>
-      <c r="E275" t="s">
-        <v>447</v>
-      </c>
-      <c r="F275" t="s">
-        <v>3</v>
-      </c>
-      <c r="G275" t="s">
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>622</v>
-      </c>
-      <c r="B276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C276" t="s">
-        <v>620</v>
-      </c>
-      <c r="D276" t="s">
-        <v>19</v>
-      </c>
-      <c r="E276" t="s">
-        <v>450</v>
-      </c>
-      <c r="F276" t="s">
-        <v>3</v>
-      </c>
-      <c r="G276" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>624</v>
-      </c>
-      <c r="B277" t="s">
-        <v>19</v>
-      </c>
-      <c r="C277" t="s">
-        <v>620</v>
-      </c>
-      <c r="D277" t="s">
-        <v>19</v>
-      </c>
-      <c r="E277" t="s">
-        <v>453</v>
-      </c>
-      <c r="F277" t="s">
-        <v>3</v>
-      </c>
-      <c r="G277" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>626</v>
       </c>
       <c r="B278" t="s">
         <v>74</v>
       </c>
       <c r="C278" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D278" t="s">
         <v>19</v>
       </c>
       <c r="E278" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F278" t="s">
         <v>3</v>
       </c>
       <c r="G278" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B279" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D279" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E279" t="s">
         <v>1</v>
@@ -8678,15 +8746,15 @@
         <v>3</v>
       </c>
       <c r="G279" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B280" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
@@ -8695,152 +8763,158 @@
         <v>3</v>
       </c>
       <c r="G280" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B281" t="s">
+        <v>625</v>
+      </c>
+      <c r="D281" t="s">
+        <v>809</v>
+      </c>
+      <c r="F281" t="s">
+        <v>3</v>
+      </c>
+      <c r="G281" t="s">
         <v>630</v>
       </c>
-      <c r="D281" t="s">
-        <v>816</v>
-      </c>
-      <c r="F281" t="s">
-        <v>3</v>
-      </c>
-      <c r="G281" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B282" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D282" t="s">
         <v>16</v>
       </c>
       <c r="E282" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F282" t="s">
         <v>3</v>
       </c>
       <c r="G282" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>633</v>
+      </c>
+      <c r="B283" t="s">
+        <v>625</v>
+      </c>
+      <c r="D283" t="s">
+        <v>634</v>
+      </c>
+      <c r="F283" t="s">
+        <v>3</v>
+      </c>
+      <c r="G283" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>636</v>
+      </c>
+      <c r="B284" t="s">
+        <v>625</v>
+      </c>
+      <c r="D284" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+      <c r="F284" t="s">
+        <v>3</v>
+      </c>
+      <c r="G284" t="s">
         <v>638</v>
       </c>
-      <c r="B283" t="s">
-        <v>630</v>
-      </c>
-      <c r="D283" t="s">
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>639</v>
       </c>
-      <c r="F283" t="s">
-        <v>3</v>
-      </c>
-      <c r="G283" t="s">
+      <c r="B285" t="s">
+        <v>625</v>
+      </c>
+      <c r="D285" t="s">
+        <v>625</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F285" t="s">
+        <v>3</v>
+      </c>
+      <c r="G285" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+      <c r="J285" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>641</v>
       </c>
-      <c r="B284" t="s">
-        <v>630</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" t="s">
         <v>642</v>
       </c>
-      <c r="F284" t="s">
-        <v>3</v>
-      </c>
-      <c r="G284" t="s">
+      <c r="D286" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" t="s">
+        <v>447</v>
+      </c>
+      <c r="F286" t="s">
+        <v>3</v>
+      </c>
+      <c r="G286" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>644</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D285" t="s">
-        <v>630</v>
-      </c>
-      <c r="F285" t="s">
-        <v>3</v>
-      </c>
-      <c r="G285" t="s">
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+      <c r="D287" t="s">
+        <v>807</v>
+      </c>
+      <c r="F287" t="s">
+        <v>3</v>
+      </c>
+      <c r="G287" t="s">
         <v>646</v>
       </c>
-      <c r="B286" t="s">
-        <v>19</v>
-      </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>647</v>
       </c>
-      <c r="D286" t="s">
-        <v>19</v>
-      </c>
-      <c r="E286" t="s">
-        <v>450</v>
-      </c>
-      <c r="F286" t="s">
-        <v>3</v>
-      </c>
-      <c r="G286" t="s">
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>649</v>
-      </c>
-      <c r="B287" t="s">
-        <v>19</v>
-      </c>
-      <c r="C287" t="s">
-        <v>650</v>
-      </c>
-      <c r="D287" t="s">
-        <v>814</v>
-      </c>
-      <c r="F287" t="s">
-        <v>3</v>
-      </c>
-      <c r="G287" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>652</v>
-      </c>
-      <c r="B288" t="s">
-        <v>19</v>
-      </c>
-      <c r="C288" t="s">
-        <v>653</v>
-      </c>
       <c r="D288" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E288" t="s">
         <v>1</v>
@@ -8849,18 +8923,18 @@
         <v>3</v>
       </c>
       <c r="G288" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B289" t="s">
         <v>19</v>
       </c>
       <c r="C289" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D289" t="s">
         <v>16</v>
@@ -8869,122 +8943,122 @@
         <v>3</v>
       </c>
       <c r="G289" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B290" t="s">
         <v>19</v>
       </c>
       <c r="C290" t="s">
+        <v>648</v>
+      </c>
+      <c r="D290" t="s">
+        <v>809</v>
+      </c>
+      <c r="F290" t="s">
+        <v>3</v>
+      </c>
+      <c r="G290" t="s">
         <v>653</v>
-      </c>
-      <c r="D290" t="s">
-        <v>816</v>
-      </c>
-      <c r="F290" t="s">
-        <v>3</v>
-      </c>
-      <c r="G290" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B291" t="s">
         <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D291" t="s">
         <v>16</v>
       </c>
       <c r="E291" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F291" t="s">
         <v>3</v>
       </c>
       <c r="G291" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B292" t="s">
         <v>19</v>
       </c>
       <c r="C292" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D292" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F292" t="s">
         <v>3</v>
       </c>
       <c r="G292" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B293" t="s">
         <v>19</v>
       </c>
       <c r="C293" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D293" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F293" t="s">
         <v>3</v>
       </c>
       <c r="G293" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B294" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F294" t="s">
         <v>3</v>
       </c>
       <c r="G294" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B295" t="s">
         <v>19</v>
       </c>
       <c r="C295" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D295" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E295" t="s">
         <v>1</v>
@@ -8993,18 +9067,18 @@
         <v>3</v>
       </c>
       <c r="G295" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B296" t="s">
         <v>19</v>
       </c>
       <c r="C296" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D296" t="s">
         <v>16</v>
@@ -9013,84 +9087,84 @@
         <v>3</v>
       </c>
       <c r="G296" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B297" t="s">
         <v>19</v>
       </c>
       <c r="C297" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D297" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F297" t="s">
         <v>3</v>
       </c>
       <c r="G297" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B298" t="s">
         <v>19</v>
       </c>
       <c r="C298" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D298" t="s">
         <v>16</v>
       </c>
       <c r="E298" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F298" t="s">
         <v>3</v>
       </c>
       <c r="G298" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B299" t="s">
         <v>19</v>
       </c>
       <c r="C299" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D299" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F299" t="s">
         <v>3</v>
       </c>
       <c r="G299" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B300" t="s">
         <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D300" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E300" t="s">
         <v>1</v>
@@ -9099,18 +9173,18 @@
         <v>3</v>
       </c>
       <c r="G300" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B301" t="s">
         <v>19</v>
       </c>
       <c r="C301" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D301" t="s">
         <v>16</v>
@@ -9119,158 +9193,164 @@
         <v>3</v>
       </c>
       <c r="G301" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B302" t="s">
         <v>19</v>
       </c>
       <c r="C302" t="s">
+        <v>673</v>
+      </c>
+      <c r="D302" t="s">
+        <v>809</v>
+      </c>
+      <c r="F302" t="s">
+        <v>3</v>
+      </c>
+      <c r="G302" t="s">
         <v>678</v>
-      </c>
-      <c r="D302" t="s">
-        <v>816</v>
-      </c>
-      <c r="F302" t="s">
-        <v>3</v>
-      </c>
-      <c r="G302" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B303" t="s">
         <v>19</v>
       </c>
       <c r="C303" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D303" t="s">
         <v>16</v>
       </c>
       <c r="E303" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F303" t="s">
         <v>3</v>
       </c>
       <c r="G303" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>681</v>
+      </c>
+      <c r="B304" t="s">
+        <v>19</v>
+      </c>
+      <c r="C304" t="s">
+        <v>673</v>
+      </c>
+      <c r="D304" t="s">
+        <v>189</v>
+      </c>
+      <c r="F304" t="s">
+        <v>3</v>
+      </c>
+      <c r="G304" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>683</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" t="s">
+        <v>673</v>
+      </c>
+      <c r="D305" t="s">
+        <v>807</v>
+      </c>
+      <c r="F305" t="s">
+        <v>3</v>
+      </c>
+      <c r="G305" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>685</v>
+      </c>
+      <c r="B306" t="s">
+        <v>807</v>
+      </c>
+      <c r="D306" t="s">
+        <v>189</v>
+      </c>
+      <c r="F306" t="s">
+        <v>3</v>
+      </c>
+      <c r="G306" t="s">
         <v>686</v>
       </c>
-      <c r="B304" t="s">
-        <v>19</v>
-      </c>
-      <c r="C304" t="s">
-        <v>678</v>
-      </c>
-      <c r="D304" t="s">
-        <v>190</v>
-      </c>
-      <c r="F304" t="s">
-        <v>3</v>
-      </c>
-      <c r="G304" t="s">
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+      <c r="B307" t="s">
+        <v>74</v>
+      </c>
+      <c r="C307" t="s">
+        <v>357</v>
+      </c>
+      <c r="D307" t="s">
+        <v>189</v>
+      </c>
+      <c r="F307" t="s">
+        <v>3</v>
+      </c>
+      <c r="G307" t="s">
         <v>688</v>
       </c>
-      <c r="B305" t="s">
-        <v>19</v>
-      </c>
-      <c r="C305" t="s">
-        <v>678</v>
-      </c>
-      <c r="D305" t="s">
-        <v>814</v>
-      </c>
-      <c r="F305" t="s">
-        <v>3</v>
-      </c>
-      <c r="G305" t="s">
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="B308" t="s">
+        <v>74</v>
+      </c>
+      <c r="C308" t="s">
+        <v>357</v>
+      </c>
+      <c r="D308" t="s">
+        <v>171</v>
+      </c>
+      <c r="E308" t="s">
+        <v>829</v>
+      </c>
+      <c r="F308" t="s">
+        <v>3</v>
+      </c>
+      <c r="G308" t="s">
         <v>690</v>
       </c>
-      <c r="B306" t="s">
-        <v>814</v>
-      </c>
-      <c r="D306" t="s">
-        <v>190</v>
-      </c>
-      <c r="F306" t="s">
-        <v>3</v>
-      </c>
-      <c r="G306" t="s">
+      <c r="J308" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>692</v>
-      </c>
-      <c r="B307" t="s">
-        <v>19</v>
-      </c>
-      <c r="C307" t="s">
-        <v>360</v>
-      </c>
-      <c r="D307" t="s">
-        <v>190</v>
-      </c>
-      <c r="F307" t="s">
-        <v>3</v>
-      </c>
-      <c r="G307" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>694</v>
-      </c>
-      <c r="B308" t="s">
-        <v>19</v>
-      </c>
-      <c r="C308" t="s">
-        <v>360</v>
-      </c>
-      <c r="D308" t="s">
-        <v>528</v>
-      </c>
-      <c r="F308" t="s">
-        <v>3</v>
-      </c>
-      <c r="G308" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>696</v>
-      </c>
       <c r="B309" t="s">
         <v>19</v>
       </c>
       <c r="C309" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D309" t="s">
         <v>19</v>
@@ -9282,18 +9362,18 @@
         <v>3</v>
       </c>
       <c r="G309" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D310" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E310" t="s">
         <v>1</v>
@@ -9302,15 +9382,15 @@
         <v>3</v>
       </c>
       <c r="G310" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D311" t="s">
         <v>16</v>
@@ -9319,72 +9399,72 @@
         <v>3</v>
       </c>
       <c r="G311" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D312" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F312" t="s">
         <v>3</v>
       </c>
       <c r="G312" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D313" t="s">
         <v>16</v>
       </c>
       <c r="E313" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F313" t="s">
         <v>3</v>
       </c>
       <c r="G313" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D314" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F314" t="s">
         <v>3</v>
       </c>
       <c r="G314" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B315" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D315" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E315" t="s">
         <v>1</v>
@@ -9393,15 +9473,15 @@
         <v>3</v>
       </c>
       <c r="G315" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B316" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D316" t="s">
         <v>16</v>
@@ -9410,69 +9490,69 @@
         <v>3</v>
       </c>
       <c r="G316" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B317" t="s">
+        <v>704</v>
+      </c>
+      <c r="D317" t="s">
+        <v>809</v>
+      </c>
+      <c r="F317" t="s">
+        <v>3</v>
+      </c>
+      <c r="G317" t="s">
         <v>709</v>
       </c>
-      <c r="D317" t="s">
-        <v>816</v>
-      </c>
-      <c r="F317" t="s">
-        <v>3</v>
-      </c>
-      <c r="G317" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B318" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D318" t="s">
         <v>16</v>
       </c>
       <c r="E318" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F318" t="s">
         <v>3</v>
       </c>
       <c r="G318" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B319" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D319" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F319" t="s">
         <v>3</v>
       </c>
       <c r="G319" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B320" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D320" t="s">
         <v>19</v>
@@ -9481,21 +9561,21 @@
         <v>3</v>
       </c>
       <c r="G320" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B321" t="s">
         <v>19</v>
       </c>
       <c r="C321" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D321" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E321" t="s">
         <v>1</v>
@@ -9504,18 +9584,18 @@
         <v>3</v>
       </c>
       <c r="G321" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B322" t="s">
         <v>19</v>
       </c>
       <c r="C322" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D322" t="s">
         <v>16</v>
@@ -9524,138 +9604,138 @@
         <v>3</v>
       </c>
       <c r="G322" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B323" t="s">
         <v>19</v>
       </c>
       <c r="C323" t="s">
+        <v>717</v>
+      </c>
+      <c r="D323" t="s">
+        <v>809</v>
+      </c>
+      <c r="F323" t="s">
+        <v>3</v>
+      </c>
+      <c r="G323" t="s">
         <v>722</v>
-      </c>
-      <c r="D323" t="s">
-        <v>816</v>
-      </c>
-      <c r="F323" t="s">
-        <v>3</v>
-      </c>
-      <c r="G323" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B324" t="s">
         <v>19</v>
       </c>
       <c r="C324" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D324" t="s">
         <v>16</v>
       </c>
       <c r="E324" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F324" t="s">
         <v>3</v>
       </c>
       <c r="G324" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B325" t="s">
         <v>19</v>
       </c>
       <c r="C325" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D325" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F325" t="s">
         <v>3</v>
       </c>
       <c r="G325" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B326" t="s">
         <v>19</v>
       </c>
       <c r="C326" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D326" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F326" t="s">
         <v>3</v>
       </c>
       <c r="G326" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B327" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D327" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F327" t="s">
         <v>3</v>
       </c>
       <c r="G327" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B328" t="s">
         <v>58</v>
       </c>
       <c r="D328" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F328" t="s">
         <v>3</v>
       </c>
       <c r="G328" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B329" t="s">
         <v>19</v>
       </c>
       <c r="C329" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D329" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E329" t="s">
         <v>1</v>
@@ -9664,18 +9744,18 @@
         <v>3</v>
       </c>
       <c r="G329" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B330" t="s">
         <v>19</v>
       </c>
       <c r="C330" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D330" t="s">
         <v>16</v>
@@ -9684,167 +9764,167 @@
         <v>3</v>
       </c>
       <c r="G330" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B331" t="s">
         <v>19</v>
       </c>
       <c r="C331" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D331" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F331" t="s">
         <v>3</v>
       </c>
       <c r="G331" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B332" t="s">
         <v>19</v>
       </c>
       <c r="C332" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D332" t="s">
         <v>16</v>
       </c>
       <c r="E332" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F332" t="s">
         <v>3</v>
       </c>
       <c r="G332" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B333" t="s">
         <v>19</v>
       </c>
       <c r="C333" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D333" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F333" t="s">
         <v>3</v>
       </c>
       <c r="G333" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B334" t="s">
         <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D334" t="s">
         <v>19</v>
       </c>
       <c r="E334" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F334" t="s">
         <v>3</v>
       </c>
       <c r="G334" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B335" t="s">
         <v>19</v>
       </c>
       <c r="C335" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D335" t="s">
         <v>19</v>
       </c>
       <c r="E335" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F335" t="s">
         <v>3</v>
       </c>
       <c r="G335" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B336" t="s">
         <v>19</v>
       </c>
       <c r="C336" t="s">
+        <v>744</v>
+      </c>
+      <c r="D336" t="s">
+        <v>19</v>
+      </c>
+      <c r="E336" t="s">
+        <v>450</v>
+      </c>
+      <c r="F336" t="s">
+        <v>3</v>
+      </c>
+      <c r="G336" t="s">
         <v>749</v>
       </c>
-      <c r="D336" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336" t="s">
-        <v>453</v>
-      </c>
-      <c r="F336" t="s">
-        <v>3</v>
-      </c>
-      <c r="G336" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B337" t="s">
         <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D337" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F337" t="s">
         <v>3</v>
       </c>
       <c r="G337" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D338" t="s">
         <v>16</v>
@@ -9853,104 +9933,104 @@
         <v>3</v>
       </c>
       <c r="G338" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D339" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F339" t="s">
         <v>3</v>
       </c>
       <c r="G339" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D340" t="s">
         <v>16</v>
       </c>
       <c r="E340" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F340" t="s">
         <v>3</v>
       </c>
       <c r="G340" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B341" t="s">
         <v>74</v>
       </c>
       <c r="C341" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D341" t="s">
         <v>19</v>
       </c>
       <c r="E341" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F341" t="s">
         <v>8</v>
       </c>
       <c r="G341" t="s">
+        <v>760</v>
+      </c>
+      <c r="H341" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>762</v>
+      </c>
+      <c r="B342" t="s">
+        <v>19</v>
+      </c>
+      <c r="C342" t="s">
+        <v>813</v>
+      </c>
+      <c r="D342" t="s">
+        <v>807</v>
+      </c>
+      <c r="F342" t="s">
+        <v>3</v>
+      </c>
+      <c r="G342" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>764</v>
+      </c>
+      <c r="B343" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" t="s">
         <v>765</v>
       </c>
-      <c r="H341" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>767</v>
-      </c>
-      <c r="B342" t="s">
-        <v>19</v>
-      </c>
-      <c r="C342" t="s">
-        <v>820</v>
-      </c>
-      <c r="D342" t="s">
-        <v>814</v>
-      </c>
-      <c r="F342" t="s">
-        <v>3</v>
-      </c>
-      <c r="G342" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>769</v>
-      </c>
-      <c r="B343" t="s">
-        <v>19</v>
-      </c>
-      <c r="C343" t="s">
-        <v>770</v>
-      </c>
       <c r="D343" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E343" t="s">
         <v>1</v>
@@ -9959,18 +10039,18 @@
         <v>3</v>
       </c>
       <c r="G343" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B344" t="s">
         <v>19</v>
       </c>
       <c r="C344" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D344" t="s">
         <v>16</v>
@@ -9979,127 +10059,133 @@
         <v>3</v>
       </c>
       <c r="G344" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B345" t="s">
         <v>19</v>
       </c>
       <c r="C345" t="s">
+        <v>765</v>
+      </c>
+      <c r="D345" t="s">
+        <v>809</v>
+      </c>
+      <c r="F345" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345" t="s">
         <v>770</v>
       </c>
-      <c r="D345" t="s">
-        <v>816</v>
-      </c>
-      <c r="F345" t="s">
-        <v>3</v>
-      </c>
-      <c r="G345" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B346" t="s">
         <v>19</v>
       </c>
       <c r="C346" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
       </c>
       <c r="E346" t="s">
+        <v>352</v>
+      </c>
+      <c r="F346" t="s">
+        <v>3</v>
+      </c>
+      <c r="G346" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>773</v>
+      </c>
+      <c r="B347" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" t="s">
+        <v>765</v>
+      </c>
+      <c r="D347" t="s">
+        <v>807</v>
+      </c>
+      <c r="F347" t="s">
+        <v>3</v>
+      </c>
+      <c r="G347" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>775</v>
+      </c>
+      <c r="B348" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348" t="s">
+        <v>776</v>
+      </c>
+      <c r="D348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" t="s">
+        <v>819</v>
+      </c>
+      <c r="F348" t="s">
+        <v>3</v>
+      </c>
+      <c r="G348" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>778</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C349" t="s">
         <v>355</v>
-      </c>
-      <c r="F346" t="s">
-        <v>3</v>
-      </c>
-      <c r="G346" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>778</v>
-      </c>
-      <c r="B347" t="s">
-        <v>19</v>
-      </c>
-      <c r="C347" t="s">
-        <v>770</v>
-      </c>
-      <c r="D347" t="s">
-        <v>814</v>
-      </c>
-      <c r="F347" t="s">
-        <v>3</v>
-      </c>
-      <c r="G347" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>780</v>
-      </c>
-      <c r="B348" t="s">
-        <v>19</v>
-      </c>
-      <c r="C348" t="s">
-        <v>781</v>
-      </c>
-      <c r="D348" t="s">
-        <v>19</v>
-      </c>
-      <c r="E348" t="s">
-        <v>826</v>
-      </c>
-      <c r="F348" t="s">
-        <v>3</v>
-      </c>
-      <c r="G348" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>783</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="D349" t="s">
         <v>74</v>
       </c>
       <c r="E349" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F349" t="s">
         <v>3</v>
       </c>
       <c r="G349" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+      <c r="J349" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B350" t="s">
         <v>19</v>
       </c>
       <c r="C350" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D350" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E350" t="s">
         <v>1</v>
@@ -10108,18 +10194,18 @@
         <v>3</v>
       </c>
       <c r="G350" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B351" t="s">
         <v>19</v>
       </c>
       <c r="C351" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D351" t="s">
         <v>16</v>
@@ -10128,70 +10214,70 @@
         <v>3</v>
       </c>
       <c r="G351" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B352" t="s">
         <v>19</v>
       </c>
       <c r="C352" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D352" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F352" t="s">
         <v>3</v>
       </c>
       <c r="G352" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B353" t="s">
         <v>19</v>
       </c>
       <c r="C353" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D353" t="s">
         <v>16</v>
       </c>
       <c r="E353" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F353" t="s">
         <v>3</v>
       </c>
       <c r="G353" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B354" t="s">
         <v>19</v>
       </c>
       <c r="C354" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D354" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F354" t="s">
         <v>3</v>
       </c>
       <c r="G354" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/data/ICU-Transliterations.xlsx
+++ b/data/ICU-Transliterations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00AEAD6-E3D7-9A4C-970B-76EF1F2E8F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C92C193-4A34-0E4C-BCC8-2E4AC061A030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6760" yWindow="-27320" windowWidth="48460" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6760" yWindow="-27320" windowWidth="35160" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icu-downloads" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="896">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -1339,9 +1339,6 @@
     <t>am-chr.xml</t>
   </si>
   <si>
-    <t>chr</t>
-  </si>
-  <si>
     <t>chr-t-am</t>
   </si>
   <si>
@@ -1597,9 +1594,6 @@
     <t>es-zh.xml</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>zh-t-es</t>
   </si>
   <si>
@@ -1924,9 +1918,6 @@
     <t>my-my_FONIPA.xml</t>
   </si>
   <si>
-    <t>my_FONIPA</t>
-  </si>
-  <si>
     <t>my-fonipa-t-my</t>
   </si>
   <si>
@@ -2512,10 +2503,211 @@
     <t>Simplified</t>
   </si>
   <si>
-    <t>Japanese</t>
-  </si>
-  <si>
     <t>Pinyin-Numeric</t>
+  </si>
+  <si>
+    <t>Bengali-InterIndic</t>
+  </si>
+  <si>
+    <t>InterIndic-Arabic</t>
+  </si>
+  <si>
+    <t>InterIndic-Devanagari</t>
+  </si>
+  <si>
+    <t>InterIndic-Gujarati</t>
+  </si>
+  <si>
+    <t>InterIndic-Gurmukhi</t>
+  </si>
+  <si>
+    <t>InterIndic-Kannada</t>
+  </si>
+  <si>
+    <t>InterIndic-Latin</t>
+  </si>
+  <si>
+    <t>InterIndic-Malayalam</t>
+  </si>
+  <si>
+    <t>InterIndic-Oriya</t>
+  </si>
+  <si>
+    <t>InterIndic-Tamil</t>
+  </si>
+  <si>
+    <t>InterIndic-Telugu</t>
+  </si>
+  <si>
+    <t>InterIndic-ur</t>
+  </si>
+  <si>
+    <t>Devanagari-InterIndic</t>
+  </si>
+  <si>
+    <t>InterIndic-Bengali</t>
+  </si>
+  <si>
+    <t>Gujarati-InterIndic</t>
+  </si>
+  <si>
+    <t>Gurmukhi-InterIndic</t>
+  </si>
+  <si>
+    <t>Han-Spacedhan</t>
+  </si>
+  <si>
+    <t>fullwidth-halfwidth</t>
+  </si>
+  <si>
+    <t>ConjoiningJamo-Latin</t>
+  </si>
+  <si>
+    <t>Kannada-InterIndic</t>
+  </si>
+  <si>
+    <t>Latin-InterIndic</t>
+  </si>
+  <si>
+    <t>Latin-ConjoiningJamo</t>
+  </si>
+  <si>
+    <t>Latin-ThaiLogical</t>
+  </si>
+  <si>
+    <t>ThaiLogical-Thai</t>
+  </si>
+  <si>
+    <t>Malayalam-InterIndic</t>
+  </si>
+  <si>
+    <t>Oriya-InterIndic</t>
+  </si>
+  <si>
+    <t>Tamil-InterIndic</t>
+  </si>
+  <si>
+    <t>Telugu-InterIndic</t>
+  </si>
+  <si>
+    <t>Thai-ThaiSemi</t>
+  </si>
+  <si>
+    <t>Any-BreakInternal</t>
+  </si>
+  <si>
+    <t>Thai-ThaiLogical</t>
+  </si>
+  <si>
+    <t>ThaiLogical-Latin</t>
+  </si>
+  <si>
+    <t>am-am_FONIPA</t>
+  </si>
+  <si>
+    <t>und_FONIPA-ar</t>
+  </si>
+  <si>
+    <t>und_FONIPA-chr</t>
+  </si>
+  <si>
+    <t>und_FONIPA-fa</t>
+  </si>
+  <si>
+    <t>ch-ch_FONIPA</t>
+  </si>
+  <si>
+    <t>am_FONIPA-am</t>
+  </si>
+  <si>
+    <t>cs-cs_FONIPA</t>
+  </si>
+  <si>
+    <t>cs_FONIPA-ja</t>
+  </si>
+  <si>
+    <t>cs_FONIPA-ko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latin-Hangul ()</t>
+  </si>
+  <si>
+    <t>Any-ASCII</t>
+  </si>
+  <si>
+    <t>eo-eo_FONIPA</t>
+  </si>
+  <si>
+    <t>es-es_FONIPA</t>
+  </si>
+  <si>
+    <t>es_FONIPA-am</t>
+  </si>
+  <si>
+    <t>es_FONIPA-ja</t>
+  </si>
+  <si>
+    <t>es_FONIPA-zh</t>
+  </si>
+  <si>
+    <t>es_FONIPA-es_419_FONIPA</t>
+  </si>
+  <si>
+    <t>hy-hy_FONIPA</t>
+  </si>
+  <si>
+    <t>hy_AREVMDA-hy_AREVMDA_FONIPA</t>
+  </si>
+  <si>
+    <t>ia-ia_FONIPA</t>
+  </si>
+  <si>
+    <t>kk-kk_FONIPA</t>
+  </si>
+  <si>
+    <t>ky-ky_FONIPA</t>
+  </si>
+  <si>
+    <t>my-my_FONIPA</t>
+  </si>
+  <si>
+    <t>pl-pl_FONIPA</t>
+  </si>
+  <si>
+    <t>pl_FONIPA-ja</t>
+  </si>
+  <si>
+    <t>rm_SURSILV-rm_FONIPA_SURSILV</t>
+  </si>
+  <si>
+    <t>ro-ro_FONIPA</t>
+  </si>
+  <si>
+    <t>ro_FONIPA-ja</t>
+  </si>
+  <si>
+    <t>sat_Olck-sat_FONIPA</t>
+  </si>
+  <si>
+    <t>si-si_FONIPA</t>
+  </si>
+  <si>
+    <t>sk-sk_FONIPA</t>
+  </si>
+  <si>
+    <t>sk_FONIPA-ja</t>
+  </si>
+  <si>
+    <t>tlh-tlh_FONIPA</t>
+  </si>
+  <si>
+    <t>xh-xh_FONIPA</t>
+  </si>
+  <si>
+    <t>zu-zu_FONIPA</t>
+  </si>
+  <si>
+    <t>Western Armenian</t>
   </si>
 </sst>
 </file>
@@ -3398,58 +3590,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J354"/>
+  <dimension ref="A1:M354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E328" sqref="E328"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>799</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3524,7 +3719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3544,7 +3739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3564,7 +3759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3584,7 +3779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3607,7 +3802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3630,7 +3825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3646,8 +3841,17 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>828</v>
+      </c>
+      <c r="M10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3663,8 +3867,17 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>828</v>
+      </c>
+      <c r="M11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3680,8 +3893,17 @@
       <c r="G12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>828</v>
+      </c>
+      <c r="M12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3697,8 +3919,17 @@
       <c r="G13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>828</v>
+      </c>
+      <c r="M13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3715,7 +3946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3731,8 +3962,17 @@
       <c r="G15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>828</v>
+      </c>
+      <c r="M15" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3748,8 +3988,17 @@
       <c r="G16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>828</v>
+      </c>
+      <c r="M16" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -3765,8 +4014,17 @@
       <c r="G17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>828</v>
+      </c>
+      <c r="M17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -3782,8 +4040,17 @@
       <c r="G18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>828</v>
+      </c>
+      <c r="M18" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3799,8 +4066,17 @@
       <c r="G19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" t="s">
+        <v>828</v>
+      </c>
+      <c r="M19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3816,8 +4092,17 @@
       <c r="G20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>828</v>
+      </c>
+      <c r="M20" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3833,8 +4118,17 @@
       <c r="G21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" t="s">
+        <v>828</v>
+      </c>
+      <c r="M21" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -3857,7 +4151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3877,7 +4171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -3897,7 +4191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3913,8 +4207,17 @@
       <c r="G25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" t="s">
+        <v>840</v>
+      </c>
+      <c r="M25" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3930,8 +4233,17 @@
       <c r="G26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>840</v>
+      </c>
+      <c r="M26" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -3947,8 +4259,17 @@
       <c r="G27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" t="s">
+        <v>840</v>
+      </c>
+      <c r="M27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -3964,8 +4285,17 @@
       <c r="G28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" t="s">
+        <v>840</v>
+      </c>
+      <c r="M28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -3981,8 +4311,17 @@
       <c r="I29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" t="s">
+        <v>840</v>
+      </c>
+      <c r="M29" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -3999,7 +4338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -4015,8 +4354,17 @@
       <c r="G31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" t="s">
+        <v>840</v>
+      </c>
+      <c r="M31" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -4032,8 +4380,17 @@
       <c r="G32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" t="s">
+        <v>840</v>
+      </c>
+      <c r="M32" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -4049,8 +4406,17 @@
       <c r="G33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" t="s">
+        <v>840</v>
+      </c>
+      <c r="M33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -4066,8 +4432,17 @@
       <c r="G34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" t="s">
+        <v>840</v>
+      </c>
+      <c r="M34" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -4083,8 +4458,17 @@
       <c r="G35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" t="s">
+        <v>840</v>
+      </c>
+      <c r="M35" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -4100,8 +4484,17 @@
       <c r="G36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" t="s">
+        <v>840</v>
+      </c>
+      <c r="M36" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -4127,7 +4520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -4147,7 +4540,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -4158,7 +4551,7 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
@@ -4167,7 +4560,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -4187,7 +4580,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -4195,7 +4588,7 @@
         <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -4210,7 +4603,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -4230,7 +4623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -4253,7 +4646,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -4269,8 +4662,17 @@
       <c r="G44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>124</v>
+      </c>
+      <c r="L44" t="s">
+        <v>842</v>
+      </c>
+      <c r="M44" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4286,8 +4688,17 @@
       <c r="G45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>126</v>
+      </c>
+      <c r="L45" t="s">
+        <v>842</v>
+      </c>
+      <c r="M45" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -4303,8 +4714,17 @@
       <c r="G46" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>128</v>
+      </c>
+      <c r="L46" t="s">
+        <v>842</v>
+      </c>
+      <c r="M46" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -4320,8 +4740,17 @@
       <c r="G47" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" t="s">
+        <v>842</v>
+      </c>
+      <c r="M47" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -4338,7 +4767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -4354,8 +4783,17 @@
       <c r="G49" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" t="s">
+        <v>842</v>
+      </c>
+      <c r="M49" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -4371,8 +4809,17 @@
       <c r="G50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50" t="s">
+        <v>842</v>
+      </c>
+      <c r="M50" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -4388,8 +4835,17 @@
       <c r="G51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" t="s">
+        <v>842</v>
+      </c>
+      <c r="M51" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -4405,8 +4861,17 @@
       <c r="G52" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" t="s">
+        <v>842</v>
+      </c>
+      <c r="M52" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -4422,8 +4887,17 @@
       <c r="G53" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>141</v>
+      </c>
+      <c r="L53" t="s">
+        <v>842</v>
+      </c>
+      <c r="M53" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -4439,8 +4913,17 @@
       <c r="G54" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>143</v>
+      </c>
+      <c r="L54" t="s">
+        <v>842</v>
+      </c>
+      <c r="M54" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -4456,8 +4939,17 @@
       <c r="G55" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" t="s">
+        <v>842</v>
+      </c>
+      <c r="M55" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>147</v>
       </c>
@@ -4473,8 +4965,17 @@
       <c r="G56" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>147</v>
+      </c>
+      <c r="L56" t="s">
+        <v>843</v>
+      </c>
+      <c r="M56" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -4490,8 +4991,17 @@
       <c r="G57" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57" t="s">
+        <v>843</v>
+      </c>
+      <c r="M57" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>151</v>
       </c>
@@ -4507,8 +5017,17 @@
       <c r="G58" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>151</v>
+      </c>
+      <c r="L58" t="s">
+        <v>843</v>
+      </c>
+      <c r="M58" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -4524,8 +5043,17 @@
       <c r="G59" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" t="s">
+        <v>843</v>
+      </c>
+      <c r="M59" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>155</v>
       </c>
@@ -4541,8 +5069,17 @@
       <c r="I60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>156</v>
+      </c>
+      <c r="L60" t="s">
+        <v>843</v>
+      </c>
+      <c r="M60" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>156</v>
       </c>
@@ -4558,8 +5095,17 @@
       <c r="G61" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>158</v>
+      </c>
+      <c r="L61" t="s">
+        <v>843</v>
+      </c>
+      <c r="M61" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -4575,8 +5121,17 @@
       <c r="G62" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>160</v>
+      </c>
+      <c r="L62" t="s">
+        <v>843</v>
+      </c>
+      <c r="M62" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -4592,8 +5147,17 @@
       <c r="G63" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>162</v>
+      </c>
+      <c r="L63" t="s">
+        <v>843</v>
+      </c>
+      <c r="M63" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -4609,8 +5173,17 @@
       <c r="G64" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>164</v>
+      </c>
+      <c r="L64" t="s">
+        <v>843</v>
+      </c>
+      <c r="M64" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -4626,8 +5199,17 @@
       <c r="G65" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>166</v>
+      </c>
+      <c r="L65" t="s">
+        <v>843</v>
+      </c>
+      <c r="M65" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -4643,8 +5225,17 @@
       <c r="G66" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>168</v>
+      </c>
+      <c r="L66" t="s">
+        <v>843</v>
+      </c>
+      <c r="M66" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>168</v>
       </c>
@@ -4660,8 +5251,17 @@
       <c r="G67" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>170</v>
+      </c>
+      <c r="L67" t="s">
+        <v>175</v>
+      </c>
+      <c r="M67" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -4680,8 +5280,14 @@
       <c r="G68" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>176</v>
+      </c>
+      <c r="L68" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -4697,8 +5303,14 @@
       <c r="G69" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>178</v>
+      </c>
+      <c r="L69" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -4714,8 +5326,17 @@
       <c r="I70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K70" t="s">
+        <v>192</v>
+      </c>
+      <c r="L70" t="s">
+        <v>190</v>
+      </c>
+      <c r="M70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -4731,8 +5352,14 @@
       <c r="G71" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>211</v>
+      </c>
+      <c r="L71" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -4752,7 +5379,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -4772,7 +5399,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -4792,7 +5419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>192</v>
       </c>
@@ -4812,18 +5439,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>195</v>
       </c>
       <c r="B76" t="s">
+        <v>804</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
         <v>807</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>810</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -4835,7 +5462,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>199</v>
       </c>
@@ -4852,7 +5479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>200</v>
       </c>
@@ -4869,7 +5496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -4886,7 +5513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -4903,7 +5530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -4920,7 +5547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -4937,7 +5564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>205</v>
       </c>
@@ -4954,7 +5581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>206</v>
       </c>
@@ -4971,7 +5598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>207</v>
       </c>
@@ -4988,7 +5615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -5005,7 +5632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -5022,7 +5649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>210</v>
       </c>
@@ -5039,7 +5666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -5047,7 +5674,7 @@
         <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -5059,7 +5686,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>213</v>
       </c>
@@ -5075,8 +5702,17 @@
       <c r="G90" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K90" t="s">
+        <v>213</v>
+      </c>
+      <c r="L90" t="s">
+        <v>847</v>
+      </c>
+      <c r="M90" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5092,8 +5728,17 @@
       <c r="G91" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>215</v>
+      </c>
+      <c r="L91" t="s">
+        <v>847</v>
+      </c>
+      <c r="M91" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>217</v>
       </c>
@@ -5109,8 +5754,17 @@
       <c r="G92" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>217</v>
+      </c>
+      <c r="L92" t="s">
+        <v>847</v>
+      </c>
+      <c r="M92" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>219</v>
       </c>
@@ -5126,8 +5780,17 @@
       <c r="G93" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K93" t="s">
+        <v>219</v>
+      </c>
+      <c r="L93" t="s">
+        <v>847</v>
+      </c>
+      <c r="M93" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>221</v>
       </c>
@@ -5143,8 +5806,17 @@
       <c r="G94" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K94" t="s">
+        <v>221</v>
+      </c>
+      <c r="L94" t="s">
+        <v>847</v>
+      </c>
+      <c r="M94" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>223</v>
       </c>
@@ -5161,7 +5833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>224</v>
       </c>
@@ -5177,8 +5849,17 @@
       <c r="G96" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K96" t="s">
+        <v>224</v>
+      </c>
+      <c r="L96" t="s">
+        <v>847</v>
+      </c>
+      <c r="M96" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>226</v>
       </c>
@@ -5194,8 +5875,17 @@
       <c r="G97" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K97" t="s">
+        <v>226</v>
+      </c>
+      <c r="L97" t="s">
+        <v>847</v>
+      </c>
+      <c r="M97" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -5211,8 +5901,17 @@
       <c r="G98" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K98" t="s">
+        <v>228</v>
+      </c>
+      <c r="L98" t="s">
+        <v>847</v>
+      </c>
+      <c r="M98" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>230</v>
       </c>
@@ -5228,8 +5927,17 @@
       <c r="G99" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K99" t="s">
+        <v>230</v>
+      </c>
+      <c r="L99" t="s">
+        <v>847</v>
+      </c>
+      <c r="M99" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -5245,8 +5953,17 @@
       <c r="G100" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K100" t="s">
+        <v>232</v>
+      </c>
+      <c r="L100" t="s">
+        <v>847</v>
+      </c>
+      <c r="M100" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -5262,8 +5979,17 @@
       <c r="G101" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K101" t="s">
+        <v>234</v>
+      </c>
+      <c r="L101" t="s">
+        <v>847</v>
+      </c>
+      <c r="M101" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>236</v>
       </c>
@@ -5284,7 +6010,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -5307,7 +6033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>241</v>
       </c>
@@ -5330,7 +6056,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>244</v>
       </c>
@@ -5350,7 +6076,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>246</v>
       </c>
@@ -5367,7 +6093,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>249</v>
       </c>
@@ -5387,7 +6113,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>252</v>
       </c>
@@ -5403,8 +6129,17 @@
       <c r="G108" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K108" t="s">
+        <v>252</v>
+      </c>
+      <c r="L108" t="s">
+        <v>848</v>
+      </c>
+      <c r="M108" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>254</v>
       </c>
@@ -5423,8 +6158,17 @@
       <c r="H109" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K109" t="s">
+        <v>259</v>
+      </c>
+      <c r="L109" t="s">
+        <v>848</v>
+      </c>
+      <c r="M109" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -5435,7 +6179,7 @@
         <v>179</v>
       </c>
       <c r="E110" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F110" t="s">
         <v>8</v>
@@ -5443,8 +6187,17 @@
       <c r="I110" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K110" t="s">
+        <v>265</v>
+      </c>
+      <c r="L110" t="s">
+        <v>848</v>
+      </c>
+      <c r="M110" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -5460,8 +6213,17 @@
       <c r="G111" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K111" t="s">
+        <v>267</v>
+      </c>
+      <c r="L111" t="s">
+        <v>848</v>
+      </c>
+      <c r="M111" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>261</v>
       </c>
@@ -5480,8 +6242,17 @@
       <c r="H112" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K112" t="s">
+        <v>269</v>
+      </c>
+      <c r="L112" t="s">
+        <v>849</v>
+      </c>
+      <c r="M112" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>265</v>
       </c>
@@ -5497,8 +6268,17 @@
       <c r="G113" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K113" t="s">
+        <v>274</v>
+      </c>
+      <c r="L113" t="s">
+        <v>848</v>
+      </c>
+      <c r="M113" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>267</v>
       </c>
@@ -5514,8 +6294,17 @@
       <c r="G114" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K114" t="s">
+        <v>279</v>
+      </c>
+      <c r="L114" t="s">
+        <v>848</v>
+      </c>
+      <c r="M114" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>269</v>
       </c>
@@ -5531,8 +6320,17 @@
       <c r="G115" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K115" t="s">
+        <v>284</v>
+      </c>
+      <c r="L115" t="s">
+        <v>848</v>
+      </c>
+      <c r="M115" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>271</v>
       </c>
@@ -5548,8 +6346,17 @@
       <c r="I116" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K116" t="s">
+        <v>286</v>
+      </c>
+      <c r="L116" t="s">
+        <v>848</v>
+      </c>
+      <c r="M116" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>272</v>
       </c>
@@ -5560,7 +6367,7 @@
         <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
@@ -5568,8 +6375,17 @@
       <c r="G117" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K117" t="s">
+        <v>288</v>
+      </c>
+      <c r="L117" t="s">
+        <v>848</v>
+      </c>
+      <c r="M117" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>274</v>
       </c>
@@ -5585,8 +6401,17 @@
       <c r="G118" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K118" t="s">
+        <v>290</v>
+      </c>
+      <c r="L118" t="s">
+        <v>850</v>
+      </c>
+      <c r="M118" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -5606,7 +6431,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>279</v>
       </c>
@@ -5623,7 +6448,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>281</v>
       </c>
@@ -5634,7 +6459,7 @@
         <v>355</v>
       </c>
       <c r="E121" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F121" t="s">
         <v>8</v>
@@ -5646,7 +6471,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>284</v>
       </c>
@@ -5663,7 +6488,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>286</v>
       </c>
@@ -5680,7 +6505,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>288</v>
       </c>
@@ -5697,7 +6522,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>290</v>
       </c>
@@ -5714,7 +6539,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>293</v>
       </c>
@@ -5737,7 +6562,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -5753,8 +6578,17 @@
       <c r="G127" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K127" t="s">
+        <v>296</v>
+      </c>
+      <c r="L127" t="s">
+        <v>852</v>
+      </c>
+      <c r="M127" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -5770,8 +6604,17 @@
       <c r="G128" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K128" t="s">
+        <v>298</v>
+      </c>
+      <c r="L128" t="s">
+        <v>852</v>
+      </c>
+      <c r="M128" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -5787,8 +6630,17 @@
       <c r="G129" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K129" t="s">
+        <v>300</v>
+      </c>
+      <c r="L129" t="s">
+        <v>852</v>
+      </c>
+      <c r="M129" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>302</v>
       </c>
@@ -5804,8 +6656,17 @@
       <c r="G130" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K130" t="s">
+        <v>302</v>
+      </c>
+      <c r="L130" t="s">
+        <v>852</v>
+      </c>
+      <c r="M130" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>304</v>
       </c>
@@ -5821,8 +6682,17 @@
       <c r="G131" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K131" t="s">
+        <v>304</v>
+      </c>
+      <c r="L131" t="s">
+        <v>852</v>
+      </c>
+      <c r="M131" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>306</v>
       </c>
@@ -5839,7 +6709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>307</v>
       </c>
@@ -5855,8 +6725,17 @@
       <c r="G133" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K133" t="s">
+        <v>307</v>
+      </c>
+      <c r="L133" t="s">
+        <v>852</v>
+      </c>
+      <c r="M133" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>309</v>
       </c>
@@ -5872,8 +6751,17 @@
       <c r="G134" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K134" t="s">
+        <v>309</v>
+      </c>
+      <c r="L134" t="s">
+        <v>852</v>
+      </c>
+      <c r="M134" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>311</v>
       </c>
@@ -5889,8 +6777,17 @@
       <c r="G135" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K135" t="s">
+        <v>311</v>
+      </c>
+      <c r="L135" t="s">
+        <v>852</v>
+      </c>
+      <c r="M135" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>313</v>
       </c>
@@ -5906,8 +6803,17 @@
       <c r="G136" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K136" t="s">
+        <v>313</v>
+      </c>
+      <c r="L136" t="s">
+        <v>852</v>
+      </c>
+      <c r="M136" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>315</v>
       </c>
@@ -5923,8 +6829,17 @@
       <c r="G137" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K137" t="s">
+        <v>315</v>
+      </c>
+      <c r="L137" t="s">
+        <v>852</v>
+      </c>
+      <c r="M137" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>317</v>
       </c>
@@ -5940,8 +6855,17 @@
       <c r="G138" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K138" t="s">
+        <v>317</v>
+      </c>
+      <c r="L138" t="s">
+        <v>852</v>
+      </c>
+      <c r="M138" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>319</v>
       </c>
@@ -5961,7 +6885,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>322</v>
       </c>
@@ -5984,7 +6908,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>325</v>
       </c>
@@ -6000,8 +6924,17 @@
       <c r="G141" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K141" t="s">
+        <v>325</v>
+      </c>
+      <c r="L141" t="s">
+        <v>853</v>
+      </c>
+      <c r="M141" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>327</v>
       </c>
@@ -6017,8 +6950,17 @@
       <c r="G142" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K142" t="s">
+        <v>327</v>
+      </c>
+      <c r="L142" t="s">
+        <v>853</v>
+      </c>
+      <c r="M142" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>329</v>
       </c>
@@ -6034,8 +6976,17 @@
       <c r="G143" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K143" t="s">
+        <v>329</v>
+      </c>
+      <c r="L143" t="s">
+        <v>853</v>
+      </c>
+      <c r="M143" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>331</v>
       </c>
@@ -6051,8 +7002,17 @@
       <c r="G144" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K144" t="s">
+        <v>331</v>
+      </c>
+      <c r="L144" t="s">
+        <v>853</v>
+      </c>
+      <c r="M144" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>333</v>
       </c>
@@ -6068,8 +7028,17 @@
       <c r="G145" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K145" t="s">
+        <v>333</v>
+      </c>
+      <c r="L145" t="s">
+        <v>853</v>
+      </c>
+      <c r="M145" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>335</v>
       </c>
@@ -6086,7 +7055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>336</v>
       </c>
@@ -6102,8 +7071,17 @@
       <c r="G147" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K147" t="s">
+        <v>336</v>
+      </c>
+      <c r="L147" t="s">
+        <v>853</v>
+      </c>
+      <c r="M147" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>338</v>
       </c>
@@ -6119,8 +7097,17 @@
       <c r="G148" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K148" t="s">
+        <v>338</v>
+      </c>
+      <c r="L148" t="s">
+        <v>853</v>
+      </c>
+      <c r="M148" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>340</v>
       </c>
@@ -6136,8 +7123,17 @@
       <c r="G149" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K149" t="s">
+        <v>340</v>
+      </c>
+      <c r="L149" t="s">
+        <v>853</v>
+      </c>
+      <c r="M149" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>342</v>
       </c>
@@ -6153,8 +7149,17 @@
       <c r="G150" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K150" t="s">
+        <v>342</v>
+      </c>
+      <c r="L150" t="s">
+        <v>853</v>
+      </c>
+      <c r="M150" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>344</v>
       </c>
@@ -6170,8 +7175,17 @@
       <c r="G151" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K151" t="s">
+        <v>344</v>
+      </c>
+      <c r="L151" t="s">
+        <v>853</v>
+      </c>
+      <c r="M151" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>346</v>
       </c>
@@ -6187,8 +7201,17 @@
       <c r="G152" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K152" t="s">
+        <v>346</v>
+      </c>
+      <c r="L152" t="s">
+        <v>853</v>
+      </c>
+      <c r="M152" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>348</v>
       </c>
@@ -6208,7 +7231,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>351</v>
       </c>
@@ -6231,7 +7254,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>354</v>
       </c>
@@ -6245,13 +7268,13 @@
         <v>19</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F155" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>356</v>
       </c>
@@ -6274,7 +7297,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>359</v>
       </c>
@@ -6297,7 +7320,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>362</v>
       </c>
@@ -6305,13 +7328,13 @@
         <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D158" t="s">
         <v>171</v>
       </c>
       <c r="E158" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F158" t="s">
         <v>8</v>
@@ -6323,7 +7346,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>365</v>
       </c>
@@ -6343,7 +7366,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>369</v>
       </c>
@@ -6359,8 +7382,17 @@
       <c r="G160" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K160" t="s">
+        <v>369</v>
+      </c>
+      <c r="L160" t="s">
+        <v>854</v>
+      </c>
+      <c r="M160" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -6376,8 +7408,17 @@
       <c r="G161" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K161" t="s">
+        <v>371</v>
+      </c>
+      <c r="L161" t="s">
+        <v>854</v>
+      </c>
+      <c r="M161" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>373</v>
       </c>
@@ -6393,8 +7434,17 @@
       <c r="G162" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K162" t="s">
+        <v>373</v>
+      </c>
+      <c r="L162" t="s">
+        <v>854</v>
+      </c>
+      <c r="M162" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>375</v>
       </c>
@@ -6410,8 +7460,17 @@
       <c r="G163" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K163" t="s">
+        <v>375</v>
+      </c>
+      <c r="L163" t="s">
+        <v>854</v>
+      </c>
+      <c r="M163" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>377</v>
       </c>
@@ -6427,8 +7486,17 @@
       <c r="G164" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K164" t="s">
+        <v>377</v>
+      </c>
+      <c r="L164" t="s">
+        <v>854</v>
+      </c>
+      <c r="M164" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>379</v>
       </c>
@@ -6445,7 +7513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>380</v>
       </c>
@@ -6461,8 +7529,17 @@
       <c r="G166" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K166" t="s">
+        <v>380</v>
+      </c>
+      <c r="L166" t="s">
+        <v>854</v>
+      </c>
+      <c r="M166" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>382</v>
       </c>
@@ -6478,8 +7555,17 @@
       <c r="G167" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K167" t="s">
+        <v>382</v>
+      </c>
+      <c r="L167" t="s">
+        <v>854</v>
+      </c>
+      <c r="M167" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>384</v>
       </c>
@@ -6495,8 +7581,17 @@
       <c r="G168" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K168" t="s">
+        <v>384</v>
+      </c>
+      <c r="L168" t="s">
+        <v>854</v>
+      </c>
+      <c r="M168" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>386</v>
       </c>
@@ -6512,8 +7607,17 @@
       <c r="G169" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K169" t="s">
+        <v>386</v>
+      </c>
+      <c r="L169" t="s">
+        <v>854</v>
+      </c>
+      <c r="M169" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>388</v>
       </c>
@@ -6529,8 +7633,17 @@
       <c r="G170" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K170" t="s">
+        <v>388</v>
+      </c>
+      <c r="L170" t="s">
+        <v>854</v>
+      </c>
+      <c r="M170" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>390</v>
       </c>
@@ -6546,8 +7659,17 @@
       <c r="G171" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K171" t="s">
+        <v>390</v>
+      </c>
+      <c r="L171" t="s">
+        <v>854</v>
+      </c>
+      <c r="M171" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>392</v>
       </c>
@@ -6563,8 +7685,17 @@
       <c r="G172" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K172" t="s">
+        <v>392</v>
+      </c>
+      <c r="L172" t="s">
+        <v>855</v>
+      </c>
+      <c r="M172" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>394</v>
       </c>
@@ -6580,8 +7711,17 @@
       <c r="G173" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K173" t="s">
+        <v>394</v>
+      </c>
+      <c r="L173" t="s">
+        <v>855</v>
+      </c>
+      <c r="M173" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>396</v>
       </c>
@@ -6597,8 +7737,17 @@
       <c r="G174" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K174" t="s">
+        <v>396</v>
+      </c>
+      <c r="L174" t="s">
+        <v>855</v>
+      </c>
+      <c r="M174" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>398</v>
       </c>
@@ -6614,8 +7763,17 @@
       <c r="G175" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K175" t="s">
+        <v>398</v>
+      </c>
+      <c r="L175" t="s">
+        <v>855</v>
+      </c>
+      <c r="M175" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>400</v>
       </c>
@@ -6632,7 +7790,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>402</v>
       </c>
@@ -6648,8 +7806,17 @@
       <c r="I177" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K177" t="s">
+        <v>400</v>
+      </c>
+      <c r="L177" t="s">
+        <v>855</v>
+      </c>
+      <c r="M177" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>403</v>
       </c>
@@ -6665,8 +7832,17 @@
       <c r="G178" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K178" t="s">
+        <v>403</v>
+      </c>
+      <c r="L178" t="s">
+        <v>855</v>
+      </c>
+      <c r="M178" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>405</v>
       </c>
@@ -6682,8 +7858,17 @@
       <c r="G179" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K179" t="s">
+        <v>405</v>
+      </c>
+      <c r="L179" t="s">
+        <v>855</v>
+      </c>
+      <c r="M179" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>407</v>
       </c>
@@ -6699,8 +7884,17 @@
       <c r="G180" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K180" t="s">
+        <v>407</v>
+      </c>
+      <c r="L180" t="s">
+        <v>855</v>
+      </c>
+      <c r="M180" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>409</v>
       </c>
@@ -6716,8 +7910,17 @@
       <c r="G181" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K181" t="s">
+        <v>409</v>
+      </c>
+      <c r="L181" t="s">
+        <v>855</v>
+      </c>
+      <c r="M181" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>411</v>
       </c>
@@ -6733,8 +7936,17 @@
       <c r="G182" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K182" t="s">
+        <v>411</v>
+      </c>
+      <c r="L182" t="s">
+        <v>855</v>
+      </c>
+      <c r="M182" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>413</v>
       </c>
@@ -6750,8 +7962,17 @@
       <c r="G183" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K183" t="s">
+        <v>413</v>
+      </c>
+      <c r="L183" t="s">
+        <v>855</v>
+      </c>
+      <c r="M183" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>415</v>
       </c>
@@ -6771,7 +7992,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>419</v>
       </c>
@@ -6787,8 +8008,17 @@
       <c r="G185" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K185" t="s">
+        <v>419</v>
+      </c>
+      <c r="L185" t="s">
+        <v>856</v>
+      </c>
+      <c r="M185" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>421</v>
       </c>
@@ -6799,7 +8029,7 @@
         <v>291</v>
       </c>
       <c r="E186" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F186" t="s">
         <v>8</v>
@@ -6807,8 +8037,17 @@
       <c r="I186" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K186" t="s">
+        <v>419</v>
+      </c>
+      <c r="L186" t="s">
+        <v>858</v>
+      </c>
+      <c r="M186" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>422</v>
       </c>
@@ -6819,7 +8058,7 @@
         <v>291</v>
       </c>
       <c r="E187" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F187" t="s">
         <v>8</v>
@@ -6828,7 +8067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>423</v>
       </c>
@@ -6836,7 +8075,7 @@
         <v>291</v>
       </c>
       <c r="C188" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -6848,7 +8087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>424</v>
       </c>
@@ -6871,7 +8110,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>427</v>
       </c>
@@ -6894,7 +8133,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>430</v>
       </c>
@@ -6917,7 +8156,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>433</v>
       </c>
@@ -6928,7 +8167,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1</v>
       </c>
       <c r="F192" t="s">
         <v>8</v>
@@ -6940,7 +8182,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>436</v>
       </c>
@@ -6959,8 +8201,17 @@
       <c r="G193" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K193" t="s">
+        <v>436</v>
+      </c>
+      <c r="L193" t="s">
+        <v>860</v>
+      </c>
+      <c r="M193" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>438</v>
       </c>
@@ -6971,18 +8222,27 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
+        <v>806</v>
+      </c>
+      <c r="F194" t="s">
+        <v>3</v>
+      </c>
+      <c r="G194" t="s">
         <v>439</v>
       </c>
-      <c r="F194" t="s">
-        <v>3</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="K194" t="s">
+        <v>438</v>
+      </c>
+      <c r="L194" t="s">
+        <v>860</v>
+      </c>
+      <c r="M194" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>441</v>
       </c>
       <c r="B195" t="s">
         <v>262</v>
@@ -7000,12 +8260,21 @@
         <v>3</v>
       </c>
       <c r="G195" t="s">
+        <v>441</v>
+      </c>
+      <c r="K195" t="s">
+        <v>440</v>
+      </c>
+      <c r="L195" t="s">
+        <v>860</v>
+      </c>
+      <c r="M195" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>443</v>
       </c>
       <c r="B196" t="s">
         <v>74</v>
@@ -7017,18 +8286,18 @@
         <v>74</v>
       </c>
       <c r="E196" t="s">
+        <v>443</v>
+      </c>
+      <c r="F196" t="s">
+        <v>3</v>
+      </c>
+      <c r="G196" t="s">
         <v>444</v>
       </c>
-      <c r="F196" t="s">
-        <v>3</v>
-      </c>
-      <c r="G196" t="s">
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>446</v>
       </c>
       <c r="B197" t="s">
         <v>74</v>
@@ -7040,18 +8309,18 @@
         <v>74</v>
       </c>
       <c r="E197" t="s">
+        <v>446</v>
+      </c>
+      <c r="F197" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" t="s">
         <v>447</v>
       </c>
-      <c r="F197" t="s">
-        <v>3</v>
-      </c>
-      <c r="G197" t="s">
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>449</v>
       </c>
       <c r="B198" t="s">
         <v>74</v>
@@ -7063,44 +8332,44 @@
         <v>74</v>
       </c>
       <c r="E198" t="s">
+        <v>449</v>
+      </c>
+      <c r="F198" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198" t="s">
         <v>450</v>
       </c>
-      <c r="F198" t="s">
-        <v>3</v>
-      </c>
-      <c r="G198" t="s">
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>452</v>
       </c>
       <c r="B199" t="s">
         <v>291</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D199" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
         <v>454</v>
-      </c>
-      <c r="B200" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" t="s">
-        <v>455</v>
       </c>
       <c r="D200" t="s">
         <v>262</v>
@@ -7112,18 +8381,27 @@
         <v>3</v>
       </c>
       <c r="G200" t="s">
+        <v>455</v>
+      </c>
+      <c r="K200" t="s">
+        <v>453</v>
+      </c>
+      <c r="L200" t="s">
+        <v>864</v>
+      </c>
+      <c r="M200" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>457</v>
-      </c>
       <c r="B201" t="s">
         <v>19</v>
       </c>
       <c r="C201" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -7132,58 +8410,76 @@
         <v>3</v>
       </c>
       <c r="G201" t="s">
+        <v>457</v>
+      </c>
+      <c r="K201" t="s">
+        <v>456</v>
+      </c>
+      <c r="L201" t="s">
+        <v>864</v>
+      </c>
+      <c r="M201" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" t="s">
+        <v>454</v>
+      </c>
+      <c r="D202" t="s">
+        <v>804</v>
+      </c>
+      <c r="F202" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202" t="s">
         <v>459</v>
       </c>
-      <c r="B202" t="s">
-        <v>19</v>
-      </c>
-      <c r="C202" t="s">
-        <v>455</v>
-      </c>
-      <c r="D202" t="s">
-        <v>807</v>
-      </c>
-      <c r="F202" t="s">
-        <v>3</v>
-      </c>
-      <c r="G202" t="s">
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" t="s">
+        <v>454</v>
+      </c>
+      <c r="D203" t="s">
+        <v>806</v>
+      </c>
+      <c r="F203" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" t="s">
         <v>461</v>
       </c>
-      <c r="B203" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" t="s">
-        <v>455</v>
-      </c>
-      <c r="D203" t="s">
-        <v>439</v>
-      </c>
-      <c r="F203" t="s">
-        <v>3</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="K203" t="s">
+        <v>460</v>
+      </c>
+      <c r="L203" t="s">
+        <v>864</v>
+      </c>
+      <c r="M203" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>463</v>
-      </c>
       <c r="B204" t="s">
         <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D204" t="s">
         <v>16</v>
@@ -7195,35 +8491,47 @@
         <v>3</v>
       </c>
       <c r="G204" t="s">
+        <v>463</v>
+      </c>
+      <c r="K204" t="s">
+        <v>462</v>
+      </c>
+      <c r="L204" t="s">
+        <v>864</v>
+      </c>
+      <c r="M204" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="B205" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D205" t="s">
+        <v>804</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F205" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205" t="s">
         <v>465</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D205" t="s">
-        <v>807</v>
-      </c>
-      <c r="F205" t="s">
-        <v>3</v>
-      </c>
-      <c r="G205" t="s">
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="B206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" t="s">
         <v>467</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" t="s">
-        <v>468</v>
       </c>
       <c r="D206" t="s">
         <v>262</v>
@@ -7235,18 +8543,27 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
+        <v>468</v>
+      </c>
+      <c r="K206" t="s">
+        <v>466</v>
+      </c>
+      <c r="L206" t="s">
+        <v>866</v>
+      </c>
+      <c r="M206" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>470</v>
-      </c>
       <c r="B207" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C207" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D207" t="s">
         <v>16</v>
@@ -7255,58 +8572,85 @@
         <v>3</v>
       </c>
       <c r="G207" t="s">
+        <v>470</v>
+      </c>
+      <c r="K207" t="s">
+        <v>469</v>
+      </c>
+      <c r="L207" t="s">
+        <v>866</v>
+      </c>
+      <c r="M207" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="B208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>467</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F208" t="s">
+        <v>3</v>
+      </c>
+      <c r="G208" t="s">
         <v>472</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" t="s">
-        <v>468</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="F208" t="s">
-        <v>3</v>
-      </c>
-      <c r="G208" t="s">
+      <c r="K208" t="s">
+        <v>471</v>
+      </c>
+      <c r="L208" t="s">
+        <v>866</v>
+      </c>
+      <c r="M208" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="B209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" t="s">
+        <v>467</v>
+      </c>
+      <c r="D209" t="s">
+        <v>804</v>
+      </c>
+      <c r="F209" t="s">
+        <v>3</v>
+      </c>
+      <c r="G209" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C209" t="s">
-        <v>468</v>
-      </c>
-      <c r="D209" t="s">
-        <v>807</v>
-      </c>
-      <c r="F209" t="s">
-        <v>3</v>
-      </c>
-      <c r="G209" t="s">
+      <c r="K209" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L209" t="s">
+        <v>866</v>
+      </c>
+      <c r="M209" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D210" t="s">
         <v>16</v>
@@ -7318,18 +8662,27 @@
         <v>3</v>
       </c>
       <c r="G210" t="s">
+        <v>476</v>
+      </c>
+      <c r="K210" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L210" t="s">
+        <v>866</v>
+      </c>
+      <c r="M210" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C211" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D211" t="s">
         <v>189</v>
@@ -7338,18 +8691,27 @@
         <v>3</v>
       </c>
       <c r="G211" t="s">
+        <v>478</v>
+      </c>
+      <c r="K211" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L211" t="s">
+        <v>866</v>
+      </c>
+      <c r="M211" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>179</v>
@@ -7358,15 +8720,27 @@
         <v>3</v>
       </c>
       <c r="G212" t="s">
+        <v>480</v>
+      </c>
+      <c r="K212" t="s">
+        <v>483</v>
+      </c>
+      <c r="L212" t="s">
+        <v>869</v>
+      </c>
+      <c r="M212" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>482</v>
-      </c>
       <c r="B213" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="C213" t="s">
+        <v>467</v>
       </c>
       <c r="D213" t="s">
         <v>189</v>
@@ -7375,15 +8749,18 @@
         <v>3</v>
       </c>
       <c r="G213" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>484</v>
-      </c>
       <c r="B214" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="C214" t="s">
+        <v>467</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>179</v>
@@ -7392,38 +8769,41 @@
         <v>3</v>
       </c>
       <c r="G214" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="B215" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" t="s">
         <v>486</v>
       </c>
-      <c r="B215" t="s">
-        <v>19</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
+        <v>804</v>
+      </c>
+      <c r="E215" t="s">
+        <v>486</v>
+      </c>
+      <c r="F215" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" t="s">
         <v>487</v>
       </c>
-      <c r="D215" t="s">
-        <v>807</v>
-      </c>
-      <c r="F215" t="s">
-        <v>3</v>
-      </c>
-      <c r="G215" t="s">
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" t="s">
         <v>489</v>
-      </c>
-      <c r="B216" t="s">
-        <v>19</v>
-      </c>
-      <c r="C216" t="s">
-        <v>490</v>
       </c>
       <c r="D216" t="s">
         <v>247</v>
@@ -7432,32 +8812,32 @@
         <v>3</v>
       </c>
       <c r="G216" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" t="s">
+        <v>814</v>
+      </c>
+      <c r="D217" t="s">
+        <v>804</v>
+      </c>
+      <c r="F217" t="s">
+        <v>3</v>
+      </c>
+      <c r="G217" t="s">
         <v>492</v>
       </c>
-      <c r="B217" t="s">
-        <v>19</v>
-      </c>
-      <c r="C217" t="s">
-        <v>817</v>
-      </c>
-      <c r="D217" t="s">
-        <v>807</v>
-      </c>
-      <c r="F217" t="s">
-        <v>3</v>
-      </c>
-      <c r="G217" t="s">
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>494</v>
       </c>
       <c r="B218" t="s">
         <v>117</v>
@@ -7469,18 +8849,18 @@
         <v>117</v>
       </c>
       <c r="E218" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F218" t="s">
         <v>3</v>
       </c>
       <c r="G218" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>496</v>
       </c>
       <c r="B219" t="s">
         <v>117</v>
@@ -7492,18 +8872,18 @@
         <v>117</v>
       </c>
       <c r="E219" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F219" t="s">
         <v>3</v>
       </c>
       <c r="G219" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>498</v>
       </c>
       <c r="B220" t="s">
         <v>117</v>
@@ -7515,24 +8895,24 @@
         <v>117</v>
       </c>
       <c r="E220" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F220" t="s">
         <v>3</v>
       </c>
       <c r="G220" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" t="s">
         <v>500</v>
-      </c>
-      <c r="B221" t="s">
-        <v>19</v>
-      </c>
-      <c r="C221" t="s">
-        <v>501</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>262</v>
@@ -7544,18 +8924,27 @@
         <v>3</v>
       </c>
       <c r="G221" t="s">
+        <v>501</v>
+      </c>
+      <c r="K221" t="s">
+        <v>499</v>
+      </c>
+      <c r="L221" t="s">
+        <v>871</v>
+      </c>
+      <c r="M221" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>503</v>
-      </c>
       <c r="B222" t="s">
         <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D222" t="s">
         <v>16</v>
@@ -7564,58 +8953,88 @@
         <v>3</v>
       </c>
       <c r="G222" t="s">
+        <v>503</v>
+      </c>
+      <c r="K222" t="s">
+        <v>502</v>
+      </c>
+      <c r="L222" t="s">
+        <v>871</v>
+      </c>
+      <c r="M222" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" t="s">
+        <v>500</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F223" t="s">
+        <v>3</v>
+      </c>
+      <c r="G223" t="s">
         <v>505</v>
       </c>
-      <c r="B223" t="s">
-        <v>19</v>
-      </c>
-      <c r="C223" t="s">
-        <v>501</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="F223" t="s">
-        <v>3</v>
-      </c>
-      <c r="G223" t="s">
+      <c r="K223" t="s">
+        <v>504</v>
+      </c>
+      <c r="L223" t="s">
+        <v>871</v>
+      </c>
+      <c r="M223" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" t="s">
+        <v>500</v>
+      </c>
+      <c r="D224" t="s">
+        <v>804</v>
+      </c>
+      <c r="E224" t="s">
+        <v>500</v>
+      </c>
+      <c r="F224" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" t="s">
         <v>507</v>
       </c>
-      <c r="B224" t="s">
-        <v>19</v>
-      </c>
-      <c r="C224" t="s">
-        <v>501</v>
-      </c>
-      <c r="D224" t="s">
-        <v>807</v>
-      </c>
-      <c r="F224" t="s">
-        <v>3</v>
-      </c>
-      <c r="G224" t="s">
+      <c r="K224" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L224" t="s">
+        <v>871</v>
+      </c>
+      <c r="M224" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B225" t="s">
         <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D225" t="s">
         <v>16</v>
@@ -7627,18 +9046,18 @@
         <v>3</v>
       </c>
       <c r="G225" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" t="s">
         <v>511</v>
-      </c>
-      <c r="B226" t="s">
-        <v>19</v>
-      </c>
-      <c r="C226" t="s">
-        <v>512</v>
       </c>
       <c r="D226" t="s">
         <v>262</v>
@@ -7650,18 +9069,27 @@
         <v>3</v>
       </c>
       <c r="G226" t="s">
+        <v>512</v>
+      </c>
+      <c r="K226" t="s">
+        <v>510</v>
+      </c>
+      <c r="L226" t="s">
+        <v>872</v>
+      </c>
+      <c r="M226" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>514</v>
-      </c>
       <c r="B227" t="s">
         <v>19</v>
       </c>
       <c r="C227" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D227" t="s">
         <v>16</v>
@@ -7670,58 +9098,88 @@
         <v>3</v>
       </c>
       <c r="G227" t="s">
+        <v>514</v>
+      </c>
+      <c r="K227" t="s">
+        <v>513</v>
+      </c>
+      <c r="L227" t="s">
+        <v>872</v>
+      </c>
+      <c r="M227" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" t="s">
+        <v>511</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F228" t="s">
+        <v>3</v>
+      </c>
+      <c r="G228" t="s">
         <v>516</v>
       </c>
-      <c r="B228" t="s">
-        <v>19</v>
-      </c>
-      <c r="C228" t="s">
-        <v>512</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="F228" t="s">
-        <v>3</v>
-      </c>
-      <c r="G228" t="s">
+      <c r="K228" t="s">
+        <v>515</v>
+      </c>
+      <c r="L228" t="s">
+        <v>872</v>
+      </c>
+      <c r="M228" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="s">
+        <v>511</v>
+      </c>
+      <c r="D229" t="s">
+        <v>804</v>
+      </c>
+      <c r="E229" t="s">
+        <v>511</v>
+      </c>
+      <c r="F229" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" t="s">
         <v>518</v>
       </c>
-      <c r="B229" t="s">
-        <v>19</v>
-      </c>
-      <c r="C229" t="s">
-        <v>512</v>
-      </c>
-      <c r="D229" t="s">
-        <v>807</v>
-      </c>
-      <c r="F229" t="s">
-        <v>3</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="K229" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L229" t="s">
+        <v>872</v>
+      </c>
+      <c r="M229" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B230" t="s">
         <v>19</v>
       </c>
       <c r="C230" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D230" t="s">
         <v>16</v>
@@ -7733,18 +9191,27 @@
         <v>3</v>
       </c>
       <c r="G230" t="s">
+        <v>520</v>
+      </c>
+      <c r="K230" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L230" t="s">
+        <v>872</v>
+      </c>
+      <c r="M230" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B231" t="s">
         <v>19</v>
       </c>
       <c r="C231" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D231" t="s">
         <v>189</v>
@@ -7753,41 +9220,59 @@
         <v>3</v>
       </c>
       <c r="G231" t="s">
+        <v>522</v>
+      </c>
+      <c r="K231" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L231" t="s">
+        <v>872</v>
+      </c>
+      <c r="M231" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
       </c>
       <c r="C232" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E232" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F232" t="s">
         <v>3</v>
       </c>
       <c r="G232" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="K232" t="s">
+        <v>525</v>
+      </c>
+      <c r="L232" t="s">
+        <v>872</v>
+      </c>
+      <c r="M232" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B233" t="s">
         <v>19</v>
       </c>
       <c r="C233" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D233" t="s">
         <v>262</v>
@@ -7799,18 +9284,27 @@
         <v>3</v>
       </c>
       <c r="G233" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="K233" t="s">
+        <v>525</v>
+      </c>
+      <c r="L233" t="s">
+        <v>865</v>
+      </c>
+      <c r="M233" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
       </c>
       <c r="C234" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D234" t="s">
         <v>16</v>
@@ -7819,38 +9313,56 @@
         <v>3</v>
       </c>
       <c r="G234" t="s">
+        <v>528</v>
+      </c>
+      <c r="K234" t="s">
+        <v>527</v>
+      </c>
+      <c r="L234" t="s">
+        <v>876</v>
+      </c>
+      <c r="M234" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>529</v>
+      </c>
+      <c r="B235" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" t="s">
+        <v>813</v>
+      </c>
+      <c r="D235" t="s">
+        <v>806</v>
+      </c>
+      <c r="F235" t="s">
+        <v>3</v>
+      </c>
+      <c r="G235" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="K235" t="s">
+        <v>529</v>
+      </c>
+      <c r="L235" t="s">
+        <v>872</v>
+      </c>
+      <c r="M235" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>531</v>
       </c>
-      <c r="B235" t="s">
-        <v>19</v>
-      </c>
-      <c r="C235" t="s">
-        <v>816</v>
-      </c>
-      <c r="D235" t="s">
-        <v>809</v>
-      </c>
-      <c r="F235" t="s">
-        <v>3</v>
-      </c>
-      <c r="G235" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>533</v>
-      </c>
       <c r="B236" t="s">
         <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D236" t="s">
         <v>16</v>
@@ -7862,18 +9374,27 @@
         <v>3</v>
       </c>
       <c r="G236" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="K236" t="s">
+        <v>529</v>
+      </c>
+      <c r="L236" t="s">
+        <v>862</v>
+      </c>
+      <c r="M236" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B237" t="s">
         <v>19</v>
       </c>
       <c r="C237" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D237" t="s">
         <v>189</v>
@@ -7882,41 +9403,59 @@
         <v>3</v>
       </c>
       <c r="G237" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="K237" t="s">
+        <v>531</v>
+      </c>
+      <c r="L237" t="s">
+        <v>876</v>
+      </c>
+      <c r="M237" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
       </c>
       <c r="C238" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E238" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F238" t="s">
         <v>3</v>
       </c>
       <c r="G238" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="K238" t="s">
+        <v>533</v>
+      </c>
+      <c r="L238" t="s">
+        <v>872</v>
+      </c>
+      <c r="M238" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B239" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C239" t="s">
-        <v>1</v>
+        <v>813</v>
       </c>
       <c r="D239" t="s">
         <v>262</v>
@@ -7928,41 +9467,59 @@
         <v>3</v>
       </c>
       <c r="G239" t="s">
+        <v>538</v>
+      </c>
+      <c r="K239" t="s">
+        <v>533</v>
+      </c>
+      <c r="L239" t="s">
+        <v>874</v>
+      </c>
+      <c r="M239" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>539</v>
+      </c>
+      <c r="B240" t="s">
+        <v>804</v>
+      </c>
+      <c r="C240" t="s">
+        <v>813</v>
+      </c>
+      <c r="D240" t="s">
+        <v>804</v>
+      </c>
+      <c r="E240" t="s">
+        <v>813</v>
+      </c>
+      <c r="F240" t="s">
+        <v>3</v>
+      </c>
+      <c r="G240" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="K240" t="s">
+        <v>535</v>
+      </c>
+      <c r="L240" t="s">
+        <v>876</v>
+      </c>
+      <c r="M240" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>541</v>
       </c>
-      <c r="B240" t="s">
-        <v>807</v>
-      </c>
-      <c r="C240" t="s">
-        <v>512</v>
-      </c>
-      <c r="D240" t="s">
-        <v>807</v>
-      </c>
-      <c r="E240" t="s">
-        <v>816</v>
-      </c>
-      <c r="F240" t="s">
-        <v>3</v>
-      </c>
-      <c r="G240" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>543</v>
-      </c>
       <c r="B241" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C241" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="D241" t="s">
         <v>189</v>
@@ -7971,35 +9528,35 @@
         <v>3</v>
       </c>
       <c r="G241" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B242" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C242" t="s">
-        <v>525</v>
+        <v>813</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E242" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F242" t="s">
         <v>3</v>
       </c>
       <c r="G242" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B243" t="s">
         <v>16</v>
@@ -8008,7 +9565,7 @@
         <v>352</v>
       </c>
       <c r="D243" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E243" t="s">
         <v>352</v>
@@ -8017,35 +9574,35 @@
         <v>3</v>
       </c>
       <c r="G243" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>547</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+      <c r="D244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244" t="s">
+        <v>824</v>
+      </c>
+      <c r="F244" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" t="s">
         <v>549</v>
       </c>
-      <c r="B244" t="s">
-        <v>19</v>
-      </c>
-      <c r="C244" t="s">
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>550</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E244" t="s">
-        <v>827</v>
-      </c>
-      <c r="F244" t="s">
-        <v>3</v>
-      </c>
-      <c r="G244" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>552</v>
       </c>
       <c r="B245" t="s">
         <v>23</v>
@@ -8060,12 +9617,21 @@
         <v>3</v>
       </c>
       <c r="G245" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="K245" t="s">
+        <v>550</v>
+      </c>
+      <c r="L245" t="s">
+        <v>877</v>
+      </c>
+      <c r="M245" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B246" t="s">
         <v>23</v>
@@ -8077,29 +9643,47 @@
         <v>3</v>
       </c>
       <c r="G246" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="K246" t="s">
+        <v>552</v>
+      </c>
+      <c r="L246" t="s">
+        <v>877</v>
+      </c>
+      <c r="M246" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B247" t="s">
         <v>23</v>
       </c>
       <c r="D247" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F247" t="s">
         <v>3</v>
       </c>
       <c r="G247" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="K247" t="s">
+        <v>554</v>
+      </c>
+      <c r="L247" t="s">
+        <v>877</v>
+      </c>
+      <c r="M247" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
@@ -8114,35 +9698,56 @@
         <v>3</v>
       </c>
       <c r="G248" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="K248" t="s">
+        <v>556</v>
+      </c>
+      <c r="L248" t="s">
+        <v>877</v>
+      </c>
+      <c r="M248" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B249" t="s">
         <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E249" t="s">
+        <v>23</v>
       </c>
       <c r="F249" t="s">
         <v>3</v>
       </c>
       <c r="G249" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="K249" t="s">
+        <v>560</v>
+      </c>
+      <c r="L249" t="s">
+        <v>878</v>
+      </c>
+      <c r="M249" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B250" t="s">
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D250" t="s">
         <v>262</v>
@@ -8154,18 +9759,27 @@
         <v>3</v>
       </c>
       <c r="G250" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="K250" t="s">
+        <v>562</v>
+      </c>
+      <c r="L250" t="s">
+        <v>878</v>
+      </c>
+      <c r="M250" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B251" t="s">
         <v>23</v>
       </c>
       <c r="C251" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D251" t="s">
         <v>16</v>
@@ -8174,38 +9788,56 @@
         <v>3</v>
       </c>
       <c r="G251" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="K251" t="s">
+        <v>564</v>
+      </c>
+      <c r="L251" t="s">
+        <v>878</v>
+      </c>
+      <c r="M251" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B252" t="s">
         <v>23</v>
       </c>
       <c r="C252" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D252" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F252" t="s">
         <v>3</v>
       </c>
       <c r="G252" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="K252" t="s">
+        <v>566</v>
+      </c>
+      <c r="L252" t="s">
+        <v>878</v>
+      </c>
+      <c r="M252" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B253" t="s">
         <v>23</v>
       </c>
       <c r="C253" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D253" t="s">
         <v>16</v>
@@ -8217,38 +9849,41 @@
         <v>3</v>
       </c>
       <c r="G253" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B254" t="s">
         <v>23</v>
       </c>
       <c r="C254" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D254" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E254" t="s">
+        <v>895</v>
       </c>
       <c r="F254" t="s">
         <v>3</v>
       </c>
       <c r="G254" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>570</v>
+      </c>
+      <c r="B255" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>572</v>
-      </c>
-      <c r="B255" t="s">
-        <v>19</v>
-      </c>
-      <c r="C255" t="s">
-        <v>573</v>
       </c>
       <c r="D255" t="s">
         <v>262</v>
@@ -8260,18 +9895,27 @@
         <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="K255" t="s">
+        <v>570</v>
+      </c>
+      <c r="L255" t="s">
+        <v>879</v>
+      </c>
+      <c r="M255" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B256" t="s">
         <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D256" t="s">
         <v>16</v>
@@ -8280,38 +9924,56 @@
         <v>3</v>
       </c>
       <c r="G256" t="s">
+        <v>574</v>
+      </c>
+      <c r="K256" t="s">
+        <v>573</v>
+      </c>
+      <c r="L256" t="s">
+        <v>879</v>
+      </c>
+      <c r="M256" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>575</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" t="s">
+        <v>571</v>
+      </c>
+      <c r="D257" t="s">
+        <v>806</v>
+      </c>
+      <c r="F257" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+      <c r="K257" t="s">
+        <v>575</v>
+      </c>
+      <c r="L257" t="s">
+        <v>879</v>
+      </c>
+      <c r="M257" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>577</v>
       </c>
-      <c r="B257" t="s">
-        <v>19</v>
-      </c>
-      <c r="C257" t="s">
-        <v>573</v>
-      </c>
-      <c r="D257" t="s">
-        <v>809</v>
-      </c>
-      <c r="F257" t="s">
-        <v>3</v>
-      </c>
-      <c r="G257" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>579</v>
-      </c>
       <c r="B258" t="s">
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D258" t="s">
         <v>16</v>
@@ -8323,38 +9985,50 @@
         <v>3</v>
       </c>
       <c r="G258" t="s">
+        <v>578</v>
+      </c>
+      <c r="K258" t="s">
+        <v>577</v>
+      </c>
+      <c r="L258" t="s">
+        <v>879</v>
+      </c>
+      <c r="M258" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>579</v>
+      </c>
+      <c r="B259" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" t="s">
+        <v>571</v>
+      </c>
+      <c r="D259" t="s">
+        <v>804</v>
+      </c>
+      <c r="E259" t="s">
+        <v>571</v>
+      </c>
+      <c r="F259" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>581</v>
       </c>
-      <c r="B259" t="s">
-        <v>19</v>
-      </c>
-      <c r="C259" t="s">
-        <v>573</v>
-      </c>
-      <c r="D259" t="s">
-        <v>807</v>
-      </c>
-      <c r="F259" t="s">
-        <v>3</v>
-      </c>
-      <c r="G259" t="s">
+      <c r="B260" t="s">
+        <v>19</v>
+      </c>
+      <c r="C260" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>583</v>
-      </c>
-      <c r="B260" t="s">
-        <v>19</v>
-      </c>
-      <c r="C260" t="s">
-        <v>584</v>
       </c>
       <c r="D260" t="s">
         <v>262</v>
@@ -8366,18 +10040,18 @@
         <v>3</v>
       </c>
       <c r="G260" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B261" t="s">
         <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D261" t="s">
         <v>189</v>
@@ -8386,18 +10060,18 @@
         <v>3</v>
       </c>
       <c r="G261" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C262" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D262" t="s">
         <v>179</v>
@@ -8406,21 +10080,21 @@
         <v>3</v>
       </c>
       <c r="G262" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J262" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C263" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D263" t="s">
         <v>74</v>
@@ -8432,15 +10106,15 @@
         <v>3</v>
       </c>
       <c r="G263" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J263" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B264" t="s">
         <v>239</v>
@@ -8455,12 +10129,21 @@
         <v>3</v>
       </c>
       <c r="G264" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="K264" t="s">
+        <v>590</v>
+      </c>
+      <c r="L264" t="s">
+        <v>880</v>
+      </c>
+      <c r="M264" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B265" t="s">
         <v>239</v>
@@ -8472,29 +10155,47 @@
         <v>3</v>
       </c>
       <c r="G265" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="K265" t="s">
+        <v>592</v>
+      </c>
+      <c r="L265" t="s">
+        <v>880</v>
+      </c>
+      <c r="M265" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B266" t="s">
         <v>239</v>
       </c>
       <c r="D266" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F266" t="s">
         <v>3</v>
       </c>
       <c r="G266" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="K266" t="s">
+        <v>594</v>
+      </c>
+      <c r="L266" t="s">
+        <v>880</v>
+      </c>
+      <c r="M266" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B267" t="s">
         <v>239</v>
@@ -8509,29 +10210,41 @@
         <v>3</v>
       </c>
       <c r="G267" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="K267" t="s">
+        <v>596</v>
+      </c>
+      <c r="L267" t="s">
+        <v>880</v>
+      </c>
+      <c r="M267" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B268" t="s">
         <v>239</v>
       </c>
       <c r="D268" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E268" t="s">
+        <v>239</v>
       </c>
       <c r="F268" t="s">
         <v>3</v>
       </c>
       <c r="G268" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B269" t="s">
         <v>242</v>
@@ -8546,12 +10259,21 @@
         <v>3</v>
       </c>
       <c r="G269" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+      <c r="K269" t="s">
+        <v>600</v>
+      </c>
+      <c r="L269" t="s">
+        <v>881</v>
+      </c>
+      <c r="M269" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B270" t="s">
         <v>242</v>
@@ -8563,29 +10285,47 @@
         <v>3</v>
       </c>
       <c r="G270" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="K270" t="s">
+        <v>602</v>
+      </c>
+      <c r="L270" t="s">
+        <v>881</v>
+      </c>
+      <c r="M270" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B271" t="s">
         <v>242</v>
       </c>
       <c r="D271" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F271" t="s">
         <v>3</v>
       </c>
       <c r="G271" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="K271" t="s">
+        <v>604</v>
+      </c>
+      <c r="L271" t="s">
+        <v>881</v>
+      </c>
+      <c r="M271" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B272" t="s">
         <v>242</v>
@@ -8600,115 +10340,130 @@
         <v>3</v>
       </c>
       <c r="G272" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+      <c r="K272" t="s">
+        <v>606</v>
+      </c>
+      <c r="L272" t="s">
+        <v>881</v>
+      </c>
+      <c r="M272" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B273" t="s">
         <v>242</v>
       </c>
       <c r="D273" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E273" t="s">
+        <v>242</v>
       </c>
       <c r="F273" t="s">
         <v>3</v>
       </c>
       <c r="G273" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>610</v>
+      </c>
+      <c r="B274" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" t="s">
+        <v>804</v>
+      </c>
+      <c r="E274" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274" t="s">
+        <v>3</v>
+      </c>
+      <c r="G274" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>612</v>
       </c>
-      <c r="B274" t="s">
-        <v>19</v>
-      </c>
-      <c r="D274" t="s">
-        <v>807</v>
-      </c>
-      <c r="F274" t="s">
-        <v>3</v>
-      </c>
-      <c r="G274" t="s">
+      <c r="B275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="D275" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" t="s">
+        <v>443</v>
+      </c>
+      <c r="F275" t="s">
+        <v>3</v>
+      </c>
+      <c r="G275" t="s">
         <v>614</v>
       </c>
-      <c r="B275" t="s">
-        <v>19</v>
-      </c>
-      <c r="C275" t="s">
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>615</v>
       </c>
-      <c r="D275" t="s">
-        <v>19</v>
-      </c>
-      <c r="E275" t="s">
-        <v>444</v>
-      </c>
-      <c r="F275" t="s">
-        <v>3</v>
-      </c>
-      <c r="G275" t="s">
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" t="s">
+        <v>613</v>
+      </c>
+      <c r="D276" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" t="s">
+        <v>446</v>
+      </c>
+      <c r="F276" t="s">
+        <v>3</v>
+      </c>
+      <c r="G276" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>617</v>
       </c>
-      <c r="B276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C276" t="s">
-        <v>615</v>
-      </c>
-      <c r="D276" t="s">
-        <v>19</v>
-      </c>
-      <c r="E276" t="s">
-        <v>447</v>
-      </c>
-      <c r="F276" t="s">
-        <v>3</v>
-      </c>
-      <c r="G276" t="s">
+      <c r="B277" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277" t="s">
+        <v>613</v>
+      </c>
+      <c r="D277" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" t="s">
+        <v>449</v>
+      </c>
+      <c r="F277" t="s">
+        <v>3</v>
+      </c>
+      <c r="G277" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>619</v>
-      </c>
-      <c r="B277" t="s">
-        <v>19</v>
-      </c>
-      <c r="C277" t="s">
-        <v>615</v>
-      </c>
-      <c r="D277" t="s">
-        <v>19</v>
-      </c>
-      <c r="E277" t="s">
-        <v>450</v>
-      </c>
-      <c r="F277" t="s">
-        <v>3</v>
-      </c>
-      <c r="G277" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>621</v>
       </c>
       <c r="B278" t="s">
         <v>74</v>
@@ -8720,21 +10475,21 @@
         <v>19</v>
       </c>
       <c r="E278" t="s">
+        <v>620</v>
+      </c>
+      <c r="F278" t="s">
+        <v>3</v>
+      </c>
+      <c r="G278" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>622</v>
       </c>
-      <c r="F278" t="s">
-        <v>3</v>
-      </c>
-      <c r="G278" t="s">
+      <c r="B279" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>624</v>
-      </c>
-      <c r="B279" t="s">
-        <v>625</v>
       </c>
       <c r="D279" t="s">
         <v>262</v>
@@ -8746,15 +10501,24 @@
         <v>3</v>
       </c>
       <c r="G279" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+      <c r="K279" t="s">
+        <v>622</v>
+      </c>
+      <c r="L279" t="s">
+        <v>882</v>
+      </c>
+      <c r="M279" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B280" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
@@ -8763,32 +10527,50 @@
         <v>3</v>
       </c>
       <c r="G280" t="s">
+        <v>626</v>
+      </c>
+      <c r="K280" t="s">
+        <v>625</v>
+      </c>
+      <c r="L280" t="s">
+        <v>882</v>
+      </c>
+      <c r="M280" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>627</v>
+      </c>
+      <c r="B281" t="s">
+        <v>623</v>
+      </c>
+      <c r="D281" t="s">
+        <v>806</v>
+      </c>
+      <c r="F281" t="s">
+        <v>3</v>
+      </c>
+      <c r="G281" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="K281" t="s">
+        <v>627</v>
+      </c>
+      <c r="L281" t="s">
+        <v>882</v>
+      </c>
+      <c r="M281" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>629</v>
       </c>
-      <c r="B281" t="s">
-        <v>625</v>
-      </c>
-      <c r="D281" t="s">
-        <v>809</v>
-      </c>
-      <c r="F281" t="s">
-        <v>3</v>
-      </c>
-      <c r="G281" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>631</v>
-      </c>
       <c r="B282" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D282" t="s">
         <v>16</v>
@@ -8800,118 +10582,133 @@
         <v>3</v>
       </c>
       <c r="G282" t="s">
+        <v>630</v>
+      </c>
+      <c r="K282" t="s">
+        <v>629</v>
+      </c>
+      <c r="L282" t="s">
+        <v>882</v>
+      </c>
+      <c r="M282" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>631</v>
+      </c>
+      <c r="B283" t="s">
+        <v>623</v>
+      </c>
+      <c r="D283" t="s">
+        <v>804</v>
+      </c>
+      <c r="E283" t="s">
+        <v>623</v>
+      </c>
+      <c r="F283" t="s">
+        <v>3</v>
+      </c>
+      <c r="G283" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>633</v>
       </c>
-      <c r="B283" t="s">
-        <v>625</v>
-      </c>
-      <c r="D283" t="s">
+      <c r="B284" t="s">
+        <v>623</v>
+      </c>
+      <c r="D284" t="s">
         <v>634</v>
       </c>
-      <c r="F283" t="s">
-        <v>3</v>
-      </c>
-      <c r="G283" t="s">
+      <c r="F284" t="s">
+        <v>3</v>
+      </c>
+      <c r="G284" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
         <v>636</v>
       </c>
-      <c r="B284" t="s">
-        <v>625</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="B285" t="s">
+        <v>623</v>
+      </c>
+      <c r="D285" t="s">
+        <v>623</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F285" t="s">
+        <v>3</v>
+      </c>
+      <c r="G285" t="s">
         <v>637</v>
       </c>
-      <c r="F284" t="s">
-        <v>3</v>
-      </c>
-      <c r="G284" t="s">
+      <c r="J285" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" t="s">
         <v>639</v>
       </c>
-      <c r="B285" t="s">
-        <v>625</v>
-      </c>
-      <c r="D285" t="s">
-        <v>625</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F285" t="s">
-        <v>3</v>
-      </c>
-      <c r="G285" t="s">
+      <c r="D286" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" t="s">
+        <v>446</v>
+      </c>
+      <c r="F286" t="s">
+        <v>3</v>
+      </c>
+      <c r="G286" t="s">
         <v>640</v>
       </c>
-      <c r="J285" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>641</v>
       </c>
-      <c r="B286" t="s">
-        <v>19</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287" t="s">
         <v>642</v>
       </c>
-      <c r="D286" t="s">
-        <v>19</v>
-      </c>
-      <c r="E286" t="s">
-        <v>447</v>
-      </c>
-      <c r="F286" t="s">
-        <v>3</v>
-      </c>
-      <c r="G286" t="s">
+      <c r="D287" t="s">
+        <v>804</v>
+      </c>
+      <c r="E287" t="s">
+        <v>642</v>
+      </c>
+      <c r="F287" t="s">
+        <v>3</v>
+      </c>
+      <c r="G287" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>644</v>
       </c>
-      <c r="B287" t="s">
-        <v>19</v>
-      </c>
-      <c r="C287" t="s">
+      <c r="B288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C288" t="s">
         <v>645</v>
-      </c>
-      <c r="D287" t="s">
-        <v>807</v>
-      </c>
-      <c r="F287" t="s">
-        <v>3</v>
-      </c>
-      <c r="G287" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>647</v>
-      </c>
-      <c r="B288" t="s">
-        <v>19</v>
-      </c>
-      <c r="C288" t="s">
-        <v>648</v>
       </c>
       <c r="D288" t="s">
         <v>262</v>
@@ -8923,18 +10720,27 @@
         <v>3</v>
       </c>
       <c r="G288" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+      <c r="K288" t="s">
+        <v>644</v>
+      </c>
+      <c r="L288" t="s">
+        <v>883</v>
+      </c>
+      <c r="M288" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B289" t="s">
         <v>19</v>
       </c>
       <c r="C289" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D289" t="s">
         <v>16</v>
@@ -8943,38 +10749,56 @@
         <v>3</v>
       </c>
       <c r="G289" t="s">
+        <v>648</v>
+      </c>
+      <c r="K289" t="s">
+        <v>647</v>
+      </c>
+      <c r="L289" t="s">
+        <v>883</v>
+      </c>
+      <c r="M289" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>649</v>
+      </c>
+      <c r="B290" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290" t="s">
+        <v>645</v>
+      </c>
+      <c r="D290" t="s">
+        <v>806</v>
+      </c>
+      <c r="F290" t="s">
+        <v>3</v>
+      </c>
+      <c r="G290" t="s">
+        <v>650</v>
+      </c>
+      <c r="K290" t="s">
+        <v>649</v>
+      </c>
+      <c r="L290" t="s">
+        <v>883</v>
+      </c>
+      <c r="M290" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>652</v>
-      </c>
-      <c r="B290" t="s">
-        <v>19</v>
-      </c>
-      <c r="C290" t="s">
-        <v>648</v>
-      </c>
-      <c r="D290" t="s">
-        <v>809</v>
-      </c>
-      <c r="F290" t="s">
-        <v>3</v>
-      </c>
-      <c r="G290" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>654</v>
-      </c>
       <c r="B291" t="s">
         <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D291" t="s">
         <v>16</v>
@@ -8986,18 +10810,27 @@
         <v>3</v>
       </c>
       <c r="G291" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+      <c r="K291" t="s">
+        <v>651</v>
+      </c>
+      <c r="L291" t="s">
+        <v>883</v>
+      </c>
+      <c r="M291" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B292" t="s">
         <v>19</v>
       </c>
       <c r="C292" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D292" t="s">
         <v>189</v>
@@ -9006,37 +10839,60 @@
         <v>3</v>
       </c>
       <c r="G292" t="s">
+        <v>654</v>
+      </c>
+      <c r="K292" t="s">
+        <v>653</v>
+      </c>
+      <c r="L292" t="s">
+        <v>883</v>
+      </c>
+      <c r="M292" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>655</v>
+      </c>
+      <c r="B293" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293" t="s">
+        <v>645</v>
+      </c>
+      <c r="D293" t="s">
+        <v>804</v>
+      </c>
+      <c r="E293" t="s">
+        <v>645</v>
+      </c>
+      <c r="F293" t="s">
+        <v>3</v>
+      </c>
+      <c r="G293" t="s">
+        <v>656</v>
+      </c>
+      <c r="K293" t="s">
+        <v>659</v>
+      </c>
+      <c r="L293" t="s">
+        <v>885</v>
+      </c>
+      <c r="M293" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>658</v>
-      </c>
-      <c r="B293" t="s">
-        <v>19</v>
-      </c>
-      <c r="C293" t="s">
-        <v>648</v>
-      </c>
-      <c r="D293" t="s">
-        <v>807</v>
-      </c>
-      <c r="F293" t="s">
-        <v>3</v>
-      </c>
-      <c r="G293" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>660</v>
-      </c>
       <c r="B294" t="s">
-        <v>807</v>
-      </c>
-      <c r="C294" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="C294" t="s">
+        <v>645</v>
+      </c>
       <c r="D294" t="s">
         <v>189</v>
       </c>
@@ -9044,18 +10900,27 @@
         <v>3</v>
       </c>
       <c r="G294" t="s">
+        <v>658</v>
+      </c>
+      <c r="K294" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L294" t="s">
+        <v>885</v>
+      </c>
+      <c r="M294" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B295" t="s">
         <v>19</v>
       </c>
       <c r="C295" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D295" t="s">
         <v>262</v>
@@ -9067,18 +10932,27 @@
         <v>3</v>
       </c>
       <c r="G295" t="s">
+        <v>660</v>
+      </c>
+      <c r="K295" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L295" t="s">
+        <v>885</v>
+      </c>
+      <c r="M295" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B296" t="s">
         <v>19</v>
       </c>
       <c r="C296" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D296" t="s">
         <v>16</v>
@@ -9087,38 +10961,47 @@
         <v>3</v>
       </c>
       <c r="G296" t="s">
+        <v>662</v>
+      </c>
+      <c r="K296" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L296" t="s">
+        <v>885</v>
+      </c>
+      <c r="M296" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B297" t="s">
         <v>19</v>
       </c>
       <c r="C297" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D297" t="s">
+        <v>806</v>
+      </c>
+      <c r="F297" t="s">
+        <v>3</v>
+      </c>
+      <c r="G297" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>665</v>
+      </c>
+      <c r="B298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298" t="s">
         <v>809</v>
-      </c>
-      <c r="F297" t="s">
-        <v>3</v>
-      </c>
-      <c r="G297" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>668</v>
-      </c>
-      <c r="B298" t="s">
-        <v>19</v>
-      </c>
-      <c r="C298" t="s">
-        <v>812</v>
       </c>
       <c r="D298" t="s">
         <v>16</v>
@@ -9130,38 +11013,41 @@
         <v>3</v>
       </c>
       <c r="G298" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>667</v>
+      </c>
+      <c r="B299" t="s">
+        <v>19</v>
+      </c>
+      <c r="C299" t="s">
+        <v>809</v>
+      </c>
+      <c r="D299" t="s">
+        <v>804</v>
+      </c>
+      <c r="E299" t="s">
+        <v>809</v>
+      </c>
+      <c r="F299" t="s">
+        <v>3</v>
+      </c>
+      <c r="G299" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" t="s">
         <v>670</v>
-      </c>
-      <c r="B299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C299" t="s">
-        <v>812</v>
-      </c>
-      <c r="D299" t="s">
-        <v>807</v>
-      </c>
-      <c r="F299" t="s">
-        <v>3</v>
-      </c>
-      <c r="G299" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>672</v>
-      </c>
-      <c r="B300" t="s">
-        <v>19</v>
-      </c>
-      <c r="C300" t="s">
-        <v>673</v>
       </c>
       <c r="D300" t="s">
         <v>262</v>
@@ -9173,18 +11059,27 @@
         <v>3</v>
       </c>
       <c r="G300" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+      <c r="K300" t="s">
+        <v>669</v>
+      </c>
+      <c r="L300" t="s">
+        <v>886</v>
+      </c>
+      <c r="M300" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B301" t="s">
         <v>19</v>
       </c>
       <c r="C301" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D301" t="s">
         <v>16</v>
@@ -9193,38 +11088,56 @@
         <v>3</v>
       </c>
       <c r="G301" t="s">
+        <v>673</v>
+      </c>
+      <c r="K301" t="s">
+        <v>672</v>
+      </c>
+      <c r="L301" t="s">
+        <v>886</v>
+      </c>
+      <c r="M301" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>674</v>
+      </c>
+      <c r="B302" t="s">
+        <v>19</v>
+      </c>
+      <c r="C302" t="s">
+        <v>670</v>
+      </c>
+      <c r="D302" t="s">
+        <v>806</v>
+      </c>
+      <c r="F302" t="s">
+        <v>3</v>
+      </c>
+      <c r="G302" t="s">
+        <v>675</v>
+      </c>
+      <c r="K302" t="s">
+        <v>674</v>
+      </c>
+      <c r="L302" t="s">
+        <v>886</v>
+      </c>
+      <c r="M302" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>677</v>
-      </c>
-      <c r="B302" t="s">
-        <v>19</v>
-      </c>
-      <c r="C302" t="s">
-        <v>673</v>
-      </c>
-      <c r="D302" t="s">
-        <v>809</v>
-      </c>
-      <c r="F302" t="s">
-        <v>3</v>
-      </c>
-      <c r="G302" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>679</v>
-      </c>
       <c r="B303" t="s">
         <v>19</v>
       </c>
       <c r="C303" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D303" t="s">
         <v>16</v>
@@ -9236,18 +11149,27 @@
         <v>3</v>
       </c>
       <c r="G303" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="K303" t="s">
+        <v>676</v>
+      </c>
+      <c r="L303" t="s">
+        <v>886</v>
+      </c>
+      <c r="M303" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B304" t="s">
         <v>19</v>
       </c>
       <c r="C304" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D304" t="s">
         <v>189</v>
@@ -9256,35 +11178,50 @@
         <v>3</v>
       </c>
       <c r="G304" t="s">
+        <v>679</v>
+      </c>
+      <c r="K304" t="s">
+        <v>678</v>
+      </c>
+      <c r="L304" t="s">
+        <v>886</v>
+      </c>
+      <c r="M304" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>680</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" t="s">
+        <v>670</v>
+      </c>
+      <c r="D305" t="s">
+        <v>804</v>
+      </c>
+      <c r="E305" t="s">
+        <v>670</v>
+      </c>
+      <c r="F305" t="s">
+        <v>3</v>
+      </c>
+      <c r="G305" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>683</v>
-      </c>
-      <c r="B305" t="s">
-        <v>19</v>
-      </c>
-      <c r="C305" t="s">
-        <v>673</v>
-      </c>
-      <c r="D305" t="s">
-        <v>807</v>
-      </c>
-      <c r="F305" t="s">
-        <v>3</v>
-      </c>
-      <c r="G305" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>685</v>
-      </c>
       <c r="B306" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="C306" t="s">
+        <v>670</v>
       </c>
       <c r="D306" t="s">
         <v>189</v>
@@ -9293,12 +11230,12 @@
         <v>3</v>
       </c>
       <c r="G306" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B307" t="s">
         <v>74</v>
@@ -9313,12 +11250,12 @@
         <v>3</v>
       </c>
       <c r="G307" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B308" t="s">
         <v>74</v>
@@ -9330,21 +11267,21 @@
         <v>171</v>
       </c>
       <c r="E308" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F308" t="s">
         <v>3</v>
       </c>
       <c r="G308" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J308" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B309" t="s">
         <v>19</v>
@@ -9362,15 +11299,15 @@
         <v>3</v>
       </c>
       <c r="G309" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D310" t="s">
         <v>262</v>
@@ -9382,15 +11319,24 @@
         <v>3</v>
       </c>
       <c r="G310" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+      <c r="K310" t="s">
+        <v>690</v>
+      </c>
+      <c r="L310" t="s">
+        <v>888</v>
+      </c>
+      <c r="M310" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D311" t="s">
         <v>16</v>
@@ -9399,32 +11345,50 @@
         <v>3</v>
       </c>
       <c r="G311" t="s">
+        <v>693</v>
+      </c>
+      <c r="K311" t="s">
+        <v>692</v>
+      </c>
+      <c r="L311" t="s">
+        <v>888</v>
+      </c>
+      <c r="M311" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>694</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D312" t="s">
+        <v>806</v>
+      </c>
+      <c r="F312" t="s">
+        <v>3</v>
+      </c>
+      <c r="G312" t="s">
+        <v>695</v>
+      </c>
+      <c r="K312" t="s">
+        <v>694</v>
+      </c>
+      <c r="L312" t="s">
+        <v>888</v>
+      </c>
+      <c r="M312" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>697</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D312" t="s">
-        <v>809</v>
-      </c>
-      <c r="F312" t="s">
-        <v>3</v>
-      </c>
-      <c r="G312" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>699</v>
-      </c>
       <c r="B313" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D313" t="s">
         <v>16</v>
@@ -9436,32 +11400,53 @@
         <v>3</v>
       </c>
       <c r="G313" t="s">
+        <v>697</v>
+      </c>
+      <c r="K313" t="s">
+        <v>696</v>
+      </c>
+      <c r="L313" t="s">
+        <v>888</v>
+      </c>
+      <c r="M313" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>698</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D314" t="s">
+        <v>804</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F314" t="s">
+        <v>3</v>
+      </c>
+      <c r="G314" t="s">
+        <v>699</v>
+      </c>
+      <c r="K314" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+      <c r="L314" t="s">
+        <v>889</v>
+      </c>
+      <c r="M314" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>700</v>
+      </c>
+      <c r="B315" t="s">
         <v>701</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D314" t="s">
-        <v>807</v>
-      </c>
-      <c r="F314" t="s">
-        <v>3</v>
-      </c>
-      <c r="G314" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>703</v>
-      </c>
-      <c r="B315" t="s">
-        <v>704</v>
       </c>
       <c r="D315" t="s">
         <v>262</v>
@@ -9473,15 +11458,24 @@
         <v>3</v>
       </c>
       <c r="G315" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+      <c r="K315" t="s">
+        <v>703</v>
+      </c>
+      <c r="L315" t="s">
+        <v>889</v>
+      </c>
+      <c r="M315" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B316" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D316" t="s">
         <v>16</v>
@@ -9490,32 +11484,50 @@
         <v>3</v>
       </c>
       <c r="G316" t="s">
+        <v>704</v>
+      </c>
+      <c r="K316" t="s">
+        <v>705</v>
+      </c>
+      <c r="L316" t="s">
+        <v>889</v>
+      </c>
+      <c r="M316" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>705</v>
+      </c>
+      <c r="B317" t="s">
+        <v>701</v>
+      </c>
+      <c r="D317" t="s">
+        <v>806</v>
+      </c>
+      <c r="F317" t="s">
+        <v>3</v>
+      </c>
+      <c r="G317" t="s">
+        <v>706</v>
+      </c>
+      <c r="K317" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>708</v>
-      </c>
-      <c r="B317" t="s">
-        <v>704</v>
-      </c>
-      <c r="D317" t="s">
-        <v>809</v>
-      </c>
-      <c r="F317" t="s">
-        <v>3</v>
-      </c>
-      <c r="G317" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L317" t="s">
+        <v>889</v>
+      </c>
+      <c r="M317" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B318" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D318" t="s">
         <v>16</v>
@@ -9527,52 +11539,55 @@
         <v>3</v>
       </c>
       <c r="G318" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>709</v>
+      </c>
+      <c r="B319" t="s">
+        <v>701</v>
+      </c>
+      <c r="D319" t="s">
+        <v>804</v>
+      </c>
+      <c r="E319" t="s">
+        <v>701</v>
+      </c>
+      <c r="F319" t="s">
+        <v>3</v>
+      </c>
+      <c r="G319" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+      <c r="B320" t="s">
+        <v>701</v>
+      </c>
+      <c r="D320" t="s">
+        <v>19</v>
+      </c>
+      <c r="F320" t="s">
+        <v>3</v>
+      </c>
+      <c r="G320" t="s">
         <v>712</v>
       </c>
-      <c r="B319" t="s">
-        <v>704</v>
-      </c>
-      <c r="D319" t="s">
-        <v>807</v>
-      </c>
-      <c r="F319" t="s">
-        <v>3</v>
-      </c>
-      <c r="G319" t="s">
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+      <c r="B321" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" t="s">
         <v>714</v>
-      </c>
-      <c r="B320" t="s">
-        <v>704</v>
-      </c>
-      <c r="D320" t="s">
-        <v>19</v>
-      </c>
-      <c r="F320" t="s">
-        <v>3</v>
-      </c>
-      <c r="G320" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>716</v>
-      </c>
-      <c r="B321" t="s">
-        <v>19</v>
-      </c>
-      <c r="C321" t="s">
-        <v>717</v>
       </c>
       <c r="D321" t="s">
         <v>262</v>
@@ -9584,18 +11599,27 @@
         <v>3</v>
       </c>
       <c r="G321" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+      <c r="K321" t="s">
+        <v>713</v>
+      </c>
+      <c r="L321" t="s">
+        <v>890</v>
+      </c>
+      <c r="M321" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B322" t="s">
         <v>19</v>
       </c>
       <c r="C322" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D322" t="s">
         <v>16</v>
@@ -9604,38 +11628,56 @@
         <v>3</v>
       </c>
       <c r="G322" t="s">
+        <v>717</v>
+      </c>
+      <c r="K322" t="s">
+        <v>716</v>
+      </c>
+      <c r="L322" t="s">
+        <v>890</v>
+      </c>
+      <c r="M322" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>718</v>
+      </c>
+      <c r="B323" t="s">
+        <v>19</v>
+      </c>
+      <c r="C323" t="s">
+        <v>714</v>
+      </c>
+      <c r="D323" t="s">
+        <v>806</v>
+      </c>
+      <c r="F323" t="s">
+        <v>3</v>
+      </c>
+      <c r="G323" t="s">
+        <v>719</v>
+      </c>
+      <c r="K323" t="s">
+        <v>718</v>
+      </c>
+      <c r="L323" t="s">
+        <v>890</v>
+      </c>
+      <c r="M323" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>721</v>
-      </c>
-      <c r="B323" t="s">
-        <v>19</v>
-      </c>
-      <c r="C323" t="s">
-        <v>717</v>
-      </c>
-      <c r="D323" t="s">
-        <v>809</v>
-      </c>
-      <c r="F323" t="s">
-        <v>3</v>
-      </c>
-      <c r="G323" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>723</v>
-      </c>
       <c r="B324" t="s">
         <v>19</v>
       </c>
       <c r="C324" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D324" t="s">
         <v>16</v>
@@ -9647,18 +11689,27 @@
         <v>3</v>
       </c>
       <c r="G324" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+      <c r="K324" t="s">
+        <v>720</v>
+      </c>
+      <c r="L324" t="s">
+        <v>890</v>
+      </c>
+      <c r="M324" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B325" t="s">
         <v>19</v>
       </c>
       <c r="C325" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D325" t="s">
         <v>189</v>
@@ -9667,35 +11718,50 @@
         <v>3</v>
       </c>
       <c r="G325" t="s">
+        <v>723</v>
+      </c>
+      <c r="K325" t="s">
+        <v>722</v>
+      </c>
+      <c r="L325" t="s">
+        <v>890</v>
+      </c>
+      <c r="M325" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>724</v>
+      </c>
+      <c r="B326" t="s">
+        <v>19</v>
+      </c>
+      <c r="C326" t="s">
+        <v>714</v>
+      </c>
+      <c r="D326" t="s">
+        <v>804</v>
+      </c>
+      <c r="E326" t="s">
+        <v>714</v>
+      </c>
+      <c r="F326" t="s">
+        <v>3</v>
+      </c>
+      <c r="G326" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>727</v>
-      </c>
-      <c r="B326" t="s">
-        <v>19</v>
-      </c>
-      <c r="C326" t="s">
-        <v>717</v>
-      </c>
-      <c r="D326" t="s">
-        <v>807</v>
-      </c>
-      <c r="F326" t="s">
-        <v>3</v>
-      </c>
-      <c r="G326" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>729</v>
-      </c>
       <c r="B327" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="C327" t="s">
+        <v>714</v>
       </c>
       <c r="D327" t="s">
         <v>189</v>
@@ -9704,35 +11770,38 @@
         <v>3</v>
       </c>
       <c r="G327" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B328" t="s">
         <v>58</v>
       </c>
       <c r="D328" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E328" t="s">
+        <v>58</v>
       </c>
       <c r="F328" t="s">
         <v>3</v>
       </c>
       <c r="G328" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B329" t="s">
         <v>19</v>
       </c>
       <c r="C329" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D329" t="s">
         <v>262</v>
@@ -9744,18 +11813,27 @@
         <v>3</v>
       </c>
       <c r="G329" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+      <c r="K329" t="s">
+        <v>730</v>
+      </c>
+      <c r="L329" t="s">
+        <v>892</v>
+      </c>
+      <c r="M329" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B330" t="s">
         <v>19</v>
       </c>
       <c r="C330" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D330" t="s">
         <v>16</v>
@@ -9764,38 +11842,56 @@
         <v>3</v>
       </c>
       <c r="G330" t="s">
+        <v>733</v>
+      </c>
+      <c r="K330" t="s">
+        <v>732</v>
+      </c>
+      <c r="L330" t="s">
+        <v>892</v>
+      </c>
+      <c r="M330" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>734</v>
+      </c>
+      <c r="B331" t="s">
+        <v>19</v>
+      </c>
+      <c r="C331" t="s">
+        <v>815</v>
+      </c>
+      <c r="D331" t="s">
+        <v>806</v>
+      </c>
+      <c r="F331" t="s">
+        <v>3</v>
+      </c>
+      <c r="G331" t="s">
+        <v>735</v>
+      </c>
+      <c r="K331" t="s">
+        <v>734</v>
+      </c>
+      <c r="L331" t="s">
+        <v>892</v>
+      </c>
+      <c r="M331" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>737</v>
-      </c>
-      <c r="B331" t="s">
-        <v>19</v>
-      </c>
-      <c r="C331" t="s">
-        <v>818</v>
-      </c>
-      <c r="D331" t="s">
-        <v>809</v>
-      </c>
-      <c r="F331" t="s">
-        <v>3</v>
-      </c>
-      <c r="G331" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>739</v>
-      </c>
       <c r="B332" t="s">
         <v>19</v>
       </c>
       <c r="C332" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D332" t="s">
         <v>16</v>
@@ -9807,121 +11903,133 @@
         <v>3</v>
       </c>
       <c r="G332" t="s">
+        <v>737</v>
+      </c>
+      <c r="K332" t="s">
+        <v>736</v>
+      </c>
+      <c r="L332" t="s">
+        <v>892</v>
+      </c>
+      <c r="M332" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>738</v>
+      </c>
+      <c r="B333" t="s">
+        <v>19</v>
+      </c>
+      <c r="C333" t="s">
+        <v>815</v>
+      </c>
+      <c r="D333" t="s">
+        <v>804</v>
+      </c>
+      <c r="F333" t="s">
+        <v>3</v>
+      </c>
+      <c r="G333" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+      <c r="B334" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" t="s">
         <v>741</v>
       </c>
-      <c r="B333" t="s">
-        <v>19</v>
-      </c>
-      <c r="C333" t="s">
-        <v>818</v>
-      </c>
-      <c r="D333" t="s">
-        <v>807</v>
-      </c>
-      <c r="F333" t="s">
-        <v>3</v>
-      </c>
-      <c r="G333" t="s">
+      <c r="D334" t="s">
+        <v>19</v>
+      </c>
+      <c r="E334" t="s">
+        <v>443</v>
+      </c>
+      <c r="F334" t="s">
+        <v>3</v>
+      </c>
+      <c r="G334" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
         <v>743</v>
       </c>
-      <c r="B334" t="s">
-        <v>19</v>
-      </c>
-      <c r="C334" t="s">
+      <c r="B335" t="s">
+        <v>19</v>
+      </c>
+      <c r="C335" t="s">
+        <v>741</v>
+      </c>
+      <c r="D335" t="s">
+        <v>19</v>
+      </c>
+      <c r="E335" t="s">
+        <v>446</v>
+      </c>
+      <c r="F335" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" t="s">
         <v>744</v>
       </c>
-      <c r="D334" t="s">
-        <v>19</v>
-      </c>
-      <c r="E334" t="s">
-        <v>444</v>
-      </c>
-      <c r="F334" t="s">
-        <v>3</v>
-      </c>
-      <c r="G334" t="s">
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+      <c r="B336" t="s">
+        <v>19</v>
+      </c>
+      <c r="C336" t="s">
+        <v>741</v>
+      </c>
+      <c r="D336" t="s">
+        <v>19</v>
+      </c>
+      <c r="E336" t="s">
+        <v>449</v>
+      </c>
+      <c r="F336" t="s">
+        <v>3</v>
+      </c>
+      <c r="G336" t="s">
         <v>746</v>
       </c>
-      <c r="B335" t="s">
-        <v>19</v>
-      </c>
-      <c r="C335" t="s">
-        <v>744</v>
-      </c>
-      <c r="D335" t="s">
-        <v>19</v>
-      </c>
-      <c r="E335" t="s">
-        <v>447</v>
-      </c>
-      <c r="F335" t="s">
-        <v>3</v>
-      </c>
-      <c r="G335" t="s">
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>747</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>748</v>
-      </c>
-      <c r="B336" t="s">
-        <v>19</v>
-      </c>
-      <c r="C336" t="s">
-        <v>744</v>
-      </c>
-      <c r="D336" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336" t="s">
-        <v>450</v>
-      </c>
-      <c r="F336" t="s">
-        <v>3</v>
-      </c>
-      <c r="G336" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>750</v>
       </c>
       <c r="B337" t="s">
         <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D337" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E337" t="s">
+        <v>748</v>
       </c>
       <c r="F337" t="s">
         <v>3</v>
       </c>
       <c r="G337" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>196</v>
@@ -9933,29 +12041,29 @@
         <v>3</v>
       </c>
       <c r="G338" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D339" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F339" t="s">
         <v>3</v>
       </c>
       <c r="G339" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>196</v>
@@ -9970,12 +12078,12 @@
         <v>3</v>
       </c>
       <c r="G340" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B341" t="s">
         <v>74</v>
@@ -9993,41 +12101,44 @@
         <v>8</v>
       </c>
       <c r="G341" t="s">
+        <v>757</v>
+      </c>
+      <c r="H341" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>759</v>
+      </c>
+      <c r="B342" t="s">
+        <v>19</v>
+      </c>
+      <c r="C342" t="s">
+        <v>810</v>
+      </c>
+      <c r="D342" t="s">
+        <v>804</v>
+      </c>
+      <c r="E342" t="s">
+        <v>810</v>
+      </c>
+      <c r="F342" t="s">
+        <v>3</v>
+      </c>
+      <c r="G342" t="s">
         <v>760</v>
       </c>
-      <c r="H341" t="s">
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+      <c r="B343" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" t="s">
         <v>762</v>
-      </c>
-      <c r="B342" t="s">
-        <v>19</v>
-      </c>
-      <c r="C342" t="s">
-        <v>813</v>
-      </c>
-      <c r="D342" t="s">
-        <v>807</v>
-      </c>
-      <c r="F342" t="s">
-        <v>3</v>
-      </c>
-      <c r="G342" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>764</v>
-      </c>
-      <c r="B343" t="s">
-        <v>19</v>
-      </c>
-      <c r="C343" t="s">
-        <v>765</v>
       </c>
       <c r="D343" t="s">
         <v>262</v>
@@ -10039,18 +12150,27 @@
         <v>3</v>
       </c>
       <c r="G343" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+      <c r="K343" t="s">
+        <v>761</v>
+      </c>
+      <c r="L343" t="s">
+        <v>893</v>
+      </c>
+      <c r="M343" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B344" t="s">
         <v>19</v>
       </c>
       <c r="C344" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D344" t="s">
         <v>16</v>
@@ -10059,38 +12179,56 @@
         <v>3</v>
       </c>
       <c r="G344" t="s">
+        <v>765</v>
+      </c>
+      <c r="K344" t="s">
+        <v>764</v>
+      </c>
+      <c r="L344" t="s">
+        <v>893</v>
+      </c>
+      <c r="M344" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>766</v>
+      </c>
+      <c r="B345" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" t="s">
+        <v>762</v>
+      </c>
+      <c r="D345" t="s">
+        <v>806</v>
+      </c>
+      <c r="F345" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345" t="s">
+        <v>767</v>
+      </c>
+      <c r="K345" t="s">
+        <v>766</v>
+      </c>
+      <c r="L345" t="s">
+        <v>893</v>
+      </c>
+      <c r="M345" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>769</v>
-      </c>
-      <c r="B345" t="s">
-        <v>19</v>
-      </c>
-      <c r="C345" t="s">
-        <v>765</v>
-      </c>
-      <c r="D345" t="s">
-        <v>809</v>
-      </c>
-      <c r="F345" t="s">
-        <v>3</v>
-      </c>
-      <c r="G345" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>771</v>
-      </c>
       <c r="B346" t="s">
         <v>19</v>
       </c>
       <c r="C346" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
@@ -10102,55 +12240,67 @@
         <v>3</v>
       </c>
       <c r="G346" t="s">
+        <v>769</v>
+      </c>
+      <c r="K346" t="s">
+        <v>768</v>
+      </c>
+      <c r="L346" t="s">
+        <v>893</v>
+      </c>
+      <c r="M346" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>770</v>
+      </c>
+      <c r="B347" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" t="s">
+        <v>762</v>
+      </c>
+      <c r="D347" t="s">
+        <v>804</v>
+      </c>
+      <c r="E347" t="s">
+        <v>762</v>
+      </c>
+      <c r="F347" t="s">
+        <v>3</v>
+      </c>
+      <c r="G347" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+      <c r="B348" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348" t="s">
         <v>773</v>
       </c>
-      <c r="B347" t="s">
-        <v>19</v>
-      </c>
-      <c r="C347" t="s">
-        <v>765</v>
-      </c>
-      <c r="D347" t="s">
-        <v>807</v>
-      </c>
-      <c r="F347" t="s">
-        <v>3</v>
-      </c>
-      <c r="G347" t="s">
+      <c r="D348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" t="s">
+        <v>816</v>
+      </c>
+      <c r="F348" t="s">
+        <v>3</v>
+      </c>
+      <c r="G348" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>775</v>
-      </c>
-      <c r="B348" t="s">
-        <v>19</v>
-      </c>
-      <c r="C348" t="s">
-        <v>776</v>
-      </c>
-      <c r="D348" t="s">
-        <v>19</v>
-      </c>
-      <c r="E348" t="s">
-        <v>819</v>
-      </c>
-      <c r="F348" t="s">
-        <v>3</v>
-      </c>
-      <c r="G348" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>778</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>19</v>
@@ -10168,21 +12318,21 @@
         <v>3</v>
       </c>
       <c r="G349" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="J349" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B350" t="s">
         <v>19</v>
       </c>
       <c r="C350" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D350" t="s">
         <v>262</v>
@@ -10194,18 +12344,27 @@
         <v>3</v>
       </c>
       <c r="G350" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+      <c r="K350" t="s">
+        <v>777</v>
+      </c>
+      <c r="L350" t="s">
+        <v>894</v>
+      </c>
+      <c r="M350" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B351" t="s">
         <v>19</v>
       </c>
       <c r="C351" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D351" t="s">
         <v>16</v>
@@ -10214,38 +12373,56 @@
         <v>3</v>
       </c>
       <c r="G351" t="s">
+        <v>781</v>
+      </c>
+      <c r="K351" t="s">
+        <v>780</v>
+      </c>
+      <c r="L351" t="s">
+        <v>894</v>
+      </c>
+      <c r="M351" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>782</v>
+      </c>
+      <c r="B352" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" t="s">
+        <v>778</v>
+      </c>
+      <c r="D352" t="s">
+        <v>806</v>
+      </c>
+      <c r="F352" t="s">
+        <v>3</v>
+      </c>
+      <c r="G352" t="s">
+        <v>783</v>
+      </c>
+      <c r="K352" t="s">
+        <v>782</v>
+      </c>
+      <c r="L352" t="s">
+        <v>894</v>
+      </c>
+      <c r="M352" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>785</v>
-      </c>
-      <c r="B352" t="s">
-        <v>19</v>
-      </c>
-      <c r="C352" t="s">
-        <v>781</v>
-      </c>
-      <c r="D352" t="s">
-        <v>809</v>
-      </c>
-      <c r="F352" t="s">
-        <v>3</v>
-      </c>
-      <c r="G352" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>787</v>
-      </c>
       <c r="B353" t="s">
         <v>19</v>
       </c>
       <c r="C353" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D353" t="s">
         <v>16</v>
@@ -10257,27 +12434,39 @@
         <v>3</v>
       </c>
       <c r="G353" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="K353" t="s">
+        <v>784</v>
+      </c>
+      <c r="L353" t="s">
+        <v>894</v>
+      </c>
+      <c r="M353" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B354" t="s">
         <v>19</v>
       </c>
       <c r="C354" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D354" t="s">
-        <v>807</v>
+        <v>804</v>
+      </c>
+      <c r="E354" t="s">
+        <v>778</v>
       </c>
       <c r="F354" t="s">
         <v>3</v>
       </c>
       <c r="G354" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>

--- a/data/ICU-Transliterations.xlsx
+++ b/data/ICU-Transliterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0978B-99BF-264E-AEC4-C34B2E3BE77D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D774DA-2F25-5C40-84E1-11C2BB153115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2464,9 +2464,6 @@
     <t>Benin</t>
   </si>
   <si>
-    <t>Note (Tooltip)</t>
-  </si>
-  <si>
     <t>Cyrillization of Mandarin Chinese from Pinyin into Russian (Palladius system)</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Comment (Tooltip)</t>
   </si>
 </sst>
 </file>
@@ -3496,7 +3496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3620,15 +3620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3674,15 +3665,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4040,9 +4029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10:O353"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4055,8 +4044,8 @@
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+    <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33" customWidth="1"/>
     <col min="13" max="13" width="40.1640625" customWidth="1"/>
     <col min="14" max="14" width="38.83203125" customWidth="1"/>
@@ -4092,11 +4081,11 @@
       <c r="I1" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>1040</v>
+      <c r="J1" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4130,13 +4119,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -4156,13 +4145,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -4296,8 +4285,8 @@
       <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
-        <v>830</v>
+      <c r="J10" t="s">
+        <v>829</v>
       </c>
       <c r="S10">
         <f>IF((O10&lt;&gt;", "),O10,"")</f>
@@ -4320,8 +4309,8 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" t="s">
-        <v>831</v>
+      <c r="J11" t="s">
+        <v>830</v>
       </c>
       <c r="S11">
         <f t="shared" ref="S11:S71" si="0">IF((O11&lt;&gt;", "),O11,"")</f>
@@ -4344,8 +4333,8 @@
       <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="K12" t="s">
-        <v>832</v>
+      <c r="J12" t="s">
+        <v>831</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
@@ -4368,8 +4357,8 @@
       <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="K13" t="s">
-        <v>833</v>
+      <c r="J13" t="s">
+        <v>832</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
@@ -4409,8 +4398,8 @@
       <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="K15" t="s">
-        <v>834</v>
+      <c r="J15" t="s">
+        <v>833</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
@@ -4433,8 +4422,8 @@
       <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="K16" t="s">
-        <v>835</v>
+      <c r="J16" t="s">
+        <v>834</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
@@ -4457,8 +4446,8 @@
       <c r="G17" t="s">
         <v>50</v>
       </c>
-      <c r="K17" t="s">
-        <v>836</v>
+      <c r="J17" t="s">
+        <v>835</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
@@ -4481,8 +4470,8 @@
       <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" t="s">
-        <v>837</v>
+      <c r="J18" t="s">
+        <v>836</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
@@ -4505,8 +4494,8 @@
       <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="K19" t="s">
-        <v>838</v>
+      <c r="J19" t="s">
+        <v>837</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
@@ -4529,8 +4518,8 @@
       <c r="G20" t="s">
         <v>59</v>
       </c>
-      <c r="K20" t="s">
-        <v>839</v>
+      <c r="J20" t="s">
+        <v>838</v>
       </c>
       <c r="S20">
         <f t="shared" si="0"/>
@@ -4553,8 +4542,8 @@
       <c r="G21" t="s">
         <v>62</v>
       </c>
-      <c r="K21" t="s">
-        <v>840</v>
+      <c r="J21" t="s">
+        <v>839</v>
       </c>
       <c r="S21">
         <f t="shared" si="0"/>
@@ -4640,8 +4629,8 @@
       <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="K25" t="s">
-        <v>841</v>
+      <c r="J25" t="s">
+        <v>840</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
@@ -4664,8 +4653,8 @@
       <c r="G26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
-        <v>842</v>
+      <c r="J26" t="s">
+        <v>841</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
@@ -4688,8 +4677,8 @@
       <c r="G27" t="s">
         <v>79</v>
       </c>
-      <c r="K27" t="s">
-        <v>843</v>
+      <c r="J27" t="s">
+        <v>842</v>
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
@@ -4712,8 +4701,8 @@
       <c r="G28" t="s">
         <v>81</v>
       </c>
-      <c r="K28" t="s">
-        <v>844</v>
+      <c r="J28" t="s">
+        <v>843</v>
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
@@ -4736,8 +4725,8 @@
       <c r="I29" t="s">
         <v>42</v>
       </c>
-      <c r="K29" t="s">
-        <v>845</v>
+      <c r="J29" t="s">
+        <v>844</v>
       </c>
       <c r="S29">
         <f t="shared" si="0"/>
@@ -4777,8 +4766,8 @@
       <c r="G31" t="s">
         <v>86</v>
       </c>
-      <c r="K31" t="s">
-        <v>846</v>
+      <c r="J31" t="s">
+        <v>845</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
@@ -4801,8 +4790,8 @@
       <c r="G32" t="s">
         <v>88</v>
       </c>
-      <c r="K32" t="s">
-        <v>847</v>
+      <c r="J32" t="s">
+        <v>846</v>
       </c>
       <c r="S32">
         <f t="shared" si="0"/>
@@ -4825,8 +4814,8 @@
       <c r="G33" t="s">
         <v>90</v>
       </c>
-      <c r="K33" t="s">
-        <v>848</v>
+      <c r="J33" t="s">
+        <v>847</v>
       </c>
       <c r="S33">
         <f t="shared" si="0"/>
@@ -4849,8 +4838,8 @@
       <c r="G34" t="s">
         <v>92</v>
       </c>
-      <c r="K34" t="s">
-        <v>849</v>
+      <c r="J34" t="s">
+        <v>848</v>
       </c>
       <c r="S34">
         <f t="shared" si="0"/>
@@ -4873,8 +4862,8 @@
       <c r="G35" t="s">
         <v>94</v>
       </c>
-      <c r="K35" t="s">
-        <v>850</v>
+      <c r="J35" t="s">
+        <v>849</v>
       </c>
       <c r="S35">
         <f t="shared" si="0"/>
@@ -4897,8 +4886,8 @@
       <c r="G36" t="s">
         <v>96</v>
       </c>
-      <c r="K36" t="s">
-        <v>851</v>
+      <c r="J36" t="s">
+        <v>850</v>
       </c>
       <c r="S36">
         <f t="shared" si="0"/>
@@ -4962,7 +4951,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
@@ -5073,8 +5062,8 @@
       <c r="G44" t="s">
         <v>122</v>
       </c>
-      <c r="K44" t="s">
-        <v>852</v>
+      <c r="J44" t="s">
+        <v>851</v>
       </c>
       <c r="S44">
         <f t="shared" si="0"/>
@@ -5097,8 +5086,8 @@
       <c r="G45" t="s">
         <v>124</v>
       </c>
-      <c r="K45" t="s">
-        <v>853</v>
+      <c r="J45" t="s">
+        <v>852</v>
       </c>
       <c r="S45">
         <f t="shared" si="0"/>
@@ -5121,8 +5110,8 @@
       <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="K46" t="s">
-        <v>854</v>
+      <c r="J46" t="s">
+        <v>853</v>
       </c>
       <c r="S46">
         <f t="shared" si="0"/>
@@ -5145,8 +5134,8 @@
       <c r="G47" t="s">
         <v>128</v>
       </c>
-      <c r="K47" t="s">
-        <v>855</v>
+      <c r="J47" t="s">
+        <v>854</v>
       </c>
       <c r="S47">
         <f t="shared" si="0"/>
@@ -5186,8 +5175,8 @@
       <c r="G49" t="s">
         <v>131</v>
       </c>
-      <c r="K49" t="s">
-        <v>856</v>
+      <c r="J49" t="s">
+        <v>855</v>
       </c>
       <c r="S49">
         <f t="shared" si="0"/>
@@ -5210,8 +5199,8 @@
       <c r="G50" t="s">
         <v>133</v>
       </c>
-      <c r="K50" t="s">
-        <v>857</v>
+      <c r="J50" t="s">
+        <v>856</v>
       </c>
       <c r="S50">
         <f t="shared" si="0"/>
@@ -5234,8 +5223,8 @@
       <c r="G51" t="s">
         <v>135</v>
       </c>
-      <c r="K51" t="s">
-        <v>858</v>
+      <c r="J51" t="s">
+        <v>857</v>
       </c>
       <c r="S51">
         <f t="shared" si="0"/>
@@ -5258,8 +5247,8 @@
       <c r="G52" t="s">
         <v>137</v>
       </c>
-      <c r="K52" t="s">
-        <v>859</v>
+      <c r="J52" t="s">
+        <v>858</v>
       </c>
       <c r="S52">
         <f t="shared" si="0"/>
@@ -5282,8 +5271,8 @@
       <c r="G53" t="s">
         <v>139</v>
       </c>
-      <c r="K53" t="s">
-        <v>860</v>
+      <c r="J53" t="s">
+        <v>859</v>
       </c>
       <c r="S53">
         <f t="shared" si="0"/>
@@ -5306,8 +5295,8 @@
       <c r="G54" t="s">
         <v>141</v>
       </c>
-      <c r="K54" t="s">
-        <v>861</v>
+      <c r="J54" t="s">
+        <v>860</v>
       </c>
       <c r="S54">
         <f t="shared" si="0"/>
@@ -5330,8 +5319,8 @@
       <c r="G55" t="s">
         <v>143</v>
       </c>
-      <c r="K55" t="s">
-        <v>862</v>
+      <c r="J55" t="s">
+        <v>861</v>
       </c>
       <c r="S55">
         <f t="shared" si="0"/>
@@ -5354,8 +5343,8 @@
       <c r="G56" t="s">
         <v>145</v>
       </c>
-      <c r="K56" t="s">
-        <v>863</v>
+      <c r="J56" t="s">
+        <v>862</v>
       </c>
       <c r="S56">
         <f t="shared" si="0"/>
@@ -5378,8 +5367,8 @@
       <c r="G57" t="s">
         <v>147</v>
       </c>
-      <c r="K57" t="s">
-        <v>864</v>
+      <c r="J57" t="s">
+        <v>863</v>
       </c>
       <c r="S57">
         <f t="shared" si="0"/>
@@ -5402,8 +5391,8 @@
       <c r="G58" t="s">
         <v>149</v>
       </c>
-      <c r="K58" t="s">
-        <v>865</v>
+      <c r="J58" t="s">
+        <v>864</v>
       </c>
       <c r="S58">
         <f t="shared" si="0"/>
@@ -5426,8 +5415,8 @@
       <c r="G59" t="s">
         <v>151</v>
       </c>
-      <c r="K59" t="s">
-        <v>866</v>
+      <c r="J59" t="s">
+        <v>865</v>
       </c>
       <c r="S59">
         <f t="shared" si="0"/>
@@ -5467,8 +5456,8 @@
       <c r="G61" t="s">
         <v>154</v>
       </c>
-      <c r="K61" t="s">
-        <v>867</v>
+      <c r="J61" t="s">
+        <v>866</v>
       </c>
       <c r="S61">
         <f t="shared" si="0"/>
@@ -5491,8 +5480,8 @@
       <c r="G62" t="s">
         <v>156</v>
       </c>
-      <c r="K62" t="s">
-        <v>868</v>
+      <c r="J62" t="s">
+        <v>867</v>
       </c>
       <c r="S62">
         <f t="shared" si="0"/>
@@ -5515,8 +5504,8 @@
       <c r="G63" t="s">
         <v>158</v>
       </c>
-      <c r="K63" t="s">
-        <v>869</v>
+      <c r="J63" t="s">
+        <v>868</v>
       </c>
       <c r="S63">
         <f t="shared" si="0"/>
@@ -5539,8 +5528,8 @@
       <c r="G64" t="s">
         <v>160</v>
       </c>
-      <c r="K64" t="s">
-        <v>870</v>
+      <c r="J64" t="s">
+        <v>869</v>
       </c>
       <c r="S64">
         <f t="shared" si="0"/>
@@ -5563,8 +5552,8 @@
       <c r="G65" t="s">
         <v>162</v>
       </c>
-      <c r="K65" t="s">
-        <v>871</v>
+      <c r="J65" t="s">
+        <v>870</v>
       </c>
       <c r="S65">
         <f t="shared" si="0"/>
@@ -5587,8 +5576,8 @@
       <c r="G66" t="s">
         <v>164</v>
       </c>
-      <c r="K66" t="s">
-        <v>872</v>
+      <c r="J66" t="s">
+        <v>871</v>
       </c>
       <c r="S66">
         <f t="shared" si="0"/>
@@ -5611,8 +5600,8 @@
       <c r="G67" t="s">
         <v>166</v>
       </c>
-      <c r="K67" t="s">
-        <v>873</v>
+      <c r="J67" t="s">
+        <v>872</v>
       </c>
       <c r="S67">
         <f t="shared" si="0"/>
@@ -5638,8 +5627,8 @@
       <c r="G68" t="s">
         <v>170</v>
       </c>
-      <c r="K68" t="s">
-        <v>874</v>
+      <c r="J68" t="s">
+        <v>873</v>
       </c>
       <c r="S68">
         <f t="shared" si="0"/>
@@ -5679,8 +5668,8 @@
       <c r="I70" t="s">
         <v>42</v>
       </c>
-      <c r="K70" t="s">
-        <v>875</v>
+      <c r="J70" t="s">
+        <v>874</v>
       </c>
       <c r="S70">
         <f t="shared" si="0"/>
@@ -5703,8 +5692,8 @@
       <c r="G71" t="s">
         <v>177</v>
       </c>
-      <c r="K71" t="s">
-        <v>876</v>
+      <c r="J71" t="s">
+        <v>875</v>
       </c>
       <c r="S71">
         <f t="shared" si="0"/>
@@ -5790,8 +5779,8 @@
       <c r="H75" t="s">
         <v>191</v>
       </c>
-      <c r="K75" t="s">
-        <v>877</v>
+      <c r="J75" t="s">
+        <v>876</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75:S138" si="1">IF((O75&lt;&gt;", "),O75,"")</f>
@@ -6044,8 +6033,8 @@
       <c r="G89" t="s">
         <v>209</v>
       </c>
-      <c r="K89" t="s">
-        <v>876</v>
+      <c r="J89" t="s">
+        <v>875</v>
       </c>
       <c r="S89">
         <f t="shared" si="1"/>
@@ -6068,8 +6057,8 @@
       <c r="G90" t="s">
         <v>211</v>
       </c>
-      <c r="K90" t="s">
-        <v>878</v>
+      <c r="J90" t="s">
+        <v>877</v>
       </c>
       <c r="S90">
         <f t="shared" si="1"/>
@@ -6092,8 +6081,8 @@
       <c r="G91" t="s">
         <v>213</v>
       </c>
-      <c r="K91" t="s">
-        <v>879</v>
+      <c r="J91" t="s">
+        <v>878</v>
       </c>
       <c r="S91">
         <f t="shared" si="1"/>
@@ -6116,8 +6105,8 @@
       <c r="G92" t="s">
         <v>215</v>
       </c>
-      <c r="K92" t="s">
-        <v>880</v>
+      <c r="J92" t="s">
+        <v>879</v>
       </c>
       <c r="S92">
         <f t="shared" si="1"/>
@@ -6140,8 +6129,8 @@
       <c r="G93" t="s">
         <v>217</v>
       </c>
-      <c r="K93" t="s">
-        <v>881</v>
+      <c r="J93" t="s">
+        <v>880</v>
       </c>
       <c r="S93">
         <f t="shared" si="1"/>
@@ -6164,8 +6153,8 @@
       <c r="G94" t="s">
         <v>219</v>
       </c>
-      <c r="K94" t="s">
-        <v>882</v>
+      <c r="J94" t="s">
+        <v>881</v>
       </c>
       <c r="S94">
         <f t="shared" si="1"/>
@@ -6205,8 +6194,8 @@
       <c r="G96" t="s">
         <v>222</v>
       </c>
-      <c r="K96" t="s">
-        <v>883</v>
+      <c r="J96" t="s">
+        <v>882</v>
       </c>
       <c r="S96">
         <f t="shared" si="1"/>
@@ -6229,8 +6218,8 @@
       <c r="G97" t="s">
         <v>224</v>
       </c>
-      <c r="K97" t="s">
-        <v>884</v>
+      <c r="J97" t="s">
+        <v>883</v>
       </c>
       <c r="S97">
         <f t="shared" si="1"/>
@@ -6253,8 +6242,8 @@
       <c r="G98" t="s">
         <v>226</v>
       </c>
-      <c r="K98" t="s">
-        <v>885</v>
+      <c r="J98" t="s">
+        <v>884</v>
       </c>
       <c r="S98">
         <f t="shared" si="1"/>
@@ -6277,8 +6266,8 @@
       <c r="G99" t="s">
         <v>228</v>
       </c>
-      <c r="K99" t="s">
-        <v>886</v>
+      <c r="J99" t="s">
+        <v>885</v>
       </c>
       <c r="S99">
         <f t="shared" si="1"/>
@@ -6301,8 +6290,8 @@
       <c r="G100" t="s">
         <v>230</v>
       </c>
-      <c r="K100" t="s">
-        <v>887</v>
+      <c r="J100" t="s">
+        <v>886</v>
       </c>
       <c r="S100">
         <f t="shared" si="1"/>
@@ -6325,8 +6314,8 @@
       <c r="G101" t="s">
         <v>232</v>
       </c>
-      <c r="K101" t="s">
-        <v>888</v>
+      <c r="J101" t="s">
+        <v>887</v>
       </c>
       <c r="S101">
         <f t="shared" si="1"/>
@@ -6473,8 +6462,8 @@
       <c r="G108" t="s">
         <v>250</v>
       </c>
-      <c r="K108" t="s">
-        <v>889</v>
+      <c r="J108" t="s">
+        <v>888</v>
       </c>
       <c r="S108">
         <f t="shared" si="1"/>
@@ -6537,8 +6526,8 @@
       <c r="G111" t="s">
         <v>257</v>
       </c>
-      <c r="K111" t="s">
-        <v>890</v>
+      <c r="J111" t="s">
+        <v>889</v>
       </c>
       <c r="S111">
         <f t="shared" si="1"/>
@@ -6581,8 +6570,8 @@
       <c r="G113" t="s">
         <v>263</v>
       </c>
-      <c r="K113" t="s">
-        <v>891</v>
+      <c r="J113" t="s">
+        <v>890</v>
       </c>
       <c r="S113">
         <f t="shared" si="1"/>
@@ -6605,8 +6594,8 @@
       <c r="G114" t="s">
         <v>265</v>
       </c>
-      <c r="K114" t="s">
-        <v>892</v>
+      <c r="J114" t="s">
+        <v>891</v>
       </c>
       <c r="S114">
         <f t="shared" si="1"/>
@@ -6629,8 +6618,8 @@
       <c r="G115" t="s">
         <v>267</v>
       </c>
-      <c r="K115" t="s">
-        <v>893</v>
+      <c r="J115" t="s">
+        <v>892</v>
       </c>
       <c r="S115">
         <f t="shared" si="1"/>
@@ -6653,8 +6642,8 @@
       <c r="I116" t="s">
         <v>42</v>
       </c>
-      <c r="K116" t="s">
-        <v>1041</v>
+      <c r="J116" t="s">
+        <v>1040</v>
       </c>
       <c r="S116">
         <f t="shared" si="1"/>
@@ -6680,8 +6669,8 @@
       <c r="G117" t="s">
         <v>270</v>
       </c>
-      <c r="K117" t="s">
-        <v>1041</v>
+      <c r="J117" t="s">
+        <v>1040</v>
       </c>
       <c r="S117">
         <f t="shared" si="1"/>
@@ -6704,8 +6693,8 @@
       <c r="G118" t="s">
         <v>272</v>
       </c>
-      <c r="K118" t="s">
-        <v>894</v>
+      <c r="J118" t="s">
+        <v>893</v>
       </c>
       <c r="S118">
         <f t="shared" si="1"/>
@@ -6731,8 +6720,8 @@
       <c r="H119" t="s">
         <v>275</v>
       </c>
-      <c r="K119" t="s">
-        <v>1041</v>
+      <c r="J119" t="s">
+        <v>1040</v>
       </c>
       <c r="S119">
         <f t="shared" si="1"/>
@@ -6755,8 +6744,8 @@
       <c r="G120" t="s">
         <v>277</v>
       </c>
-      <c r="K120" t="s">
-        <v>895</v>
+      <c r="J120" t="s">
+        <v>894</v>
       </c>
       <c r="S120">
         <f t="shared" si="1"/>
@@ -6785,8 +6774,8 @@
       <c r="H121" t="s">
         <v>280</v>
       </c>
-      <c r="K121" t="s">
-        <v>1041</v>
+      <c r="J121" t="s">
+        <v>1040</v>
       </c>
       <c r="S121">
         <f t="shared" si="1"/>
@@ -6809,8 +6798,8 @@
       <c r="G122" t="s">
         <v>282</v>
       </c>
-      <c r="K122" t="s">
-        <v>896</v>
+      <c r="J122" t="s">
+        <v>895</v>
       </c>
       <c r="S122">
         <f t="shared" si="1"/>
@@ -6833,8 +6822,8 @@
       <c r="G123" t="s">
         <v>284</v>
       </c>
-      <c r="K123" t="s">
-        <v>897</v>
+      <c r="J123" t="s">
+        <v>896</v>
       </c>
       <c r="S123">
         <f t="shared" si="1"/>
@@ -6857,8 +6846,8 @@
       <c r="G124" t="s">
         <v>286</v>
       </c>
-      <c r="K124" t="s">
-        <v>898</v>
+      <c r="J124" t="s">
+        <v>897</v>
       </c>
       <c r="S124">
         <f t="shared" si="1"/>
@@ -6881,8 +6870,8 @@
       <c r="G125" t="s">
         <v>289</v>
       </c>
-      <c r="K125" t="s">
-        <v>899</v>
+      <c r="J125" t="s">
+        <v>898</v>
       </c>
       <c r="S125">
         <f t="shared" si="1"/>
@@ -6911,8 +6900,8 @@
       <c r="G126" t="s">
         <v>292</v>
       </c>
-      <c r="K126" t="s">
-        <v>1041</v>
+      <c r="J126" t="s">
+        <v>1040</v>
       </c>
       <c r="S126">
         <f t="shared" si="1"/>
@@ -6935,8 +6924,8 @@
       <c r="G127" t="s">
         <v>294</v>
       </c>
-      <c r="K127" t="s">
-        <v>900</v>
+      <c r="J127" t="s">
+        <v>899</v>
       </c>
       <c r="S127">
         <f t="shared" si="1"/>
@@ -6959,8 +6948,8 @@
       <c r="G128" t="s">
         <v>296</v>
       </c>
-      <c r="K128" t="s">
-        <v>901</v>
+      <c r="J128" t="s">
+        <v>900</v>
       </c>
       <c r="S128">
         <f t="shared" si="1"/>
@@ -6983,8 +6972,8 @@
       <c r="G129" t="s">
         <v>298</v>
       </c>
-      <c r="K129" t="s">
-        <v>902</v>
+      <c r="J129" t="s">
+        <v>901</v>
       </c>
       <c r="S129">
         <f t="shared" si="1"/>
@@ -7007,8 +6996,8 @@
       <c r="G130" t="s">
         <v>300</v>
       </c>
-      <c r="K130" t="s">
-        <v>903</v>
+      <c r="J130" t="s">
+        <v>902</v>
       </c>
       <c r="S130">
         <f t="shared" si="1"/>
@@ -7031,8 +7020,8 @@
       <c r="G131" t="s">
         <v>302</v>
       </c>
-      <c r="K131" t="s">
-        <v>904</v>
+      <c r="J131" t="s">
+        <v>903</v>
       </c>
       <c r="S131">
         <f t="shared" si="1"/>
@@ -7055,8 +7044,8 @@
       <c r="I132" t="s">
         <v>42</v>
       </c>
-      <c r="K132" t="s">
-        <v>1041</v>
+      <c r="J132" t="s">
+        <v>1040</v>
       </c>
       <c r="S132">
         <f t="shared" si="1"/>
@@ -7079,8 +7068,8 @@
       <c r="G133" t="s">
         <v>305</v>
       </c>
-      <c r="K133" t="s">
-        <v>905</v>
+      <c r="J133" t="s">
+        <v>904</v>
       </c>
       <c r="S133">
         <f t="shared" si="1"/>
@@ -7103,8 +7092,8 @@
       <c r="G134" t="s">
         <v>307</v>
       </c>
-      <c r="K134" t="s">
-        <v>906</v>
+      <c r="J134" t="s">
+        <v>905</v>
       </c>
       <c r="S134">
         <f t="shared" si="1"/>
@@ -7127,8 +7116,8 @@
       <c r="G135" t="s">
         <v>309</v>
       </c>
-      <c r="K135" t="s">
-        <v>907</v>
+      <c r="J135" t="s">
+        <v>906</v>
       </c>
       <c r="S135">
         <f t="shared" si="1"/>
@@ -7151,8 +7140,8 @@
       <c r="G136" t="s">
         <v>311</v>
       </c>
-      <c r="K136" t="s">
-        <v>908</v>
+      <c r="J136" t="s">
+        <v>907</v>
       </c>
       <c r="S136">
         <f t="shared" si="1"/>
@@ -7175,8 +7164,8 @@
       <c r="G137" t="s">
         <v>313</v>
       </c>
-      <c r="K137" t="s">
-        <v>909</v>
+      <c r="J137" t="s">
+        <v>908</v>
       </c>
       <c r="S137">
         <f t="shared" si="1"/>
@@ -7199,8 +7188,8 @@
       <c r="G138" t="s">
         <v>315</v>
       </c>
-      <c r="K138" t="s">
-        <v>910</v>
+      <c r="J138" t="s">
+        <v>909</v>
       </c>
       <c r="S138">
         <f t="shared" si="1"/>
@@ -7226,8 +7215,8 @@
       <c r="G139" t="s">
         <v>318</v>
       </c>
-      <c r="K139" t="s">
-        <v>1041</v>
+      <c r="J139" t="s">
+        <v>1040</v>
       </c>
       <c r="S139">
         <f t="shared" ref="S139:S202" si="2">IF((O139&lt;&gt;", "),O139,"")</f>
@@ -7256,8 +7245,8 @@
       <c r="G140" t="s">
         <v>321</v>
       </c>
-      <c r="K140" t="s">
-        <v>1041</v>
+      <c r="J140" t="s">
+        <v>1040</v>
       </c>
       <c r="S140">
         <f t="shared" si="2"/>
@@ -7280,8 +7269,8 @@
       <c r="G141" t="s">
         <v>323</v>
       </c>
-      <c r="K141" t="s">
-        <v>911</v>
+      <c r="J141" t="s">
+        <v>910</v>
       </c>
       <c r="S141">
         <f t="shared" si="2"/>
@@ -7304,8 +7293,8 @@
       <c r="G142" t="s">
         <v>325</v>
       </c>
-      <c r="K142" t="s">
-        <v>912</v>
+      <c r="J142" t="s">
+        <v>911</v>
       </c>
       <c r="S142">
         <f t="shared" si="2"/>
@@ -7328,8 +7317,8 @@
       <c r="G143" t="s">
         <v>327</v>
       </c>
-      <c r="K143" t="s">
-        <v>913</v>
+      <c r="J143" t="s">
+        <v>912</v>
       </c>
       <c r="S143">
         <f t="shared" si="2"/>
@@ -7352,8 +7341,8 @@
       <c r="G144" t="s">
         <v>329</v>
       </c>
-      <c r="K144" t="s">
-        <v>914</v>
+      <c r="J144" t="s">
+        <v>913</v>
       </c>
       <c r="S144">
         <f t="shared" si="2"/>
@@ -7376,8 +7365,8 @@
       <c r="G145" t="s">
         <v>331</v>
       </c>
-      <c r="K145" t="s">
-        <v>915</v>
+      <c r="J145" t="s">
+        <v>914</v>
       </c>
       <c r="S145">
         <f t="shared" si="2"/>
@@ -7400,8 +7389,8 @@
       <c r="I146" t="s">
         <v>42</v>
       </c>
-      <c r="K146" t="s">
-        <v>1041</v>
+      <c r="J146" t="s">
+        <v>1040</v>
       </c>
       <c r="S146">
         <f t="shared" si="2"/>
@@ -7424,8 +7413,8 @@
       <c r="G147" t="s">
         <v>334</v>
       </c>
-      <c r="K147" t="s">
-        <v>916</v>
+      <c r="J147" t="s">
+        <v>915</v>
       </c>
       <c r="S147">
         <f t="shared" si="2"/>
@@ -7448,8 +7437,8 @@
       <c r="G148" t="s">
         <v>336</v>
       </c>
-      <c r="K148" t="s">
-        <v>917</v>
+      <c r="J148" t="s">
+        <v>916</v>
       </c>
       <c r="S148">
         <f t="shared" si="2"/>
@@ -7472,8 +7461,8 @@
       <c r="G149" t="s">
         <v>338</v>
       </c>
-      <c r="K149" t="s">
-        <v>918</v>
+      <c r="J149" t="s">
+        <v>917</v>
       </c>
       <c r="S149">
         <f t="shared" si="2"/>
@@ -7496,8 +7485,8 @@
       <c r="G150" t="s">
         <v>340</v>
       </c>
-      <c r="K150" t="s">
-        <v>919</v>
+      <c r="J150" t="s">
+        <v>918</v>
       </c>
       <c r="S150">
         <f t="shared" si="2"/>
@@ -7520,8 +7509,8 @@
       <c r="G151" t="s">
         <v>342</v>
       </c>
-      <c r="K151" t="s">
-        <v>920</v>
+      <c r="J151" t="s">
+        <v>919</v>
       </c>
       <c r="S151">
         <f t="shared" si="2"/>
@@ -7544,8 +7533,8 @@
       <c r="G152" t="s">
         <v>344</v>
       </c>
-      <c r="K152" t="s">
-        <v>921</v>
+      <c r="J152" t="s">
+        <v>920</v>
       </c>
       <c r="S152">
         <f t="shared" si="2"/>
@@ -7571,8 +7560,8 @@
       <c r="G153" t="s">
         <v>347</v>
       </c>
-      <c r="K153" t="s">
-        <v>1041</v>
+      <c r="J153" t="s">
+        <v>1040</v>
       </c>
       <c r="S153">
         <f t="shared" si="2"/>
@@ -7601,8 +7590,8 @@
       <c r="G154" t="s">
         <v>350</v>
       </c>
-      <c r="K154" t="s">
-        <v>1041</v>
+      <c r="J154" t="s">
+        <v>1040</v>
       </c>
       <c r="S154">
         <f t="shared" si="2"/>
@@ -7623,13 +7612,13 @@
         <v>16</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
       </c>
-      <c r="K155" t="s">
-        <v>1041</v>
+      <c r="J155" t="s">
+        <v>1040</v>
       </c>
       <c r="S155">
         <f t="shared" si="2"/>
@@ -7658,8 +7647,8 @@
       <c r="G156" t="s">
         <v>355</v>
       </c>
-      <c r="K156" t="s">
-        <v>1041</v>
+      <c r="J156" t="s">
+        <v>1040</v>
       </c>
       <c r="S156">
         <f t="shared" si="2"/>
@@ -7688,8 +7677,8 @@
       <c r="G157" t="s">
         <v>358</v>
       </c>
-      <c r="K157" t="s">
-        <v>1041</v>
+      <c r="J157" t="s">
+        <v>1040</v>
       </c>
       <c r="S157">
         <f t="shared" si="2"/>
@@ -7721,8 +7710,8 @@
       <c r="H158" t="s">
         <v>361</v>
       </c>
-      <c r="K158" t="s">
-        <v>1041</v>
+      <c r="J158" t="s">
+        <v>1040</v>
       </c>
       <c r="S158">
         <f t="shared" si="2"/>
@@ -7748,8 +7737,8 @@
       <c r="H159" t="s">
         <v>365</v>
       </c>
-      <c r="K159" t="s">
-        <v>1041</v>
+      <c r="J159" t="s">
+        <v>1040</v>
       </c>
       <c r="S159">
         <f t="shared" si="2"/>
@@ -7772,8 +7761,8 @@
       <c r="G160" t="s">
         <v>367</v>
       </c>
-      <c r="K160" t="s">
-        <v>922</v>
+      <c r="J160" t="s">
+        <v>921</v>
       </c>
       <c r="S160">
         <f t="shared" si="2"/>
@@ -7796,8 +7785,8 @@
       <c r="G161" t="s">
         <v>369</v>
       </c>
-      <c r="K161" t="s">
-        <v>923</v>
+      <c r="J161" t="s">
+        <v>922</v>
       </c>
       <c r="S161">
         <f t="shared" si="2"/>
@@ -7820,8 +7809,8 @@
       <c r="G162" t="s">
         <v>371</v>
       </c>
-      <c r="K162" t="s">
-        <v>924</v>
+      <c r="J162" t="s">
+        <v>923</v>
       </c>
       <c r="S162">
         <f t="shared" si="2"/>
@@ -7844,8 +7833,8 @@
       <c r="G163" t="s">
         <v>373</v>
       </c>
-      <c r="K163" t="s">
-        <v>925</v>
+      <c r="J163" t="s">
+        <v>924</v>
       </c>
       <c r="S163">
         <f t="shared" si="2"/>
@@ -7868,8 +7857,8 @@
       <c r="G164" t="s">
         <v>375</v>
       </c>
-      <c r="K164" t="s">
-        <v>926</v>
+      <c r="J164" t="s">
+        <v>925</v>
       </c>
       <c r="S164">
         <f t="shared" si="2"/>
@@ -7892,8 +7881,8 @@
       <c r="I165" t="s">
         <v>42</v>
       </c>
-      <c r="K165" t="s">
-        <v>1041</v>
+      <c r="J165" t="s">
+        <v>1040</v>
       </c>
       <c r="S165">
         <f t="shared" si="2"/>
@@ -7916,8 +7905,8 @@
       <c r="G166" t="s">
         <v>378</v>
       </c>
-      <c r="K166" t="s">
-        <v>927</v>
+      <c r="J166" t="s">
+        <v>926</v>
       </c>
       <c r="S166">
         <f t="shared" si="2"/>
@@ -7940,8 +7929,8 @@
       <c r="G167" t="s">
         <v>380</v>
       </c>
-      <c r="K167" t="s">
-        <v>928</v>
+      <c r="J167" t="s">
+        <v>927</v>
       </c>
       <c r="S167">
         <f t="shared" si="2"/>
@@ -7964,8 +7953,8 @@
       <c r="G168" t="s">
         <v>382</v>
       </c>
-      <c r="K168" t="s">
-        <v>929</v>
+      <c r="J168" t="s">
+        <v>928</v>
       </c>
       <c r="S168">
         <f t="shared" si="2"/>
@@ -7988,8 +7977,8 @@
       <c r="G169" t="s">
         <v>384</v>
       </c>
-      <c r="K169" t="s">
-        <v>930</v>
+      <c r="J169" t="s">
+        <v>929</v>
       </c>
       <c r="S169">
         <f t="shared" si="2"/>
@@ -8012,8 +8001,8 @@
       <c r="G170" t="s">
         <v>386</v>
       </c>
-      <c r="K170" t="s">
-        <v>931</v>
+      <c r="J170" t="s">
+        <v>930</v>
       </c>
       <c r="S170">
         <f t="shared" si="2"/>
@@ -8036,8 +8025,8 @@
       <c r="G171" t="s">
         <v>388</v>
       </c>
-      <c r="K171" t="s">
-        <v>932</v>
+      <c r="J171" t="s">
+        <v>931</v>
       </c>
       <c r="S171">
         <f t="shared" si="2"/>
@@ -8060,8 +8049,8 @@
       <c r="G172" t="s">
         <v>390</v>
       </c>
-      <c r="K172" t="s">
-        <v>933</v>
+      <c r="J172" t="s">
+        <v>932</v>
       </c>
       <c r="S172">
         <f t="shared" si="2"/>
@@ -8084,8 +8073,8 @@
       <c r="G173" t="s">
         <v>392</v>
       </c>
-      <c r="K173" t="s">
-        <v>934</v>
+      <c r="J173" t="s">
+        <v>933</v>
       </c>
       <c r="S173">
         <f t="shared" si="2"/>
@@ -8108,8 +8097,8 @@
       <c r="G174" t="s">
         <v>394</v>
       </c>
-      <c r="K174" t="s">
-        <v>935</v>
+      <c r="J174" t="s">
+        <v>934</v>
       </c>
       <c r="S174">
         <f t="shared" si="2"/>
@@ -8132,8 +8121,8 @@
       <c r="G175" t="s">
         <v>396</v>
       </c>
-      <c r="K175" t="s">
-        <v>936</v>
+      <c r="J175" t="s">
+        <v>935</v>
       </c>
       <c r="S175">
         <f t="shared" si="2"/>
@@ -8156,8 +8145,8 @@
       <c r="G176" t="s">
         <v>398</v>
       </c>
-      <c r="K176" t="s">
-        <v>1041</v>
+      <c r="J176" t="s">
+        <v>1040</v>
       </c>
       <c r="S176">
         <f t="shared" si="2"/>
@@ -8180,8 +8169,8 @@
       <c r="I177" t="s">
         <v>42</v>
       </c>
-      <c r="K177" t="s">
-        <v>937</v>
+      <c r="J177" t="s">
+        <v>936</v>
       </c>
       <c r="S177">
         <f t="shared" si="2"/>
@@ -8204,8 +8193,8 @@
       <c r="G178" t="s">
         <v>401</v>
       </c>
-      <c r="K178" t="s">
-        <v>938</v>
+      <c r="J178" t="s">
+        <v>937</v>
       </c>
       <c r="S178">
         <f t="shared" si="2"/>
@@ -8228,8 +8217,8 @@
       <c r="G179" t="s">
         <v>403</v>
       </c>
-      <c r="K179" t="s">
-        <v>939</v>
+      <c r="J179" t="s">
+        <v>938</v>
       </c>
       <c r="S179">
         <f t="shared" si="2"/>
@@ -8252,8 +8241,8 @@
       <c r="G180" t="s">
         <v>405</v>
       </c>
-      <c r="K180" t="s">
-        <v>940</v>
+      <c r="J180" t="s">
+        <v>939</v>
       </c>
       <c r="S180">
         <f t="shared" si="2"/>
@@ -8276,8 +8265,8 @@
       <c r="G181" t="s">
         <v>407</v>
       </c>
-      <c r="K181" t="s">
-        <v>941</v>
+      <c r="J181" t="s">
+        <v>940</v>
       </c>
       <c r="S181">
         <f t="shared" si="2"/>
@@ -8300,8 +8289,8 @@
       <c r="G182" t="s">
         <v>409</v>
       </c>
-      <c r="K182" t="s">
-        <v>942</v>
+      <c r="J182" t="s">
+        <v>941</v>
       </c>
       <c r="S182">
         <f t="shared" si="2"/>
@@ -8324,8 +8313,8 @@
       <c r="G183" t="s">
         <v>411</v>
       </c>
-      <c r="K183" t="s">
-        <v>943</v>
+      <c r="J183" t="s">
+        <v>942</v>
       </c>
       <c r="S183">
         <f t="shared" si="2"/>
@@ -8351,8 +8340,8 @@
       <c r="H184" t="s">
         <v>415</v>
       </c>
-      <c r="K184" t="s">
-        <v>1041</v>
+      <c r="J184" t="s">
+        <v>1040</v>
       </c>
       <c r="S184">
         <f t="shared" si="2"/>
@@ -8375,8 +8364,8 @@
       <c r="G185" t="s">
         <v>417</v>
       </c>
-      <c r="K185" t="s">
-        <v>944</v>
+      <c r="J185" t="s">
+        <v>943</v>
       </c>
       <c r="S185">
         <f t="shared" si="2"/>
@@ -8402,8 +8391,8 @@
       <c r="I186" t="s">
         <v>42</v>
       </c>
-      <c r="K186" t="s">
-        <v>945</v>
+      <c r="J186" t="s">
+        <v>944</v>
       </c>
       <c r="S186">
         <f t="shared" si="2"/>
@@ -8429,8 +8418,8 @@
       <c r="I187" t="s">
         <v>42</v>
       </c>
-      <c r="K187" t="s">
-        <v>1041</v>
+      <c r="J187" t="s">
+        <v>1040</v>
       </c>
       <c r="S187">
         <f t="shared" si="2"/>
@@ -8456,8 +8445,8 @@
       <c r="I188" t="s">
         <v>42</v>
       </c>
-      <c r="K188" t="s">
-        <v>1041</v>
+      <c r="J188" t="s">
+        <v>1040</v>
       </c>
       <c r="S188">
         <f t="shared" si="2"/>
@@ -8486,8 +8475,8 @@
       <c r="G189" t="s">
         <v>423</v>
       </c>
-      <c r="K189" t="s">
-        <v>1041</v>
+      <c r="J189" t="s">
+        <v>1040</v>
       </c>
       <c r="S189">
         <f t="shared" si="2"/>
@@ -8516,8 +8505,8 @@
       <c r="G190" t="s">
         <v>426</v>
       </c>
-      <c r="K190" t="s">
-        <v>1041</v>
+      <c r="J190" t="s">
+        <v>1040</v>
       </c>
       <c r="S190">
         <f t="shared" si="2"/>
@@ -8546,8 +8535,8 @@
       <c r="G191" t="s">
         <v>429</v>
       </c>
-      <c r="K191" t="s">
-        <v>1041</v>
+      <c r="J191" t="s">
+        <v>1040</v>
       </c>
       <c r="S191">
         <f t="shared" si="2"/>
@@ -8579,8 +8568,8 @@
       <c r="H192" t="s">
         <v>432</v>
       </c>
-      <c r="K192" t="s">
-        <v>1041</v>
+      <c r="J192" t="s">
+        <v>1040</v>
       </c>
       <c r="S192">
         <f t="shared" si="2"/>
@@ -8606,8 +8595,8 @@
       <c r="G193" t="s">
         <v>434</v>
       </c>
-      <c r="K193" t="s">
-        <v>946</v>
+      <c r="J193" t="s">
+        <v>945</v>
       </c>
       <c r="S193">
         <f t="shared" si="2"/>
@@ -8633,8 +8622,8 @@
       <c r="G194" t="s">
         <v>436</v>
       </c>
-      <c r="K194" t="s">
-        <v>947</v>
+      <c r="J194" t="s">
+        <v>946</v>
       </c>
       <c r="S194">
         <f t="shared" si="2"/>
@@ -8663,8 +8652,8 @@
       <c r="G195" t="s">
         <v>438</v>
       </c>
-      <c r="K195" t="s">
-        <v>948</v>
+      <c r="J195" t="s">
+        <v>947</v>
       </c>
       <c r="S195">
         <f t="shared" si="2"/>
@@ -8693,8 +8682,8 @@
       <c r="G196" t="s">
         <v>441</v>
       </c>
-      <c r="K196" t="s">
-        <v>1041</v>
+      <c r="J196" t="s">
+        <v>1040</v>
       </c>
       <c r="S196">
         <f t="shared" si="2"/>
@@ -8723,8 +8712,8 @@
       <c r="G197" t="s">
         <v>444</v>
       </c>
-      <c r="K197" t="s">
-        <v>1041</v>
+      <c r="J197" t="s">
+        <v>1040</v>
       </c>
       <c r="S197">
         <f t="shared" si="2"/>
@@ -8753,8 +8742,8 @@
       <c r="G198" t="s">
         <v>447</v>
       </c>
-      <c r="K198" t="s">
-        <v>1041</v>
+      <c r="J198" t="s">
+        <v>1040</v>
       </c>
       <c r="S198">
         <f t="shared" si="2"/>
@@ -8783,8 +8772,8 @@
       <c r="G199" t="s">
         <v>449</v>
       </c>
-      <c r="K199" t="s">
-        <v>1041</v>
+      <c r="J199" t="s">
+        <v>1040</v>
       </c>
       <c r="S199">
         <f t="shared" si="2"/>
@@ -8813,8 +8802,8 @@
       <c r="G200" t="s">
         <v>452</v>
       </c>
-      <c r="K200" t="s">
-        <v>949</v>
+      <c r="J200" t="s">
+        <v>948</v>
       </c>
       <c r="S200">
         <f t="shared" si="2"/>
@@ -8840,8 +8829,8 @@
       <c r="G201" t="s">
         <v>454</v>
       </c>
-      <c r="K201" t="s">
-        <v>950</v>
+      <c r="J201" t="s">
+        <v>949</v>
       </c>
       <c r="S201">
         <f t="shared" si="2"/>
@@ -8870,8 +8859,8 @@
       <c r="G202" t="s">
         <v>456</v>
       </c>
-      <c r="K202" t="s">
-        <v>1041</v>
+      <c r="J202" t="s">
+        <v>1040</v>
       </c>
       <c r="S202">
         <f t="shared" si="2"/>
@@ -8897,8 +8886,8 @@
       <c r="G203" t="s">
         <v>458</v>
       </c>
-      <c r="K203" t="s">
-        <v>951</v>
+      <c r="J203" t="s">
+        <v>950</v>
       </c>
       <c r="S203">
         <f t="shared" ref="S203:S266" si="3">IF((O203&lt;&gt;", "),O203,"")</f>
@@ -8927,8 +8916,8 @@
       <c r="G204" t="s">
         <v>460</v>
       </c>
-      <c r="K204" t="s">
-        <v>952</v>
+      <c r="J204" t="s">
+        <v>951</v>
       </c>
       <c r="S204">
         <f t="shared" si="3"/>
@@ -8954,8 +8943,8 @@
       <c r="G205" t="s">
         <v>462</v>
       </c>
-      <c r="K205" t="s">
-        <v>1041</v>
+      <c r="J205" t="s">
+        <v>1040</v>
       </c>
       <c r="S205">
         <f t="shared" si="3"/>
@@ -8984,8 +8973,8 @@
       <c r="G206" t="s">
         <v>465</v>
       </c>
-      <c r="K206" t="s">
-        <v>953</v>
+      <c r="J206" t="s">
+        <v>952</v>
       </c>
       <c r="S206">
         <f t="shared" si="3"/>
@@ -9011,8 +9000,8 @@
       <c r="G207" t="s">
         <v>467</v>
       </c>
-      <c r="K207" t="s">
-        <v>954</v>
+      <c r="J207" t="s">
+        <v>953</v>
       </c>
       <c r="S207">
         <f t="shared" si="3"/>
@@ -9038,8 +9027,8 @@
       <c r="G208" t="s">
         <v>469</v>
       </c>
-      <c r="K208" t="s">
-        <v>955</v>
+      <c r="J208" t="s">
+        <v>954</v>
       </c>
       <c r="S208">
         <f t="shared" si="3"/>
@@ -9065,8 +9054,8 @@
       <c r="G209" t="s">
         <v>471</v>
       </c>
-      <c r="K209" t="s">
-        <v>956</v>
+      <c r="J209" t="s">
+        <v>955</v>
       </c>
       <c r="S209">
         <f t="shared" si="3"/>
@@ -9095,8 +9084,8 @@
       <c r="G210" t="s">
         <v>473</v>
       </c>
-      <c r="K210" t="s">
-        <v>957</v>
+      <c r="J210" t="s">
+        <v>956</v>
       </c>
       <c r="S210">
         <f t="shared" si="3"/>
@@ -9122,8 +9111,8 @@
       <c r="G211" t="s">
         <v>475</v>
       </c>
-      <c r="K211" t="s">
-        <v>958</v>
+      <c r="J211" t="s">
+        <v>957</v>
       </c>
       <c r="S211">
         <f t="shared" si="3"/>
@@ -9149,8 +9138,8 @@
       <c r="G212" t="s">
         <v>477</v>
       </c>
-      <c r="K212" t="s">
-        <v>959</v>
+      <c r="J212" t="s">
+        <v>958</v>
       </c>
       <c r="S212">
         <f t="shared" si="3"/>
@@ -9176,8 +9165,8 @@
       <c r="G213" t="s">
         <v>479</v>
       </c>
-      <c r="K213" t="s">
-        <v>1041</v>
+      <c r="J213" t="s">
+        <v>1040</v>
       </c>
       <c r="S213">
         <f t="shared" si="3"/>
@@ -9203,8 +9192,8 @@
       <c r="G214" t="s">
         <v>481</v>
       </c>
-      <c r="K214" t="s">
-        <v>1041</v>
+      <c r="J214" t="s">
+        <v>1040</v>
       </c>
       <c r="S214">
         <f t="shared" si="3"/>
@@ -9233,8 +9222,8 @@
       <c r="G215" t="s">
         <v>484</v>
       </c>
-      <c r="K215" t="s">
-        <v>1041</v>
+      <c r="J215" t="s">
+        <v>1040</v>
       </c>
       <c r="S215">
         <f t="shared" si="3"/>
@@ -9260,8 +9249,8 @@
       <c r="G216" t="s">
         <v>487</v>
       </c>
-      <c r="K216" t="s">
-        <v>1041</v>
+      <c r="J216" t="s">
+        <v>1040</v>
       </c>
       <c r="S216">
         <f t="shared" si="3"/>
@@ -9287,8 +9276,8 @@
       <c r="G217" t="s">
         <v>489</v>
       </c>
-      <c r="K217" t="s">
-        <v>1041</v>
+      <c r="J217" t="s">
+        <v>1040</v>
       </c>
       <c r="S217">
         <f t="shared" si="3"/>
@@ -9317,8 +9306,8 @@
       <c r="G218" t="s">
         <v>491</v>
       </c>
-      <c r="K218" t="s">
-        <v>1041</v>
+      <c r="J218" t="s">
+        <v>1040</v>
       </c>
       <c r="S218">
         <f t="shared" si="3"/>
@@ -9347,8 +9336,8 @@
       <c r="G219" t="s">
         <v>493</v>
       </c>
-      <c r="K219" t="s">
-        <v>1041</v>
+      <c r="J219" t="s">
+        <v>1040</v>
       </c>
       <c r="S219">
         <f t="shared" si="3"/>
@@ -9377,8 +9366,8 @@
       <c r="G220" t="s">
         <v>495</v>
       </c>
-      <c r="K220" t="s">
-        <v>1041</v>
+      <c r="J220" t="s">
+        <v>1040</v>
       </c>
       <c r="S220">
         <f t="shared" si="3"/>
@@ -9407,8 +9396,8 @@
       <c r="G221" t="s">
         <v>498</v>
       </c>
-      <c r="K221" t="s">
-        <v>960</v>
+      <c r="J221" t="s">
+        <v>959</v>
       </c>
       <c r="S221">
         <f t="shared" si="3"/>
@@ -9434,8 +9423,8 @@
       <c r="G222" t="s">
         <v>500</v>
       </c>
-      <c r="K222" t="s">
-        <v>961</v>
+      <c r="J222" t="s">
+        <v>960</v>
       </c>
       <c r="S222">
         <f t="shared" si="3"/>
@@ -9461,8 +9450,8 @@
       <c r="G223" t="s">
         <v>502</v>
       </c>
-      <c r="K223" t="s">
-        <v>962</v>
+      <c r="J223" t="s">
+        <v>961</v>
       </c>
       <c r="S223">
         <f t="shared" si="3"/>
@@ -9491,8 +9480,8 @@
       <c r="G224" t="s">
         <v>504</v>
       </c>
-      <c r="K224" t="s">
-        <v>963</v>
+      <c r="J224" t="s">
+        <v>962</v>
       </c>
       <c r="S224">
         <f t="shared" si="3"/>
@@ -9521,8 +9510,8 @@
       <c r="G225" t="s">
         <v>506</v>
       </c>
-      <c r="K225" t="s">
-        <v>1041</v>
+      <c r="J225" t="s">
+        <v>1040</v>
       </c>
       <c r="S225">
         <f t="shared" si="3"/>
@@ -9551,8 +9540,8 @@
       <c r="G226" t="s">
         <v>509</v>
       </c>
-      <c r="K226" t="s">
-        <v>964</v>
+      <c r="J226" t="s">
+        <v>963</v>
       </c>
       <c r="S226">
         <f t="shared" si="3"/>
@@ -9578,8 +9567,8 @@
       <c r="G227" t="s">
         <v>511</v>
       </c>
-      <c r="K227" t="s">
-        <v>965</v>
+      <c r="J227" t="s">
+        <v>964</v>
       </c>
       <c r="S227">
         <f t="shared" si="3"/>
@@ -9605,8 +9594,8 @@
       <c r="G228" t="s">
         <v>513</v>
       </c>
-      <c r="K228" t="s">
-        <v>966</v>
+      <c r="J228" t="s">
+        <v>965</v>
       </c>
       <c r="S228">
         <f t="shared" si="3"/>
@@ -9635,8 +9624,8 @@
       <c r="G229" t="s">
         <v>515</v>
       </c>
-      <c r="K229" t="s">
-        <v>967</v>
+      <c r="J229" t="s">
+        <v>966</v>
       </c>
       <c r="S229">
         <f t="shared" si="3"/>
@@ -9665,8 +9654,8 @@
       <c r="G230" t="s">
         <v>517</v>
       </c>
-      <c r="K230" t="s">
-        <v>968</v>
+      <c r="J230" t="s">
+        <v>967</v>
       </c>
       <c r="S230">
         <f t="shared" si="3"/>
@@ -9692,8 +9681,8 @@
       <c r="G231" t="s">
         <v>519</v>
       </c>
-      <c r="K231" t="s">
-        <v>969</v>
+      <c r="J231" t="s">
+        <v>968</v>
       </c>
       <c r="S231">
         <f t="shared" si="3"/>
@@ -9714,7 +9703,7 @@
         <v>168</v>
       </c>
       <c r="E232" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F232" t="s">
         <v>3</v>
@@ -9722,8 +9711,8 @@
       <c r="G232" t="s">
         <v>521</v>
       </c>
-      <c r="K232" t="s">
-        <v>970</v>
+      <c r="J232" t="s">
+        <v>969</v>
       </c>
       <c r="S232">
         <f t="shared" si="3"/>
@@ -9752,8 +9741,8 @@
       <c r="G233" t="s">
         <v>523</v>
       </c>
-      <c r="K233" t="s">
-        <v>971</v>
+      <c r="J233" t="s">
+        <v>970</v>
       </c>
       <c r="S233">
         <f t="shared" si="3"/>
@@ -9779,8 +9768,8 @@
       <c r="G234" t="s">
         <v>525</v>
       </c>
-      <c r="K234" t="s">
-        <v>972</v>
+      <c r="J234" t="s">
+        <v>971</v>
       </c>
       <c r="S234">
         <f t="shared" si="3"/>
@@ -9806,8 +9795,8 @@
       <c r="G235" t="s">
         <v>527</v>
       </c>
-      <c r="K235" t="s">
-        <v>970</v>
+      <c r="J235" t="s">
+        <v>969</v>
       </c>
       <c r="S235">
         <f t="shared" si="3"/>
@@ -9836,8 +9825,8 @@
       <c r="G236" t="s">
         <v>529</v>
       </c>
-      <c r="K236" t="s">
-        <v>973</v>
+      <c r="J236" t="s">
+        <v>972</v>
       </c>
       <c r="S236">
         <f t="shared" si="3"/>
@@ -9863,8 +9852,8 @@
       <c r="G237" t="s">
         <v>531</v>
       </c>
-      <c r="K237" t="s">
-        <v>974</v>
+      <c r="J237" t="s">
+        <v>973</v>
       </c>
       <c r="S237">
         <f t="shared" si="3"/>
@@ -9885,7 +9874,7 @@
         <v>168</v>
       </c>
       <c r="E238" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F238" t="s">
         <v>3</v>
@@ -9893,8 +9882,8 @@
       <c r="G238" t="s">
         <v>533</v>
       </c>
-      <c r="K238" t="s">
-        <v>970</v>
+      <c r="J238" t="s">
+        <v>969</v>
       </c>
       <c r="S238">
         <f t="shared" si="3"/>
@@ -9923,8 +9912,8 @@
       <c r="G239" t="s">
         <v>535</v>
       </c>
-      <c r="K239" t="s">
-        <v>975</v>
+      <c r="J239" t="s">
+        <v>974</v>
       </c>
       <c r="S239">
         <f t="shared" si="3"/>
@@ -9953,8 +9942,8 @@
       <c r="G240" t="s">
         <v>537</v>
       </c>
-      <c r="K240" t="s">
-        <v>976</v>
+      <c r="J240" t="s">
+        <v>975</v>
       </c>
       <c r="S240">
         <f t="shared" si="3"/>
@@ -9980,8 +9969,8 @@
       <c r="G241" t="s">
         <v>539</v>
       </c>
-      <c r="K241" t="s">
-        <v>1041</v>
+      <c r="J241" t="s">
+        <v>1040</v>
       </c>
       <c r="S241">
         <f t="shared" si="3"/>
@@ -10002,7 +9991,7 @@
         <v>168</v>
       </c>
       <c r="E242" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F242" t="s">
         <v>3</v>
@@ -10010,8 +9999,8 @@
       <c r="G242" t="s">
         <v>541</v>
       </c>
-      <c r="K242" t="s">
-        <v>1041</v>
+      <c r="J242" t="s">
+        <v>1040</v>
       </c>
       <c r="S242">
         <f t="shared" si="3"/>
@@ -10040,8 +10029,8 @@
       <c r="G243" t="s">
         <v>543</v>
       </c>
-      <c r="K243" t="s">
-        <v>1041</v>
+      <c r="J243" t="s">
+        <v>1040</v>
       </c>
       <c r="S243">
         <f t="shared" si="3"/>
@@ -10062,7 +10051,7 @@
         <v>16</v>
       </c>
       <c r="E244" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F244" t="s">
         <v>3</v>
@@ -10070,8 +10059,8 @@
       <c r="G244" t="s">
         <v>546</v>
       </c>
-      <c r="K244" t="s">
-        <v>1041</v>
+      <c r="J244" t="s">
+        <v>1040</v>
       </c>
       <c r="S244">
         <f t="shared" si="3"/>
@@ -10097,8 +10086,8 @@
       <c r="G245" t="s">
         <v>548</v>
       </c>
-      <c r="K245" t="s">
-        <v>977</v>
+      <c r="J245" t="s">
+        <v>976</v>
       </c>
       <c r="S245">
         <f t="shared" si="3"/>
@@ -10121,8 +10110,8 @@
       <c r="G246" t="s">
         <v>550</v>
       </c>
-      <c r="K246" t="s">
-        <v>978</v>
+      <c r="J246" t="s">
+        <v>977</v>
       </c>
       <c r="S246">
         <f t="shared" si="3"/>
@@ -10145,8 +10134,8 @@
       <c r="G247" t="s">
         <v>552</v>
       </c>
-      <c r="K247" t="s">
-        <v>979</v>
+      <c r="J247" t="s">
+        <v>978</v>
       </c>
       <c r="S247">
         <f t="shared" si="3"/>
@@ -10172,8 +10161,8 @@
       <c r="G248" t="s">
         <v>554</v>
       </c>
-      <c r="K248" t="s">
-        <v>980</v>
+      <c r="J248" t="s">
+        <v>979</v>
       </c>
       <c r="S248">
         <f t="shared" si="3"/>
@@ -10199,8 +10188,8 @@
       <c r="G249" t="s">
         <v>556</v>
       </c>
-      <c r="K249" t="s">
-        <v>1041</v>
+      <c r="J249" t="s">
+        <v>1040</v>
       </c>
       <c r="S249">
         <f t="shared" si="3"/>
@@ -10229,8 +10218,8 @@
       <c r="G250" t="s">
         <v>558</v>
       </c>
-      <c r="K250" t="s">
-        <v>981</v>
+      <c r="J250" t="s">
+        <v>980</v>
       </c>
       <c r="S250">
         <f t="shared" si="3"/>
@@ -10256,8 +10245,8 @@
       <c r="G251" t="s">
         <v>560</v>
       </c>
-      <c r="K251" t="s">
-        <v>982</v>
+      <c r="J251" t="s">
+        <v>981</v>
       </c>
       <c r="S251">
         <f t="shared" si="3"/>
@@ -10283,8 +10272,8 @@
       <c r="G252" t="s">
         <v>562</v>
       </c>
-      <c r="K252" t="s">
-        <v>983</v>
+      <c r="J252" t="s">
+        <v>982</v>
       </c>
       <c r="S252">
         <f t="shared" si="3"/>
@@ -10313,8 +10302,8 @@
       <c r="G253" t="s">
         <v>564</v>
       </c>
-      <c r="K253" t="s">
-        <v>984</v>
+      <c r="J253" t="s">
+        <v>983</v>
       </c>
       <c r="S253">
         <f t="shared" si="3"/>
@@ -10335,7 +10324,7 @@
         <v>801</v>
       </c>
       <c r="E254" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F254" t="s">
         <v>3</v>
@@ -10343,8 +10332,8 @@
       <c r="G254" t="s">
         <v>566</v>
       </c>
-      <c r="K254" t="s">
-        <v>1041</v>
+      <c r="J254" t="s">
+        <v>1040</v>
       </c>
       <c r="S254">
         <f t="shared" si="3"/>
@@ -10373,8 +10362,8 @@
       <c r="G255" t="s">
         <v>569</v>
       </c>
-      <c r="K255" t="s">
-        <v>985</v>
+      <c r="J255" t="s">
+        <v>984</v>
       </c>
       <c r="S255">
         <f t="shared" si="3"/>
@@ -10400,8 +10389,8 @@
       <c r="G256" t="s">
         <v>571</v>
       </c>
-      <c r="K256" t="s">
-        <v>986</v>
+      <c r="J256" t="s">
+        <v>985</v>
       </c>
       <c r="S256">
         <f t="shared" si="3"/>
@@ -10427,8 +10416,8 @@
       <c r="G257" t="s">
         <v>573</v>
       </c>
-      <c r="K257" t="s">
-        <v>987</v>
+      <c r="J257" t="s">
+        <v>986</v>
       </c>
       <c r="S257">
         <f t="shared" si="3"/>
@@ -10457,8 +10446,8 @@
       <c r="G258" t="s">
         <v>575</v>
       </c>
-      <c r="K258" t="s">
-        <v>988</v>
+      <c r="J258" t="s">
+        <v>987</v>
       </c>
       <c r="S258">
         <f t="shared" si="3"/>
@@ -10487,8 +10476,8 @@
       <c r="G259" t="s">
         <v>577</v>
       </c>
-      <c r="K259" t="s">
-        <v>1041</v>
+      <c r="J259" t="s">
+        <v>1040</v>
       </c>
       <c r="S259">
         <f t="shared" si="3"/>
@@ -10517,8 +10506,8 @@
       <c r="G260" t="s">
         <v>580</v>
       </c>
-      <c r="K260" t="s">
-        <v>1041</v>
+      <c r="J260" t="s">
+        <v>1040</v>
       </c>
       <c r="S260">
         <f t="shared" si="3"/>
@@ -10544,8 +10533,8 @@
       <c r="G261" t="s">
         <v>582</v>
       </c>
-      <c r="K261" t="s">
-        <v>1041</v>
+      <c r="J261" t="s">
+        <v>1040</v>
       </c>
       <c r="S261">
         <f t="shared" si="3"/>
@@ -10560,7 +10549,7 @@
         <v>16</v>
       </c>
       <c r="C262" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D262" t="s">
         <v>176</v>
@@ -10572,10 +10561,10 @@
         <v>584</v>
       </c>
       <c r="J262" t="s">
-        <v>819</v>
+        <v>1040</v>
       </c>
       <c r="K262" t="s">
-        <v>1041</v>
+        <v>818</v>
       </c>
       <c r="S262">
         <f t="shared" si="3"/>
@@ -10590,7 +10579,7 @@
         <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D263" t="s">
         <v>71</v>
@@ -10605,10 +10594,10 @@
         <v>586</v>
       </c>
       <c r="J263" t="s">
-        <v>818</v>
+        <v>1040</v>
       </c>
       <c r="K263" t="s">
-        <v>1041</v>
+        <v>817</v>
       </c>
       <c r="S263">
         <f t="shared" si="3"/>
@@ -10634,8 +10623,8 @@
       <c r="G264" t="s">
         <v>588</v>
       </c>
-      <c r="K264" t="s">
-        <v>989</v>
+      <c r="J264" t="s">
+        <v>988</v>
       </c>
       <c r="S264">
         <f t="shared" si="3"/>
@@ -10658,8 +10647,8 @@
       <c r="G265" t="s">
         <v>590</v>
       </c>
-      <c r="K265" t="s">
-        <v>990</v>
+      <c r="J265" t="s">
+        <v>989</v>
       </c>
       <c r="S265">
         <f t="shared" si="3"/>
@@ -10682,8 +10671,8 @@
       <c r="G266" t="s">
         <v>592</v>
       </c>
-      <c r="K266" t="s">
-        <v>991</v>
+      <c r="J266" t="s">
+        <v>990</v>
       </c>
       <c r="S266">
         <f t="shared" si="3"/>
@@ -10709,8 +10698,8 @@
       <c r="G267" t="s">
         <v>594</v>
       </c>
-      <c r="K267" t="s">
-        <v>992</v>
+      <c r="J267" t="s">
+        <v>991</v>
       </c>
       <c r="S267">
         <f t="shared" ref="S267:S330" si="4">IF((O267&lt;&gt;", "),O267,"")</f>
@@ -10736,8 +10725,8 @@
       <c r="G268" t="s">
         <v>596</v>
       </c>
-      <c r="K268" t="s">
-        <v>1041</v>
+      <c r="J268" t="s">
+        <v>1040</v>
       </c>
       <c r="S268">
         <f t="shared" si="4"/>
@@ -10763,8 +10752,8 @@
       <c r="G269" t="s">
         <v>598</v>
       </c>
-      <c r="K269" t="s">
-        <v>993</v>
+      <c r="J269" t="s">
+        <v>992</v>
       </c>
       <c r="S269">
         <f t="shared" si="4"/>
@@ -10787,8 +10776,8 @@
       <c r="G270" t="s">
         <v>600</v>
       </c>
-      <c r="K270" t="s">
-        <v>994</v>
+      <c r="J270" t="s">
+        <v>993</v>
       </c>
       <c r="S270">
         <f t="shared" si="4"/>
@@ -10811,8 +10800,8 @@
       <c r="G271" t="s">
         <v>602</v>
       </c>
-      <c r="K271" t="s">
-        <v>995</v>
+      <c r="J271" t="s">
+        <v>994</v>
       </c>
       <c r="S271">
         <f t="shared" si="4"/>
@@ -10838,8 +10827,8 @@
       <c r="G272" t="s">
         <v>604</v>
       </c>
-      <c r="K272" t="s">
-        <v>996</v>
+      <c r="J272" t="s">
+        <v>995</v>
       </c>
       <c r="S272">
         <f t="shared" si="4"/>
@@ -10865,8 +10854,8 @@
       <c r="G273" t="s">
         <v>606</v>
       </c>
-      <c r="K273" t="s">
-        <v>1041</v>
+      <c r="J273" t="s">
+        <v>1040</v>
       </c>
       <c r="S273">
         <f t="shared" si="4"/>
@@ -10892,8 +10881,8 @@
       <c r="G274" t="s">
         <v>608</v>
       </c>
-      <c r="K274" t="s">
-        <v>1041</v>
+      <c r="J274" t="s">
+        <v>1040</v>
       </c>
       <c r="S274">
         <f t="shared" si="4"/>
@@ -10922,8 +10911,8 @@
       <c r="G275" t="s">
         <v>611</v>
       </c>
-      <c r="K275" t="s">
-        <v>1041</v>
+      <c r="J275" t="s">
+        <v>1040</v>
       </c>
       <c r="S275">
         <f t="shared" si="4"/>
@@ -10952,8 +10941,8 @@
       <c r="G276" t="s">
         <v>613</v>
       </c>
-      <c r="K276" t="s">
-        <v>1041</v>
+      <c r="J276" t="s">
+        <v>1040</v>
       </c>
       <c r="S276">
         <f t="shared" si="4"/>
@@ -10982,8 +10971,8 @@
       <c r="G277" t="s">
         <v>615</v>
       </c>
-      <c r="K277" t="s">
-        <v>1041</v>
+      <c r="J277" t="s">
+        <v>1040</v>
       </c>
       <c r="S277">
         <f t="shared" si="4"/>
@@ -11012,8 +11001,8 @@
       <c r="G278" t="s">
         <v>618</v>
       </c>
-      <c r="K278" t="s">
-        <v>1041</v>
+      <c r="J278" t="s">
+        <v>1040</v>
       </c>
       <c r="S278">
         <f t="shared" si="4"/>
@@ -11039,8 +11028,8 @@
       <c r="G279" t="s">
         <v>621</v>
       </c>
-      <c r="K279" t="s">
-        <v>997</v>
+      <c r="J279" t="s">
+        <v>996</v>
       </c>
       <c r="S279">
         <f t="shared" si="4"/>
@@ -11063,8 +11052,8 @@
       <c r="G280" t="s">
         <v>623</v>
       </c>
-      <c r="K280" t="s">
-        <v>998</v>
+      <c r="J280" t="s">
+        <v>997</v>
       </c>
       <c r="S280">
         <f t="shared" si="4"/>
@@ -11087,8 +11076,8 @@
       <c r="G281" t="s">
         <v>625</v>
       </c>
-      <c r="K281" t="s">
-        <v>999</v>
+      <c r="J281" t="s">
+        <v>998</v>
       </c>
       <c r="S281">
         <f t="shared" si="4"/>
@@ -11114,8 +11103,8 @@
       <c r="G282" t="s">
         <v>627</v>
       </c>
-      <c r="K282" t="s">
-        <v>1000</v>
+      <c r="J282" t="s">
+        <v>999</v>
       </c>
       <c r="S282">
         <f t="shared" si="4"/>
@@ -11141,8 +11130,8 @@
       <c r="G283" t="s">
         <v>629</v>
       </c>
-      <c r="K283" t="s">
-        <v>1041</v>
+      <c r="J283" t="s">
+        <v>1040</v>
       </c>
       <c r="S283">
         <f t="shared" si="4"/>
@@ -11165,8 +11154,8 @@
       <c r="G284" t="s">
         <v>632</v>
       </c>
-      <c r="K284" t="s">
-        <v>1041</v>
+      <c r="J284" t="s">
+        <v>1040</v>
       </c>
       <c r="S284">
         <f t="shared" si="4"/>
@@ -11193,10 +11182,10 @@
         <v>634</v>
       </c>
       <c r="J285" t="s">
-        <v>816</v>
+        <v>1040</v>
       </c>
       <c r="K285" t="s">
-        <v>1041</v>
+        <v>815</v>
       </c>
       <c r="S285">
         <f t="shared" si="4"/>
@@ -11225,8 +11214,8 @@
       <c r="G286" t="s">
         <v>637</v>
       </c>
-      <c r="K286" t="s">
-        <v>1041</v>
+      <c r="J286" t="s">
+        <v>1040</v>
       </c>
       <c r="S286">
         <f t="shared" si="4"/>
@@ -11255,8 +11244,8 @@
       <c r="G287" t="s">
         <v>640</v>
       </c>
-      <c r="K287" t="s">
-        <v>1041</v>
+      <c r="J287" t="s">
+        <v>1040</v>
       </c>
       <c r="S287">
         <f t="shared" si="4"/>
@@ -11285,8 +11274,8 @@
       <c r="G288" t="s">
         <v>643</v>
       </c>
-      <c r="K288" t="s">
-        <v>1001</v>
+      <c r="J288" t="s">
+        <v>1000</v>
       </c>
       <c r="S288">
         <f t="shared" si="4"/>
@@ -11312,8 +11301,8 @@
       <c r="G289" t="s">
         <v>645</v>
       </c>
-      <c r="K289" t="s">
-        <v>1002</v>
+      <c r="J289" t="s">
+        <v>1001</v>
       </c>
       <c r="S289">
         <f t="shared" si="4"/>
@@ -11339,8 +11328,8 @@
       <c r="G290" t="s">
         <v>647</v>
       </c>
-      <c r="K290" t="s">
-        <v>1003</v>
+      <c r="J290" t="s">
+        <v>1002</v>
       </c>
       <c r="S290">
         <f t="shared" si="4"/>
@@ -11369,8 +11358,8 @@
       <c r="G291" t="s">
         <v>649</v>
       </c>
-      <c r="K291" t="s">
-        <v>1004</v>
+      <c r="J291" t="s">
+        <v>1003</v>
       </c>
       <c r="S291">
         <f t="shared" si="4"/>
@@ -11396,8 +11385,8 @@
       <c r="G292" t="s">
         <v>651</v>
       </c>
-      <c r="K292" t="s">
-        <v>1005</v>
+      <c r="J292" t="s">
+        <v>1004</v>
       </c>
       <c r="S292">
         <f t="shared" si="4"/>
@@ -11426,8 +11415,8 @@
       <c r="G293" t="s">
         <v>653</v>
       </c>
-      <c r="K293" t="s">
-        <v>1041</v>
+      <c r="J293" t="s">
+        <v>1040</v>
       </c>
       <c r="S293">
         <f t="shared" si="4"/>
@@ -11453,8 +11442,8 @@
       <c r="G294" t="s">
         <v>655</v>
       </c>
-      <c r="K294" t="s">
-        <v>1041</v>
+      <c r="J294" t="s">
+        <v>1040</v>
       </c>
       <c r="S294">
         <f t="shared" si="4"/>
@@ -11483,8 +11472,8 @@
       <c r="G295" t="s">
         <v>657</v>
       </c>
-      <c r="K295" t="s">
-        <v>1006</v>
+      <c r="J295" t="s">
+        <v>1005</v>
       </c>
       <c r="S295">
         <f t="shared" si="4"/>
@@ -11510,8 +11499,8 @@
       <c r="G296" t="s">
         <v>659</v>
       </c>
-      <c r="K296" t="s">
-        <v>1007</v>
+      <c r="J296" t="s">
+        <v>1006</v>
       </c>
       <c r="S296">
         <f t="shared" si="4"/>
@@ -11537,8 +11526,8 @@
       <c r="G297" t="s">
         <v>661</v>
       </c>
-      <c r="K297" t="s">
-        <v>1008</v>
+      <c r="J297" t="s">
+        <v>1007</v>
       </c>
       <c r="S297">
         <f t="shared" si="4"/>
@@ -11567,8 +11556,8 @@
       <c r="G298" t="s">
         <v>663</v>
       </c>
-      <c r="K298" t="s">
-        <v>1009</v>
+      <c r="J298" t="s">
+        <v>1008</v>
       </c>
       <c r="S298">
         <f t="shared" si="4"/>
@@ -11597,8 +11586,8 @@
       <c r="G299" t="s">
         <v>665</v>
       </c>
-      <c r="K299" t="s">
-        <v>1041</v>
+      <c r="J299" t="s">
+        <v>1040</v>
       </c>
       <c r="S299">
         <f t="shared" si="4"/>
@@ -11627,8 +11616,8 @@
       <c r="G300" t="s">
         <v>668</v>
       </c>
-      <c r="K300" t="s">
-        <v>1010</v>
+      <c r="J300" t="s">
+        <v>1009</v>
       </c>
       <c r="S300">
         <f t="shared" si="4"/>
@@ -11654,8 +11643,8 @@
       <c r="G301" t="s">
         <v>670</v>
       </c>
-      <c r="K301" t="s">
-        <v>1011</v>
+      <c r="J301" t="s">
+        <v>1010</v>
       </c>
       <c r="S301">
         <f t="shared" si="4"/>
@@ -11681,8 +11670,8 @@
       <c r="G302" t="s">
         <v>672</v>
       </c>
-      <c r="K302" t="s">
-        <v>1012</v>
+      <c r="J302" t="s">
+        <v>1011</v>
       </c>
       <c r="S302">
         <f t="shared" si="4"/>
@@ -11711,8 +11700,8 @@
       <c r="G303" t="s">
         <v>674</v>
       </c>
-      <c r="K303" t="s">
-        <v>1013</v>
+      <c r="J303" t="s">
+        <v>1012</v>
       </c>
       <c r="S303">
         <f t="shared" si="4"/>
@@ -11738,8 +11727,8 @@
       <c r="G304" t="s">
         <v>676</v>
       </c>
-      <c r="K304" t="s">
-        <v>1014</v>
+      <c r="J304" t="s">
+        <v>1013</v>
       </c>
       <c r="S304">
         <f t="shared" si="4"/>
@@ -11768,8 +11757,8 @@
       <c r="G305" t="s">
         <v>678</v>
       </c>
-      <c r="K305" t="s">
-        <v>1041</v>
+      <c r="J305" t="s">
+        <v>1040</v>
       </c>
       <c r="S305">
         <f t="shared" si="4"/>
@@ -11795,8 +11784,8 @@
       <c r="G306" t="s">
         <v>680</v>
       </c>
-      <c r="K306" t="s">
-        <v>1041</v>
+      <c r="J306" t="s">
+        <v>1040</v>
       </c>
       <c r="S306">
         <f t="shared" si="4"/>
@@ -11822,8 +11811,8 @@
       <c r="G307" t="s">
         <v>682</v>
       </c>
-      <c r="K307" t="s">
-        <v>1041</v>
+      <c r="J307" t="s">
+        <v>1040</v>
       </c>
       <c r="S307">
         <f t="shared" si="4"/>
@@ -11844,7 +11833,7 @@
         <v>168</v>
       </c>
       <c r="E308" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F308" t="s">
         <v>3</v>
@@ -11853,10 +11842,10 @@
         <v>684</v>
       </c>
       <c r="J308" t="s">
-        <v>822</v>
+        <v>1040</v>
       </c>
       <c r="K308" t="s">
-        <v>1041</v>
+        <v>821</v>
       </c>
       <c r="S308">
         <f t="shared" si="4"/>
@@ -11885,8 +11874,8 @@
       <c r="G309" t="s">
         <v>686</v>
       </c>
-      <c r="K309" t="s">
-        <v>1041</v>
+      <c r="J309" t="s">
+        <v>1040</v>
       </c>
       <c r="S309">
         <f t="shared" si="4"/>
@@ -11912,8 +11901,8 @@
       <c r="G310" t="s">
         <v>688</v>
       </c>
-      <c r="K310" t="s">
-        <v>1015</v>
+      <c r="J310" t="s">
+        <v>1014</v>
       </c>
       <c r="S310">
         <f t="shared" si="4"/>
@@ -11936,8 +11925,8 @@
       <c r="G311" t="s">
         <v>690</v>
       </c>
-      <c r="K311" t="s">
-        <v>1016</v>
+      <c r="J311" t="s">
+        <v>1015</v>
       </c>
       <c r="S311">
         <f t="shared" si="4"/>
@@ -11960,8 +11949,8 @@
       <c r="G312" t="s">
         <v>692</v>
       </c>
-      <c r="K312" t="s">
-        <v>1017</v>
+      <c r="J312" t="s">
+        <v>1016</v>
       </c>
       <c r="S312">
         <f t="shared" si="4"/>
@@ -11987,8 +11976,8 @@
       <c r="G313" t="s">
         <v>694</v>
       </c>
-      <c r="K313" t="s">
-        <v>1018</v>
+      <c r="J313" t="s">
+        <v>1017</v>
       </c>
       <c r="S313">
         <f t="shared" si="4"/>
@@ -12014,8 +12003,8 @@
       <c r="G314" t="s">
         <v>696</v>
       </c>
-      <c r="K314" t="s">
-        <v>1041</v>
+      <c r="J314" t="s">
+        <v>1040</v>
       </c>
       <c r="S314">
         <f t="shared" si="4"/>
@@ -12041,8 +12030,8 @@
       <c r="G315" t="s">
         <v>699</v>
       </c>
-      <c r="K315" t="s">
-        <v>1019</v>
+      <c r="J315" t="s">
+        <v>1018</v>
       </c>
       <c r="S315">
         <f t="shared" si="4"/>
@@ -12065,8 +12054,8 @@
       <c r="G316" t="s">
         <v>701</v>
       </c>
-      <c r="K316" t="s">
-        <v>1020</v>
+      <c r="J316" t="s">
+        <v>1019</v>
       </c>
       <c r="S316">
         <f t="shared" si="4"/>
@@ -12089,8 +12078,8 @@
       <c r="G317" t="s">
         <v>703</v>
       </c>
-      <c r="K317" t="s">
-        <v>1021</v>
+      <c r="J317" t="s">
+        <v>1020</v>
       </c>
       <c r="S317">
         <f t="shared" si="4"/>
@@ -12116,8 +12105,8 @@
       <c r="G318" t="s">
         <v>705</v>
       </c>
-      <c r="K318" t="s">
-        <v>1022</v>
+      <c r="J318" t="s">
+        <v>1021</v>
       </c>
       <c r="S318">
         <f t="shared" si="4"/>
@@ -12143,8 +12132,8 @@
       <c r="G319" t="s">
         <v>707</v>
       </c>
-      <c r="K319" t="s">
-        <v>1041</v>
+      <c r="J319" t="s">
+        <v>1040</v>
       </c>
       <c r="S319">
         <f t="shared" si="4"/>
@@ -12167,8 +12156,8 @@
       <c r="G320" t="s">
         <v>709</v>
       </c>
-      <c r="K320" t="s">
-        <v>1041</v>
+      <c r="J320" t="s">
+        <v>1040</v>
       </c>
       <c r="S320">
         <f t="shared" si="4"/>
@@ -12197,8 +12186,8 @@
       <c r="G321" t="s">
         <v>712</v>
       </c>
-      <c r="K321" t="s">
-        <v>1023</v>
+      <c r="J321" t="s">
+        <v>1022</v>
       </c>
       <c r="S321">
         <f t="shared" si="4"/>
@@ -12224,8 +12213,8 @@
       <c r="G322" t="s">
         <v>714</v>
       </c>
-      <c r="K322" t="s">
-        <v>1024</v>
+      <c r="J322" t="s">
+        <v>1023</v>
       </c>
       <c r="S322">
         <f t="shared" si="4"/>
@@ -12251,8 +12240,8 @@
       <c r="G323" t="s">
         <v>716</v>
       </c>
-      <c r="K323" t="s">
-        <v>1025</v>
+      <c r="J323" t="s">
+        <v>1024</v>
       </c>
       <c r="S323">
         <f t="shared" si="4"/>
@@ -12281,8 +12270,8 @@
       <c r="G324" t="s">
         <v>718</v>
       </c>
-      <c r="K324" t="s">
-        <v>1026</v>
+      <c r="J324" t="s">
+        <v>1025</v>
       </c>
       <c r="S324">
         <f t="shared" si="4"/>
@@ -12308,8 +12297,8 @@
       <c r="G325" t="s">
         <v>720</v>
       </c>
-      <c r="K325" t="s">
-        <v>1027</v>
+      <c r="J325" t="s">
+        <v>1026</v>
       </c>
       <c r="S325">
         <f t="shared" si="4"/>
@@ -12338,8 +12327,8 @@
       <c r="G326" t="s">
         <v>722</v>
       </c>
-      <c r="K326" t="s">
-        <v>1041</v>
+      <c r="J326" t="s">
+        <v>1040</v>
       </c>
       <c r="S326">
         <f t="shared" si="4"/>
@@ -12365,8 +12354,8 @@
       <c r="G327" t="s">
         <v>724</v>
       </c>
-      <c r="K327" t="s">
-        <v>1041</v>
+      <c r="J327" t="s">
+        <v>1040</v>
       </c>
       <c r="S327">
         <f t="shared" si="4"/>
@@ -12392,8 +12381,8 @@
       <c r="G328" t="s">
         <v>726</v>
       </c>
-      <c r="K328" t="s">
-        <v>1041</v>
+      <c r="J328" t="s">
+        <v>1040</v>
       </c>
       <c r="S328">
         <f t="shared" si="4"/>
@@ -12422,8 +12411,8 @@
       <c r="G329" t="s">
         <v>728</v>
       </c>
-      <c r="K329" t="s">
-        <v>1028</v>
+      <c r="J329" t="s">
+        <v>1027</v>
       </c>
       <c r="S329">
         <f t="shared" si="4"/>
@@ -12449,8 +12438,8 @@
       <c r="G330" t="s">
         <v>730</v>
       </c>
-      <c r="K330" t="s">
-        <v>1029</v>
+      <c r="J330" t="s">
+        <v>1028</v>
       </c>
       <c r="S330">
         <f t="shared" si="4"/>
@@ -12476,8 +12465,8 @@
       <c r="G331" t="s">
         <v>732</v>
       </c>
-      <c r="K331" t="s">
-        <v>1030</v>
+      <c r="J331" t="s">
+        <v>1029</v>
       </c>
       <c r="S331">
         <f t="shared" ref="S331:S353" si="5">IF((O331&lt;&gt;", "),O331,"")</f>
@@ -12506,8 +12495,8 @@
       <c r="G332" t="s">
         <v>734</v>
       </c>
-      <c r="K332" t="s">
-        <v>1031</v>
+      <c r="J332" t="s">
+        <v>1030</v>
       </c>
       <c r="S332">
         <f t="shared" si="5"/>
@@ -12533,8 +12522,8 @@
       <c r="G333" t="s">
         <v>736</v>
       </c>
-      <c r="K333" t="s">
-        <v>1041</v>
+      <c r="J333" t="s">
+        <v>1040</v>
       </c>
       <c r="S333">
         <f t="shared" si="5"/>
@@ -12563,8 +12552,8 @@
       <c r="G334" t="s">
         <v>739</v>
       </c>
-      <c r="K334" t="s">
-        <v>1041</v>
+      <c r="J334" t="s">
+        <v>1040</v>
       </c>
       <c r="S334">
         <f t="shared" si="5"/>
@@ -12593,8 +12582,8 @@
       <c r="G335" t="s">
         <v>741</v>
       </c>
-      <c r="K335" t="s">
-        <v>1041</v>
+      <c r="J335" t="s">
+        <v>1040</v>
       </c>
       <c r="S335">
         <f t="shared" si="5"/>
@@ -12623,8 +12612,8 @@
       <c r="G336" t="s">
         <v>743</v>
       </c>
-      <c r="K336" t="s">
-        <v>1041</v>
+      <c r="J336" t="s">
+        <v>1040</v>
       </c>
       <c r="S336">
         <f t="shared" si="5"/>
@@ -12653,8 +12642,8 @@
       <c r="G337" t="s">
         <v>746</v>
       </c>
-      <c r="K337" t="s">
-        <v>1041</v>
+      <c r="J337" t="s">
+        <v>1040</v>
       </c>
       <c r="S337">
         <f t="shared" si="5"/>
@@ -12677,8 +12666,8 @@
       <c r="G338" t="s">
         <v>748</v>
       </c>
-      <c r="K338" t="s">
-        <v>1041</v>
+      <c r="J338" t="s">
+        <v>1040</v>
       </c>
       <c r="S338">
         <f t="shared" si="5"/>
@@ -12701,8 +12690,8 @@
       <c r="G339" t="s">
         <v>750</v>
       </c>
-      <c r="K339" t="s">
-        <v>1041</v>
+      <c r="J339" t="s">
+        <v>1040</v>
       </c>
       <c r="S339">
         <f t="shared" si="5"/>
@@ -12728,8 +12717,8 @@
       <c r="G340" t="s">
         <v>752</v>
       </c>
-      <c r="K340" t="s">
-        <v>1041</v>
+      <c r="J340" t="s">
+        <v>1040</v>
       </c>
       <c r="S340">
         <f t="shared" si="5"/>
@@ -12761,8 +12750,8 @@
       <c r="H341" t="s">
         <v>755</v>
       </c>
-      <c r="K341" t="s">
-        <v>1041</v>
+      <c r="J341" t="s">
+        <v>1040</v>
       </c>
       <c r="S341">
         <f t="shared" si="5"/>
@@ -12791,8 +12780,8 @@
       <c r="G342" t="s">
         <v>757</v>
       </c>
-      <c r="K342" t="s">
-        <v>1041</v>
+      <c r="J342" t="s">
+        <v>1040</v>
       </c>
       <c r="S342">
         <f t="shared" si="5"/>
@@ -12821,8 +12810,8 @@
       <c r="G343" t="s">
         <v>760</v>
       </c>
-      <c r="K343" t="s">
-        <v>1032</v>
+      <c r="J343" t="s">
+        <v>1031</v>
       </c>
       <c r="S343">
         <f t="shared" si="5"/>
@@ -12848,8 +12837,8 @@
       <c r="G344" t="s">
         <v>762</v>
       </c>
-      <c r="K344" t="s">
-        <v>1033</v>
+      <c r="J344" t="s">
+        <v>1032</v>
       </c>
       <c r="S344">
         <f t="shared" si="5"/>
@@ -12875,8 +12864,8 @@
       <c r="G345" t="s">
         <v>764</v>
       </c>
-      <c r="K345" t="s">
-        <v>1034</v>
+      <c r="J345" t="s">
+        <v>1033</v>
       </c>
       <c r="S345">
         <f t="shared" si="5"/>
@@ -12905,8 +12894,8 @@
       <c r="G346" t="s">
         <v>766</v>
       </c>
-      <c r="K346" t="s">
-        <v>1035</v>
+      <c r="J346" t="s">
+        <v>1034</v>
       </c>
       <c r="S346">
         <f t="shared" si="5"/>
@@ -12935,8 +12924,8 @@
       <c r="G347" t="s">
         <v>768</v>
       </c>
-      <c r="K347" t="s">
-        <v>1041</v>
+      <c r="J347" t="s">
+        <v>1040</v>
       </c>
       <c r="S347">
         <f t="shared" si="5"/>
@@ -12965,8 +12954,8 @@
       <c r="G348" t="s">
         <v>771</v>
       </c>
-      <c r="K348" t="s">
-        <v>1041</v>
+      <c r="J348" t="s">
+        <v>1040</v>
       </c>
       <c r="S348">
         <f t="shared" si="5"/>
@@ -12996,10 +12985,10 @@
         <v>773</v>
       </c>
       <c r="J349" t="s">
-        <v>815</v>
+        <v>1040</v>
       </c>
       <c r="K349" t="s">
-        <v>1041</v>
+        <v>814</v>
       </c>
       <c r="S349">
         <f t="shared" si="5"/>
@@ -13028,8 +13017,8 @@
       <c r="G350" t="s">
         <v>776</v>
       </c>
-      <c r="K350" t="s">
-        <v>1036</v>
+      <c r="J350" t="s">
+        <v>1035</v>
       </c>
       <c r="S350">
         <f t="shared" si="5"/>
@@ -13055,8 +13044,8 @@
       <c r="G351" t="s">
         <v>778</v>
       </c>
-      <c r="K351" t="s">
-        <v>1037</v>
+      <c r="J351" t="s">
+        <v>1036</v>
       </c>
       <c r="S351">
         <f t="shared" si="5"/>
@@ -13082,8 +13071,8 @@
       <c r="G352" t="s">
         <v>780</v>
       </c>
-      <c r="K352" t="s">
-        <v>1038</v>
+      <c r="J352" t="s">
+        <v>1037</v>
       </c>
       <c r="S352">
         <f t="shared" si="5"/>
@@ -13112,8 +13101,8 @@
       <c r="G353" t="s">
         <v>782</v>
       </c>
-      <c r="K353" t="s">
-        <v>1039</v>
+      <c r="J353" t="s">
+        <v>1038</v>
       </c>
       <c r="S353">
         <f t="shared" si="5"/>
